--- a/experiment_results/104357P6.xlsx
+++ b/experiment_results/104357P6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1142"/>
+  <dimension ref="A1:I1207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,7 +771,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'City Tours']</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -1146,7 +1146,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1596,7 +1596,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -1746,7 +1746,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -2046,7 +2046,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -2346,7 +2346,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -3321,7 +3321,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -3396,7 +3396,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
@@ -3846,7 +3846,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Performing Arts']</t>
+          <t>Category: ['Performing Arts', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B224" t="inlineStr"/>
@@ -3921,7 +3921,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
@@ -4596,7 +4596,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B274" t="inlineStr"/>
@@ -4971,7 +4971,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B299" t="inlineStr"/>
@@ -5046,7 +5046,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B304" t="inlineStr"/>
@@ -5121,7 +5121,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
@@ -5421,7 +5421,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B329" t="inlineStr"/>
@@ -5646,7 +5646,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B344" t="inlineStr"/>
@@ -5796,7 +5796,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours', 'Shopping and Fashion']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Shopping and Fashion']</t>
         </is>
       </c>
       <c r="B354" t="inlineStr"/>
@@ -6096,7 +6096,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B374" t="inlineStr"/>
@@ -6321,7 +6321,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B389" t="inlineStr"/>
@@ -6396,7 +6396,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B394" t="inlineStr"/>
@@ -6471,7 +6471,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'City Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B399" t="inlineStr"/>
@@ -7071,7 +7071,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B439" t="inlineStr"/>
@@ -7146,7 +7146,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B444" t="inlineStr"/>
@@ -7296,7 +7296,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B454" t="inlineStr"/>
@@ -7896,7 +7896,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B494" t="inlineStr"/>
@@ -7971,7 +7971,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B499" t="inlineStr"/>
@@ -8271,7 +8271,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B519" t="inlineStr"/>
@@ -8496,7 +8496,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B534" t="inlineStr"/>
@@ -8646,7 +8646,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B544" t="inlineStr"/>
@@ -8946,7 +8946,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B564" t="inlineStr"/>
@@ -9096,7 +9096,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Performing Arts']</t>
+          <t>Category: ['Performing Arts', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B574" t="inlineStr"/>
@@ -9321,7 +9321,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Category: ['Workshops and Classes', 'Shopping and Fashion']</t>
+          <t>Category: ['Shopping and Fashion', 'Workshops and Classes']</t>
         </is>
       </c>
       <c r="B589" t="inlineStr"/>
@@ -9471,7 +9471,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B599" t="inlineStr"/>
@@ -9546,7 +9546,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B604" t="inlineStr"/>
@@ -9996,7 +9996,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B634" t="inlineStr"/>
@@ -10071,7 +10071,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B639" t="inlineStr"/>
@@ -10146,7 +10146,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B644" t="inlineStr"/>
@@ -10446,7 +10446,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B664" t="inlineStr"/>
@@ -10671,7 +10671,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B679" t="inlineStr"/>
@@ -10821,7 +10821,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B689" t="inlineStr"/>
@@ -10971,7 +10971,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B699" t="inlineStr"/>
@@ -11646,7 +11646,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B744" t="inlineStr"/>
@@ -11796,7 +11796,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B754" t="inlineStr"/>
@@ -11871,7 +11871,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B759" t="inlineStr"/>
@@ -12171,7 +12171,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B779" t="inlineStr"/>
@@ -12621,7 +12621,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B809" t="inlineStr"/>
@@ -12696,7 +12696,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Category: ['Transportation &amp; Travel Services', 'Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Transportation &amp; Travel Services', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B814" t="inlineStr"/>
@@ -12846,7 +12846,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B824" t="inlineStr"/>
@@ -13071,7 +13071,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B839" t="inlineStr"/>
@@ -13221,7 +13221,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Scenic Tours']</t>
+          <t>Category: ['Entertainment', 'City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B849" t="inlineStr"/>
@@ -13296,7 +13296,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B854" t="inlineStr"/>
@@ -13371,7 +13371,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Scenic Tours']</t>
+          <t>Category: ['Entertainment', 'City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B859" t="inlineStr"/>
@@ -13792,7 +13792,7 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2148SP001LF</t>
+          <t>PRODUCTCODE: 24780P1</t>
         </is>
       </c>
       <c r="B887" t="inlineStr"/>
@@ -13807,7 +13807,7 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>Summarized description: Explore Barcelona any way you want on a 4-hour, customizable private tour. Choose a morning or afternoon tour, tell your guide your interests in advance. Entrance fees, food and drink are at your own expense.</t>
+          <t>Summarized description: Enjoy Barcelona in a private vehicle driven by professional drivers, uniformed and multilingual. The driver will pick you up at your centrally located hotel in Barcelona and will show you around some of the city's most famous landmarks.</t>
         </is>
       </c>
       <c r="B888" t="inlineStr"/>
@@ -13822,7 +13822,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>Title: Private Tour: Barcelona Half-Day Sightseeing Tour</t>
+          <t xml:space="preserve">Title: Barcelona Highlights Private Tour </t>
         </is>
       </c>
       <c r="B889" t="inlineStr"/>
@@ -13837,7 +13837,7 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>TotalReviews: 93</t>
+          <t>TotalReviews: 105</t>
         </is>
       </c>
       <c r="B890" t="inlineStr"/>
@@ -13867,7 +13867,7 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 30791P623</t>
+          <t>PRODUCTCODE: 2148SP001LF</t>
         </is>
       </c>
       <c r="B892" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>Summarized description: Your host will create a personalized itinerary to match your pace. Tick off those must-sees like the Jewish Quarter or uncover the wonders of the old Roman Temple. For a more local vibe, laze your afternoon away sipping sangria on the beach.</t>
+          <t>Summarized description: Explore Barcelona any way you want on a 4-hour, customizable private tour. Choose a morning or afternoon tour, tell your guide your interests in advance. Entrance fees, food and drink are at your own expense.</t>
         </is>
       </c>
       <c r="B893" t="inlineStr"/>
@@ -13897,7 +13897,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Barcelona Highlights Private Tour with a Local 100% Personalized </t>
+          <t>Title: Private Tour: Barcelona Half-Day Sightseeing Tour</t>
         </is>
       </c>
       <c r="B894" t="inlineStr"/>
@@ -13912,7 +13912,7 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>TotalReviews: 90</t>
+          <t>TotalReviews: 93</t>
         </is>
       </c>
       <c r="B895" t="inlineStr"/>
@@ -13927,7 +13927,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B896" t="inlineStr"/>
@@ -13942,7 +13942,7 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 299045P4</t>
+          <t>PRODUCTCODE: 30791P623</t>
         </is>
       </c>
       <c r="B897" t="inlineStr"/>
@@ -13957,7 +13957,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>Summarized description: We offer unique tailor-made private tours &amp; exclusives experiences in Barcelona and Catalonia with licensed local, Spanish, French and English-speaking tour guides. Proven experience in luxury tours guiding VIPs such as U2’s Bono, Sigourney Weaver, Beyoncé, among others.</t>
+          <t>Summarized description: Your host will create a personalized itinerary to match your pace. Tick off those must-sees like the Jewish Quarter or uncover the wonders of the old Roman Temple. For a more local vibe, laze your afternoon away sipping sangria on the beach.</t>
         </is>
       </c>
       <c r="B898" t="inlineStr"/>
@@ -13972,7 +13972,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>Title: Private Tailored Barcelona Tour</t>
+          <t xml:space="preserve">Title: Barcelona Highlights Private Tour with a Local 100% Personalized </t>
         </is>
       </c>
       <c r="B899" t="inlineStr"/>
@@ -13987,7 +13987,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>TotalReviews: 68</t>
+          <t>TotalReviews: 90</t>
         </is>
       </c>
       <c r="B900" t="inlineStr"/>
@@ -14017,7 +14017,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 141460P2</t>
+          <t>PRODUCTCODE: 299045P4</t>
         </is>
       </c>
       <c r="B902" t="inlineStr"/>
@@ -14032,7 +14032,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Barcelona at the hands of a local friend at your own pace doing exactly what you want to do. We will communicate beforehand to discuss your needs and interests to create a customized itinerary.</t>
+          <t>Summarized description: We offer unique tailor-made private tours &amp; exclusives experiences in Barcelona and Catalonia with licensed local, Spanish, French and English-speaking tour guides. Proven experience in luxury tours guiding VIPs such as U2’s Bono, Sigourney Weaver, Beyoncé, among others.</t>
         </is>
       </c>
       <c r="B903" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Barcelona Highlights with a Local Friend </t>
+          <t>Title: Private Tailored Barcelona Tour</t>
         </is>
       </c>
       <c r="B904" t="inlineStr"/>
@@ -14062,7 +14062,7 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>TotalReviews: 62</t>
+          <t>TotalReviews: 68</t>
         </is>
       </c>
       <c r="B905" t="inlineStr"/>
@@ -14077,7 +14077,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B906" t="inlineStr"/>
@@ -14092,7 +14092,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P1581</t>
+          <t>PRODUCTCODE: 141460P2</t>
         </is>
       </c>
       <c r="B907" t="inlineStr"/>
@@ -14107,7 +14107,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>Summarized description: This highlights tour of Barcelona is created for you and in your own way. Check the must-see places in city off your traveling bucket list with the help of your local host.</t>
+          <t>Summarized description: Discover Barcelona at the hands of a local friend at your own pace doing exactly what you want to do. We will communicate beforehand to discuss your needs and interests to create a customized itinerary.</t>
         </is>
       </c>
       <c r="B908" t="inlineStr"/>
@@ -14122,7 +14122,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>Title: Barcelona 100% Personalized 3-Hour Private City Tour</t>
+          <t xml:space="preserve">Title: Barcelona Highlights with a Local Friend </t>
         </is>
       </c>
       <c r="B909" t="inlineStr"/>
@@ -14137,7 +14137,7 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>TotalReviews: 32</t>
+          <t>TotalReviews: 62</t>
         </is>
       </c>
       <c r="B910" t="inlineStr"/>
@@ -14167,7 +14167,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 173069P1</t>
+          <t>PRODUCTCODE: 73429P1</t>
         </is>
       </c>
       <c r="B912" t="inlineStr"/>
@@ -14182,7 +14182,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>Summarized description: Exploring the old city center with its narrow alleys, impressive medieval buildings and lively squares. Find out what lies under our feet and what we regularly miss above our heads.</t>
+          <t>Summarized description: Learn about important Catalan legends. Enjoy a drink in a magical square where mostly locals go. See Barcelona through the eyes of a local. See the city with different eyes!</t>
         </is>
       </c>
       <c r="B913" t="inlineStr"/>
@@ -14197,7 +14197,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>Title: Private Tours Barcelona</t>
+          <t xml:space="preserve">Title: Explore hidden streets of Barcelona with a local </t>
         </is>
       </c>
       <c r="B914" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>TotalReviews: 26</t>
+          <t>TotalReviews: 57</t>
         </is>
       </c>
       <c r="B915" t="inlineStr"/>
@@ -14227,7 +14227,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B916" t="inlineStr"/>
@@ -14242,7 +14242,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 29916P1</t>
+          <t>PRODUCTCODE: 24380P352</t>
         </is>
       </c>
       <c r="B917" t="inlineStr"/>
@@ -14257,7 +14257,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>Summarized description: Get to know Barcelona in style on a personalized tour with a local guide. This tour is a fun way to discover and to experience a custom made visit to the city.</t>
+          <t>Summarized description: Withlocals Family Friendly City Tour™ is one of Withlocals' signature tours available in major cities worldwide. Visit main highlights like Plaça Reial, Palau Güell, and Cathedral of Barcelona, and discover hidden gems through a series of activities.</t>
         </is>
       </c>
       <c r="B918" t="inlineStr"/>
@@ -14272,7 +14272,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>Title: Barcelona Guided Tour in a Convertible</t>
+          <t>Title: Family Friendly Barcelona Private City Tour</t>
         </is>
       </c>
       <c r="B919" t="inlineStr"/>
@@ -14287,7 +14287,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>TotalReviews: 25</t>
+          <t>TotalReviews: 38</t>
         </is>
       </c>
       <c r="B920" t="inlineStr"/>
@@ -14317,7 +14317,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2148SP002LF</t>
+          <t>PRODUCTCODE: 24380P355</t>
         </is>
       </c>
       <c r="B922" t="inlineStr"/>
@@ -14332,7 +14332,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Barcelona the way you wish on this full-day, customizable private tour. Let your guide know what you want to see and, on the day, follow an itinerary designed around your interests. All admission fees, meals and drinks are at your own expense.</t>
+          <t>Summarized description: Explore the best spots around the city with your private local guide. Get tips to make the trip more fun for your kids, what to visit and where to eat. Along the way there will be a fun-filled game, and a prize to be won!</t>
         </is>
       </c>
       <c r="B923" t="inlineStr"/>
@@ -14347,7 +14347,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>Title: Private Tour: Barcelona Full-Day Sightseeing Tour</t>
+          <t>Title: Barcelona's Must-Do Private Family Tour</t>
         </is>
       </c>
       <c r="B924" t="inlineStr"/>
@@ -14362,7 +14362,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>TotalReviews: 18</t>
+          <t>TotalReviews: 38</t>
         </is>
       </c>
       <c r="B925" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B926" t="inlineStr"/>
@@ -14392,7 +14392,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5689P16</t>
+          <t>PRODUCTCODE: 24380P1581</t>
         </is>
       </c>
       <c r="B927" t="inlineStr"/>
@@ -14407,7 +14407,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>Summarized description: Private Barcelona city tour with personal pickup and drop-off from the hotel, cruise port, or the airport. Discover all the highlights of Barcelona with an option to skip-the-lines too!</t>
+          <t>Summarized description: This highlights tour of Barcelona is created for you and in your own way. Check the must-see places in city off your traveling bucket list with the help of your local host.</t>
         </is>
       </c>
       <c r="B928" t="inlineStr"/>
@@ -14422,7 +14422,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>Title: Private Guided Barcelona Tour - Discover Barcelona Skip-the-Lines Group Option</t>
+          <t>Title: Barcelona 100% Personalized 3-Hour Private City Tour</t>
         </is>
       </c>
       <c r="B929" t="inlineStr"/>
@@ -14437,7 +14437,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>TotalReviews: 13</t>
+          <t>TotalReviews: 32</t>
         </is>
       </c>
       <c r="B930" t="inlineStr"/>
@@ -14452,7 +14452,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B931" t="inlineStr"/>
@@ -14467,7 +14467,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 11201P1</t>
+          <t>PRODUCTCODE: 204981P1</t>
         </is>
       </c>
       <c r="B932" t="inlineStr"/>
@@ -14482,7 +14482,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>Summarized description: Experience Barcelona's top highlights during this private 3-hour tour. With an English-speaking driver/guide, relax in the comfort of an air-conditioned Mercedes. See a panoramic view of the city, Gaudí's Sagrada Família and Olympic Ring.</t>
+          <t>Summarized description: Discover Barcelona on a totally private tour with your local guide and private transportation. This tour includes air-conditioned transportation in private van with driver guide, pick-up from your hotel, cruise port or airport and the option to choose skip-the-line.</t>
         </is>
       </c>
       <c r="B933" t="inlineStr"/>
@@ -14497,7 +14497,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>Title: Barcelona Highlights: Private Guided Tour</t>
+          <t>Title: Barcelona Highlights Chauffeured Private Tour</t>
         </is>
       </c>
       <c r="B934" t="inlineStr"/>
@@ -14512,7 +14512,7 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>TotalReviews: 12</t>
+          <t>TotalReviews: 30</t>
         </is>
       </c>
       <c r="B935" t="inlineStr"/>
@@ -14527,7 +14527,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B936" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 73429P14</t>
+          <t>PRODUCTCODE: 24380P130</t>
         </is>
       </c>
       <c r="B937" t="inlineStr"/>
@@ -14557,7 +14557,7 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about important Catalan legends. Enjoy a drink in a magical square where mostly locals go. See Barcelona through the eyes of a local. See the city with different eyes!</t>
+          <t>Summarized description: Discover Barcelona's most popular sites like a local with your own private guide. See the Cathedral of Barcelona, Plaça Reial, and the Palau de la Musica.</t>
         </is>
       </c>
       <c r="B938" t="inlineStr"/>
@@ -14572,7 +14572,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>Title: Explore hidden streets of Barcelona with a local - Private Tour</t>
+          <t>Title: Highlights and Hidden Gems Private Tour Barcelona</t>
         </is>
       </c>
       <c r="B939" t="inlineStr"/>
@@ -14587,7 +14587,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>TotalReviews: 11</t>
+          <t>TotalReviews: 27</t>
         </is>
       </c>
       <c r="B940" t="inlineStr"/>
@@ -14602,7 +14602,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B941" t="inlineStr"/>
@@ -14617,7 +14617,7 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 437294P1</t>
+          <t>PRODUCTCODE: 173069P1</t>
         </is>
       </c>
       <c r="B942" t="inlineStr"/>
@@ -14632,7 +14632,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>Summarized description: Tourists can explore the Gothic Quarter, the Cathedral, Sant Felip Neri, Born, Plaça Sant Jaume... Barcelona is home to a rich history that we want to share with you.</t>
+          <t>Summarized description: Exploring the old city center with its narrow alleys, impressive medieval buildings and lively squares. Find out what lies under our feet and what we regularly miss above our heads.</t>
         </is>
       </c>
       <c r="B943" t="inlineStr"/>
@@ -14647,7 +14647,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>Title: Discover Barcelona with a Private Walking Tour with a Local Guide</t>
+          <t>Title: Private Tours Barcelona</t>
         </is>
       </c>
       <c r="B944" t="inlineStr"/>
@@ -14662,7 +14662,7 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 26</t>
         </is>
       </c>
       <c r="B945" t="inlineStr"/>
@@ -14692,7 +14692,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5746DAYINBARCELONA</t>
+          <t>PRODUCTCODE: 8647P3</t>
         </is>
       </c>
       <c r="B947" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>Summarized description: Make the most of your time in Barcelona with a local guide. Choose between a half- or full-day tour, then let your guide know your interests. With preplanned logistics and public transport included, this tour has everything you need.</t>
+          <t>Summarized description: Enjoy this 4-hour tour of Barcelona in your own private vehicle and guide. Pick up will be from your hotel or place of choice in Barcelona.</t>
         </is>
       </c>
       <c r="B948" t="inlineStr"/>
@@ -14722,7 +14722,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>Title: Barcelona in a Day Custom Private Tour</t>
+          <t>Title: Barcelona Private 4 hour Tour with driver and official tour guide</t>
         </is>
       </c>
       <c r="B949" t="inlineStr"/>
@@ -14737,7 +14737,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 24</t>
         </is>
       </c>
       <c r="B950" t="inlineStr"/>
@@ -14767,7 +14767,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 30791P442</t>
+          <t>PRODUCTCODE: 2148SP002LF</t>
         </is>
       </c>
       <c r="B952" t="inlineStr"/>
@@ -14782,7 +14782,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Barcelona as you would if you were staying with a friend who lived there. With a local Host thoughtfully matched to you, explore the best know attractions as well as a few secret local spots along the way.</t>
+          <t>Summarized description: Discover Barcelona the way you wish on this full-day, customizable private tour. Let your guide know what you want to see and, on the day, follow an itinerary designed around your interests. All admission fees, meals and drinks are at your own expense.</t>
         </is>
       </c>
       <c r="B953" t="inlineStr"/>
@@ -14797,7 +14797,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>Title: Barcelona Private Tours with Locals: 100% Personalized, See the City Unscripted</t>
+          <t>Title: Private Tour: Barcelona Full-Day Sightseeing Tour</t>
         </is>
       </c>
       <c r="B954" t="inlineStr"/>
@@ -14812,7 +14812,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 18</t>
         </is>
       </c>
       <c r="B955" t="inlineStr"/>
@@ -14827,7 +14827,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B956" t="inlineStr"/>
@@ -14842,7 +14842,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6874P181</t>
+          <t>PRODUCTCODE: 214073P1</t>
         </is>
       </c>
       <c r="B957" t="inlineStr"/>
@@ -14857,7 +14857,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>Summarized description: Experience Barcelona in a way you've never before with your very own private guide. Wander through the Gothic Quarter, marvel at Gaudí’s masterpieces.</t>
+          <t>Summarized description: Our bike tour is a great introduction to this fabulous city. Get into the back streets, find the hidden gems and see the romantic hideaways. With our guides, it's like having a friend show you around the city.</t>
         </is>
       </c>
       <c r="B958" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>Title: Barcelona Private Tour with an Expert Guide</t>
+          <t>Title: Private Barcelona City Bike Tour</t>
         </is>
       </c>
       <c r="B959" t="inlineStr"/>
@@ -14887,7 +14887,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 16</t>
         </is>
       </c>
       <c r="B960" t="inlineStr"/>
@@ -14902,7 +14902,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B961" t="inlineStr"/>
@@ -14917,7 +14917,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 117626P3</t>
+          <t>PRODUCTCODE: 5689P16</t>
         </is>
       </c>
       <c r="B962" t="inlineStr"/>
@@ -14932,7 +14932,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>Summarized description: Private driver will take and show you the best locations in Barcelona. Includes door-to-door hotel pickup and drop-off. We organize the perfect tour for you and we also adapt to your preferences.</t>
+          <t>Summarized description: Private Barcelona city tour with personal pickup and drop-off from the hotel, cruise port, or the airport. Discover all the highlights of Barcelona with an option to skip-the-lines too!</t>
         </is>
       </c>
       <c r="B963" t="inlineStr"/>
@@ -14947,7 +14947,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>Title: 8 hours Barcelona Highlights Private tour</t>
+          <t>Title: Private Guided Barcelona Tour - Discover Barcelona Skip-the-Lines Group Option</t>
         </is>
       </c>
       <c r="B964" t="inlineStr"/>
@@ -14962,7 +14962,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 13</t>
         </is>
       </c>
       <c r="B965" t="inlineStr"/>
@@ -14977,7 +14977,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B966" t="inlineStr"/>
@@ -14992,7 +14992,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 101019P7</t>
+          <t>PRODUCTCODE: 11201P1</t>
         </is>
       </c>
       <c r="B967" t="inlineStr"/>
@@ -15007,7 +15007,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>Summarized description: This is your tour, travel at your own pace, enjoy. Do you think the walking part of the tour is going to be too hard for you? Let us know in advance (no less than 48h) and we will offer you other options that will adapt better to your needs.</t>
+          <t>Summarized description: Experience Barcelona's top highlights during this private 3-hour tour. With an English-speaking driver/guide, relax in the comfort of an air-conditioned Mercedes. See a panoramic view of the city, Gaudí's Sagrada Família and Olympic Ring.</t>
         </is>
       </c>
       <c r="B968" t="inlineStr"/>
@@ -15022,7 +15022,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>Title: Barcelona Highlights Full Day Tour with a Licensed Tour Guide</t>
+          <t>Title: Barcelona Highlights: Private Guided Tour</t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 12</t>
         </is>
       </c>
       <c r="B970" t="inlineStr"/>
@@ -15052,7 +15052,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B971" t="inlineStr"/>
@@ -15067,7 +15067,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 30791P174</t>
+          <t>PRODUCTCODE: 73429P14</t>
         </is>
       </c>
       <c r="B972" t="inlineStr"/>
@@ -15082,7 +15082,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>Summarized description: Your host will create a personalized itinerary to match your pace. Tick off those must-sees like the Jewish Quarter or uncover the wonders of the old Roman Temple. For a more local vibe, laze your afternoon away sipping sangria on the beach.</t>
+          <t>Summarized description: Learn about important Catalan legends. Enjoy a drink in a magical square where mostly locals go. See Barcelona through the eyes of a local. See the city with different eyes!</t>
         </is>
       </c>
       <c r="B973" t="inlineStr"/>
@@ -15097,7 +15097,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Full Day In Barcelona With A Local: Private &amp; 100% Personalized </t>
+          <t>Title: Explore hidden streets of Barcelona with a local - Private Tour</t>
         </is>
       </c>
       <c r="B974" t="inlineStr"/>
@@ -15112,7 +15112,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 11</t>
         </is>
       </c>
       <c r="B975" t="inlineStr"/>
@@ -15127,7 +15127,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B976" t="inlineStr"/>
@@ -15142,7 +15142,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 271552P2</t>
+          <t>PRODUCTCODE: 161628P1</t>
         </is>
       </c>
       <c r="B977" t="inlineStr"/>
@@ -15157,7 +15157,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>Summarized description: Private guided walking tour with an expert, passionate and friendly guide. In the first part we will start with a trip to old Barcelona. Second part of the visit will focus on 19th century and early 20th century Barcelona.</t>
+          <t>Summarized description: Ride with a local English Speaking Driver and explore the most iconic monuments of the city. Our drivers are not licensed to accompany you into the sights but are very knowledgeable of the places visited.</t>
         </is>
       </c>
       <c r="B978" t="inlineStr"/>
@@ -15172,7 +15172,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>Title: Barcelona Express - Private tour</t>
+          <t>Title: Private 2-Hour Sightseeing Tour in Barcelona</t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15187,7 +15187,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B980" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B981" t="inlineStr"/>
@@ -15217,7 +15217,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 419333P13</t>
+          <t>PRODUCTCODE: 101019P1</t>
         </is>
       </c>
       <c r="B982" t="inlineStr"/>
@@ -15232,7 +15232,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>Summarized description: 4-hour 100% fully-customizable and private tour. Includes hotel pickup and drop-off from a professional English-speaking driver/local guide.</t>
+          <t>Summarized description: The best way to get to know the city in a short time. Premium transportation and tickets are already included in the price of the tour, to make things easy for you.</t>
         </is>
       </c>
       <c r="B983" t="inlineStr"/>
@@ -15247,7 +15247,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>Title: Private Barcelona Tour: Park Güell &amp; Sagrada Familia</t>
+          <t xml:space="preserve">Title: Barcelona Highlights Private Tour in a chauffeured Mercedes-Benz </t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15262,7 +15262,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B985" t="inlineStr"/>
@@ -15292,7 +15292,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 86919P8</t>
+          <t>PRODUCTCODE: 437294P1</t>
         </is>
       </c>
       <c r="B987" t="inlineStr"/>
@@ -15307,7 +15307,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>Summarized description: Get to know the city through the eyes of a passionate local. With no set itinerary, you can customize the tour or leave it up to the local. Since Lokafyers are not professional guides, they provide an experience that’s authentic and personal.</t>
+          <t>Summarized description: Tourists can explore the Gothic Quarter, the Cathedral, Sant Felip Neri, Born, Plaça Sant Jaume... Barcelona is home to a rich history that we want to share with you.</t>
         </is>
       </c>
       <c r="B988" t="inlineStr"/>
@@ -15322,7 +15322,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>Title: Barcelona Like a Local: Customized Private Tour</t>
+          <t>Title: Discover Barcelona with a Private Walking Tour with a Local Guide</t>
         </is>
       </c>
       <c r="B989" t="inlineStr"/>
@@ -15337,7 +15337,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B990" t="inlineStr"/>
@@ -15352,7 +15352,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B991" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P130</t>
+          <t>PRODUCTCODE: 5746DAYINBARCELONA</t>
         </is>
       </c>
       <c r="B992" t="inlineStr"/>
@@ -15382,7 +15382,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the most emblematic places of the city’s historic center and 19th-century expansion. A private tour only for you and your group with the guide ensures a personalized experience.</t>
+          <t>Summarized description: Make the most of your time in Barcelona with a local guide. Choose between a half- or full-day tour, then let your guide know your interests. With preplanned logistics and public transport included, this tour has everything you need.</t>
         </is>
       </c>
       <c r="B993" t="inlineStr"/>
@@ -15397,7 +15397,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>Title: Private Barcelona Bike Highlights &amp; Sagrada Familia</t>
+          <t>Title: Barcelona in a Day Custom Private Tour</t>
         </is>
       </c>
       <c r="B994" t="inlineStr"/>
@@ -15412,7 +15412,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B995" t="inlineStr"/>
@@ -15442,7 +15442,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 76654P176</t>
+          <t>PRODUCTCODE: 207389P1</t>
         </is>
       </c>
       <c r="B997" t="inlineStr"/>
@@ -15457,7 +15457,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>Summarized description: Join a Local Expert for a two-hour exclusive journey through Barcelona. Discover historic landmarks, relive storied pasts, and dive into the city's rich culture.</t>
+          <t>Summarized description: Our transfer and city tour service is designed to help you enjoy the city at your own pace and comfort. Enjoy aprivate service adapted to your needs.</t>
         </is>
       </c>
       <c r="B998" t="inlineStr"/>
@@ -15472,7 +15472,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>Title: Historic Barcelona: Exclusive Private Tour with a Local Expert</t>
+          <t>Title: The private hop on/off Barcelona tour</t>
         </is>
       </c>
       <c r="B999" t="inlineStr"/>
@@ -15487,7 +15487,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr"/>
@@ -15502,7 +15502,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Transportation &amp; Travel Services', 'City Tours']</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15517,7 +15517,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5689P20</t>
+          <t>PRODUCTCODE: 30791P442</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>Summarized description: Private Barcelona city tour with personal pickup and drop-off from the hotel, cruise port, or the airport. Discover all the highlights of Barcelona with an option to skip-the-lines too!</t>
+          <t>Summarized description: Discover Barcelona as you would if you were staying with a friend who lived there. With a local Host thoughtfully matched to you, explore the best know attractions as well as a few secret local spots along the way.</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>Title: Private Guided Barcelona tour: customize the tour, skip-the-lines - Group</t>
+          <t>Title: Barcelona Private Tours with Locals: 100% Personalized, See the City Unscripted</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15562,7 +15562,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15592,7 +15592,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 207305P220</t>
+          <t>PRODUCTCODE: 6874P181</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Summarized description: Barcelona has the reputation of being the most cosmopolitan, modern and avant-garde city in Spain. One of the great joys of a holiday abroad is sampling the local cuisine and the food in Barcelona is amongst the best in Europe.</t>
+          <t>Summarized description: Experience Barcelona in a way you've never before with your very own private guide. Wander through the Gothic Quarter, marvel at Gaudí’s masterpieces.</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -15622,7 +15622,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>Title: A day in the life of Barcelona - Private tour with a local</t>
+          <t>Title: Barcelona Private Tour with an Expert Guide</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15637,7 +15637,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8647P2</t>
+          <t>PRODUCTCODE: 117626P3</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Summarized description: Get to know Barcelona by foot with a private guide in this 4-hour walking tour. Your official tour guide will pick you up in a central place of Barcelona, if your hotel is centrally located.</t>
+          <t>Summarized description: Private driver will take and show you the best locations in Barcelona. Includes door-to-door hotel pickup and drop-off. We organize the perfect tour for you and we also adapt to your preferences.</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>Title: Private Half Day Walking Tour in Barcelona with walking pick up</t>
+          <t>Title: 8 hours Barcelona Highlights Private tour</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15712,7 +15712,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 323397P3</t>
+          <t>PRODUCTCODE: 271552P2</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Summarized description: The One Day Tour is a one-day trip to Barcelona, Spain. The tour includes a guided tour of the city and a tour of some of its most famous attractions.</t>
+          <t>Summarized description: Private guided walking tour with an expert, passionate and friendly guide. In the first part we will start with a trip to old Barcelona. Second part of the visit will focus on 19th century and early 20th century Barcelona.</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>Title: 6-Hour Private Walking Tour in Barcelona</t>
+          <t>Title: Barcelona Express - Private tour</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15787,7 +15787,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 30791P441</t>
+          <t>PRODUCTCODE: 11498P143</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Summarized description: Your Host will offer practical advice on how to get around the city. They will also show you hidden gems you would otherwise miss. So choose the area you’d like to explore and get ready to kickstart your trip to Barcelona.</t>
+          <t>Summarized description: Explore the history of the city and take in the legendary landmarks. Ride through medieval districts, Barceloneta beach, Passeig Gracia, famous Gaudi buildings and the Sagrada Familia.</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>Title: Private Tour Guide Barcelona with a Local: Kickstart your Trip, Personalized</t>
+          <t>Title: Private Barcelona Bike Tour, Gaudi's Art and Medieval Districts with Local Guide</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 11498P125</t>
+          <t>PRODUCTCODE: 86919P8</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: Explore Born Market, ancient Roman walls and some of the lesser-known places. Enjoy the beauty of landmarks like the Arco de Triunfo and the sprawling Ciutdella Park.</t>
+          <t>Summarized description: Get to know the city through the eyes of a passionate local. With no set itinerary, you can customize the tour or leave it up to the local. Since Lokafyers are not professional guides, they provide an experience that’s authentic and personal.</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>Title: Private Barcelona Old Town Walking Tour with Expert Local Guide</t>
+          <t>Title: Barcelona Like a Local: Customized Private Tour</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 385556P1</t>
+          <t>PRODUCTCODE: 172911P2</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description: Discover on a bike all the secret places of Barcelona. We only do private and customizable tours. Our local guide, Òscar, will help you to find the tour that best fits your needs.</t>
+          <t>Summarized description: At InSitu we believe that luxury is an attitude. That's why we design exclusive tours available to everyone. For us, each and every one of you is VIPs and, consequently, each one of the products we offer you is "premium"</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Title: Hidden Barcelona Private Bike Tour</t>
+          <t>Title: Private tour in Barcelona: The Gothic Quarter</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Entertainment', 'Shopping and Fashion']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 30791P440</t>
+          <t>PRODUCTCODE: 76654P176</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Summarized description: Exploring the city with a handpicked Host will not only take the pressure off you to lead the way, but will also show you the best family friendly spots in the city. Whether you decide to explore the main tourist sights, hidden gems or a specific neighbourhood, you're guaranteed to discover places, activities and food that your whole family will enjoy.</t>
+          <t>Summarized description: Join a Local Expert for a two-hour exclusive journey through Barcelona. Discover historic landmarks, relive storied pasts, and dive into the city's rich culture.</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Barcelona Private Family Tours by Locals: 100% Personalized &amp; Private </t>
+          <t>Title: Historic Barcelona: Exclusive Private Tour with a Local Expert</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 293233P2</t>
+          <t>PRODUCTCODE: 5689P20</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: Local certified guides, with 10+ years of experience. Get some wonderful knowledge of the city of Barcelona. This is a premium quality tour, by local certified guides.</t>
+          <t>Summarized description: Private Barcelona city tour with personal pickup and drop-off from the hotel, cruise port, or the airport. Discover all the highlights of Barcelona with an option to skip-the-lines too!</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Title: Half-Day Private Walking Tour in Barcelona</t>
+          <t>Title: Private Guided Barcelona tour: customize the tour, skip-the-lines - Group</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 144457P24</t>
+          <t>PRODUCTCODE: 406056P6</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description: Learn the history of the city and its museums or symbolic places in a confidential and personalised way with a private guide that speaks your language. Visit Barcelona with your family, friends or as a couple and come back with great memories.</t>
+          <t>Summarized description: 8-hour tour combines convenience of private chauffeured transportation and the expertise of a dedicated tour guide. Your adventure commences with a hotel pickup, ensuring a stress-free start to your immersive journey.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>Title: Barcelona Gothic Quarter | Private tour (2H) | Private guide</t>
+          <t>Title: Full Day Private Tour with Hotel Pick Up in Barcelona</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16237,7 +16237,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 101067P4</t>
+          <t>PRODUCTCODE: 207305P220</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description:  licensed tour guide who will put in perspective everything for you. Not only the historical and artistic facts but also the way of doing, costums, likes and dislikes, aspirations and issues.</t>
+          <t>Summarized description: Barcelona has the reputation of being the most cosmopolitan, modern and avant-garde city in Spain. One of the great joys of a holiday abroad is sampling the local cuisine and the food in Barcelona is amongst the best in Europe.</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>Title: 3-Hour Barcelona Private Walking Tour around Gothic Quarter</t>
+          <t>Title: A day in the life of Barcelona - Private tour with a local</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16312,7 +16312,7 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 328911P1</t>
+          <t>PRODUCTCODE: 8647P2</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Summarized description: All our guides are local citizen with guiding experience for more than 10 years. We are very attentive to the clients wishes and make each tour unforgettable.</t>
+          <t>Summarized description: Get to know Barcelona by foot with a private guide in this 4-hour walking tour. Your official tour guide will pick you up in a central place of Barcelona, if your hotel is centrally located.</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>Title: Barcelona Historical Private Tour</t>
+          <t>Title: Private Half Day Walking Tour in Barcelona with walking pick up</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16387,7 +16387,7 @@
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 11498P135</t>
+          <t>PRODUCTCODE: 323397P3</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Summarized description: Walking through the historic quarters of Barcelona, you will experience the friendly atmosphere of the Catalan capital. Your private guide will talk about local traditions and customs and how the city developed.</t>
+          <t>Summarized description: The One Day Tour is a one-day trip to Barcelona, Spain. The tour includes a guided tour of the city and a tour of some of its most famous attractions.</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>Title: Barcelona Must-See Private Tour with a Friendly Local Guide</t>
+          <t>Title: 6-Hour Private Walking Tour in Barcelona</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16462,7 +16462,7 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 349654P1</t>
+          <t>PRODUCTCODE: 30791P441</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description: Native Driver offers 1 private tour for 3 people during 2 hours. Tours include La Sagrada Familia, La Pedrera and Casa Batlló, Las Ramblas.</t>
+          <t>Summarized description: Your Host will offer practical advice on how to get around the city. They will also show you hidden gems you would otherwise miss. So choose the area you’d like to explore and get ready to kickstart your trip to Barcelona.</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>Title: Private Tour around Barcelona</t>
+          <t>Title: Private Tour Guide Barcelona with a Local: Kickstart your Trip, Personalized</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16537,7 +16537,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 172911P4</t>
+          <t>PRODUCTCODE: 11498P125</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description: At InSitu we believe that luxury is an attitude. That's why we design exclusive tours available to everyone. For us, each and every one of you is VIPs and, consequently, each one of the products we offer you is "premium"</t>
+          <t>Summarized description: Explore Born Market, ancient Roman walls and some of the lesser-known places. Enjoy the beauty of landmarks like the Arco de Triunfo and the sprawling Ciutdella Park.</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>Title: Private tour in Barcelona: La Rambla.</t>
+          <t>Title: Private Barcelona Old Town Walking Tour with Expert Local Guide</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16612,7 +16612,7 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Shopping and Fashion']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239937P91</t>
+          <t>PRODUCTCODE: 88037P90</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description: Let us explore the best spots around the city along with the tips from the locals. During this short trip, we will be able to know about the local insights and will enjoy the city like a local.</t>
+          <t>Summarized description: Follow us on a 2 hour tous through the Barri Gótic, or Gothic Quarter. We will unveil the complex layers of this city’s complex past.</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>Title: Barcelona's Must-Do Family Day Tour - A City Highlight Private Tour</t>
+          <t>Title: Barcelona Private Walking Tour with a Professional Guide</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239937P74</t>
+          <t>PRODUCTCODE: 293233P2</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: Private tour only you and your guide. You can get a full personalized experience, just say it, and we will make it up to you. Discover Barcelona's old history and the history of the El Raval district.</t>
+          <t>Summarized description: Local certified guides, with 10+ years of experience. Get some wonderful knowledge of the city of Barcelona. This is a premium quality tour, by local certified guides.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Title: Explore " Me Gusta " Barcelona - an Urban Kickstart Private Tour</t>
+          <t>Title: Half-Day Private Walking Tour in Barcelona</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16762,7 +16762,7 @@
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 428421P5</t>
+          <t>PRODUCTCODE: 144457P24</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Barcelona your way with our 100% personalized city tour. Tailor your itinerary to your preferences, from iconic landmarks to hidden gems. Meet at the Wax Museum for an exclusive experience.</t>
+          <t>Summarized description: Learn the history of the city and its museums or symbolic places in a confidential and personalised way with a private guide that speaks your language. Visit Barcelona with your family, friends or as a couple and come back with great memories.</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Title: Wonder Barcelona City Highlight Tour With Local Private Guide</t>
+          <t>Title: Barcelona Gothic Quarter | Private tour (2H) | Private guide</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239937P75</t>
+          <t>PRODUCTCODE: 101067P4</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: Privately guided by a local expert. Roam around each corner of the city with your guide. Enrich your knowledge and idea of Barcelona with a local.</t>
+          <t>Summarized description:  licensed tour guide who will put in perspective everything for you. Not only the historical and artistic facts but also the way of doing, costums, likes and dislikes, aspirations and issues.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Title: Barcelona - Lets Explore the Hidden Gems with a Local (Private Tour)</t>
+          <t>Title: 3-Hour Barcelona Private Walking Tour around Gothic Quarter</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239937P83</t>
+          <t>PRODUCTCODE: 328911P1</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the hidden gems of Barcelona where the locals can go only. See the Casa de La Ciutat, and Palau de la Generalitat. Roam around the Placa Reial. Discover the Palau Guell.</t>
+          <t>Summarized description: All our guides are local citizen with guiding experience for more than 10 years. We are very attentive to the clients wishes and make each tour unforgettable.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>Title: Barcelona Private Tour - Lets Discover all the Hidden Gems with a Local</t>
+          <t>Title: Barcelona Historical Private Tour</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 126593P3</t>
+          <t>PRODUCTCODE: 11498P135</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Summarized description: As a taylored tour, we'll design the tour together to include the sites you prefer. Indulge yourself in a private car or using public transport.</t>
+          <t>Summarized description: Walking through the historic quarters of Barcelona, you will experience the friendly atmosphere of the Catalan capital. Your private guide will talk about local traditions and customs and how the city developed.</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Title: Private bespoken tailored Tour in Barcelona (chauffered or walking)</t>
+          <t>Title: Barcelona Must-See Private Tour with a Friendly Local Guide</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248235P5</t>
+          <t>PRODUCTCODE: 196771P15</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Summarized description: These are private walking tours which are customized to your preferences and last between 2 and 6 hours at your request. Children below 3 years old are free of charge. Children from 3 to 15 get 60% off the regular tour price.</t>
+          <t>Summarized description: A short trip to ancient El Born area  with 4 tapas included. Personalized experience as you want. Private tour: only you &amp; your local host. 4 alcoholic drinks: beer, wine, cava.</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>Title: Discover Barcelona with a Private Walking Tour by a Local</t>
+          <t>Title:  Roam in Barcelona at Night Like a Local - Private Tour</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Category: ['']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 11498P126</t>
+          <t>PRODUCTCODE: 349654P1</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Summarized description: Walk the streets of one of the world’s best cities for strolling and discovering its astonishing art (from outside) Enjoy the best street-level exploration of Barcelona on this private 3-hours walking journey.</t>
+          <t>Summarized description: Native Driver offers 1 private tour for 3 people during 2 hours. Tours include La Sagrada Familia, La Pedrera and Casa Batlló, Las Ramblas.</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>Title: The City of Gaudi - Private Barcelona Walking Tour with Local Expert Guide</t>
+          <t>Title: Private Tour around Barcelona</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8647P8</t>
+          <t>PRODUCTCODE: 172911P4</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Summarized description: 8-hour walking tour with private guide. Transportation is not included, so it would be on your own cost. Get tips from your local guide to see what other areas and places you can visit.</t>
+          <t>Summarized description: At InSitu we believe that luxury is an attitude. That's why we design exclusive tours available to everyone. For us, each and every one of you is VIPs and, consequently, each one of the products we offer you is "premium"</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>Title: Private Full Day Walking City Tour in Barcelona</t>
+          <t>Title: Private tour in Barcelona: La Rambla.</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Entertainment', 'Shopping and Fashion']</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8647P84</t>
+          <t>PRODUCTCODE: 330348P8</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Summarized description: Your driver will pick you up from your hotel or place of choice and you will enjoy a 4 hour private tour of Barcelona. You will have your private luxury vehicle and your driver which will also be your guide.</t>
+          <t>Summarized description: Listen to the audio guide online, or offline. The content is professionally created by a group of top authors and interpreted by TV and radio professionals. The smartphone is yours and you will not have contact with unsanitary devices provided by third parties.</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>Title: Private Tour of Barcelona with Driver Guide</t>
+          <t>Title: Private Audio Guided Walking Tour in Barcelona</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['']</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239937P89</t>
+          <t>PRODUCTCODE: 239937P91</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17407,7 +17407,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Summarized description: Barcelona kickstart tour with the locals is an amazing way to know about the hidden things &amp; places of Barcelona. Avoid the tourist crowds and discover the architectural beauty of this "Full of Life " city.</t>
+          <t>Summarized description: Let us explore the best spots around the city along with the tips from the locals. During this short trip, we will be able to know about the local insights and will enjoy the city like a local.</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>Title: Barcelona Kickstart Tour (City Highlight Private Tour)</t>
+          <t>Title: Barcelona's Must-Do Family Day Tour - A City Highlight Private Tour</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 207305P225</t>
+          <t>PRODUCTCODE: 239937P74</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Summarized description: Make the most of your time in Barcelona and experience the best of everything in Barcelona on this layover special private tour with a local. Use public transport throughout this tour to enhance your local experience even more.</t>
+          <t>Summarized description: Private tour only you and your guide. You can get a full personalized experience, just say it, and we will make it up to you. Discover Barcelona's old history and the history of the El Raval district.</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>Title: Layover in Barcelona a Private Tour with a local: Best Highlights of Barcelona</t>
+          <t>Title: Explore " Me Gusta " Barcelona - an Urban Kickstart Private Tour</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 207305P228</t>
+          <t>PRODUCTCODE: 144457P31</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Summarized description: Spain is one of the best experiences to immerse yourself into the rich Spanish culture. Our fun and entertaining guide will make this a memorable experience for you.</t>
+          <t>Summarized description: Learn the history of the city and its museums or symbolic places in a confidential and personalised way with a private guide that speaks your language. Visit Barcelona with your family, friends or as a couple and come back with great memories.</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Title: Private tour of Offbeat Barcelona with a local</t>
+          <t>Title: Barcelona Gaudi Quarter | Private tour (2H) | Private guide</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>PRODUCTCODE: 102055P6</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17629,6 +17629,981 @@
       <c r="H1142" t="inlineStr"/>
       <c r="I1142" t="inlineStr"/>
     </row>
+    <row r="1143">
+      <c r="A1143" t="inlineStr">
+        <is>
+          <t>Summarized description: Discover the origins of Barcelona on this guided walking tour. Your official guide will tell you anecdotes, legends and stories. Visit such emblematic places as Las Ramblas or the Plaza de Sant Jaume.</t>
+        </is>
+      </c>
+      <c r="B1143" t="inlineStr"/>
+      <c r="C1143" t="inlineStr"/>
+      <c r="D1143" t="inlineStr"/>
+      <c r="E1143" t="inlineStr"/>
+      <c r="F1143" t="inlineStr"/>
+      <c r="G1143" t="inlineStr"/>
+      <c r="H1143" t="inlineStr"/>
+      <c r="I1143" t="inlineStr"/>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="inlineStr">
+        <is>
+          <t>Title: Barcelona Gothic Quarter: private walking tour</t>
+        </is>
+      </c>
+      <c r="B1144" t="inlineStr"/>
+      <c r="C1144" t="inlineStr"/>
+      <c r="D1144" t="inlineStr"/>
+      <c r="E1144" t="inlineStr"/>
+      <c r="F1144" t="inlineStr"/>
+      <c r="G1144" t="inlineStr"/>
+      <c r="H1144" t="inlineStr"/>
+      <c r="I1144" t="inlineStr"/>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1145" t="inlineStr"/>
+      <c r="C1145" t="inlineStr"/>
+      <c r="D1145" t="inlineStr"/>
+      <c r="E1145" t="inlineStr"/>
+      <c r="F1145" t="inlineStr"/>
+      <c r="G1145" t="inlineStr"/>
+      <c r="H1145" t="inlineStr"/>
+      <c r="I1145" t="inlineStr"/>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1146" t="inlineStr"/>
+      <c r="C1146" t="inlineStr"/>
+      <c r="D1146" t="inlineStr"/>
+      <c r="E1146" t="inlineStr"/>
+      <c r="F1146" t="inlineStr"/>
+      <c r="G1146" t="inlineStr"/>
+      <c r="H1146" t="inlineStr"/>
+      <c r="I1146" t="inlineStr"/>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 428421P5</t>
+        </is>
+      </c>
+      <c r="B1147" t="inlineStr"/>
+      <c r="C1147" t="inlineStr"/>
+      <c r="D1147" t="inlineStr"/>
+      <c r="E1147" t="inlineStr"/>
+      <c r="F1147" t="inlineStr"/>
+      <c r="G1147" t="inlineStr"/>
+      <c r="H1147" t="inlineStr"/>
+      <c r="I1147" t="inlineStr"/>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>Summarized description: Discover Barcelona your way with our 100% personalized city tour. Tailor your itinerary to your preferences, from iconic landmarks to hidden gems. Meet at the Wax Museum for an exclusive experience.</t>
+        </is>
+      </c>
+      <c r="B1148" t="inlineStr"/>
+      <c r="C1148" t="inlineStr"/>
+      <c r="D1148" t="inlineStr"/>
+      <c r="E1148" t="inlineStr"/>
+      <c r="F1148" t="inlineStr"/>
+      <c r="G1148" t="inlineStr"/>
+      <c r="H1148" t="inlineStr"/>
+      <c r="I1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="inlineStr">
+        <is>
+          <t>Title: Wonder Barcelona City Highlight Tour With Local Private Guide</t>
+        </is>
+      </c>
+      <c r="B1149" t="inlineStr"/>
+      <c r="C1149" t="inlineStr"/>
+      <c r="D1149" t="inlineStr"/>
+      <c r="E1149" t="inlineStr"/>
+      <c r="F1149" t="inlineStr"/>
+      <c r="G1149" t="inlineStr"/>
+      <c r="H1149" t="inlineStr"/>
+      <c r="I1149" t="inlineStr"/>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1150" t="inlineStr"/>
+      <c r="C1150" t="inlineStr"/>
+      <c r="D1150" t="inlineStr"/>
+      <c r="E1150" t="inlineStr"/>
+      <c r="F1150" t="inlineStr"/>
+      <c r="G1150" t="inlineStr"/>
+      <c r="H1150" t="inlineStr"/>
+      <c r="I1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
+        </is>
+      </c>
+      <c r="B1151" t="inlineStr"/>
+      <c r="C1151" t="inlineStr"/>
+      <c r="D1151" t="inlineStr"/>
+      <c r="E1151" t="inlineStr"/>
+      <c r="F1151" t="inlineStr"/>
+      <c r="G1151" t="inlineStr"/>
+      <c r="H1151" t="inlineStr"/>
+      <c r="I1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 239937P75</t>
+        </is>
+      </c>
+      <c r="B1152" t="inlineStr"/>
+      <c r="C1152" t="inlineStr"/>
+      <c r="D1152" t="inlineStr"/>
+      <c r="E1152" t="inlineStr"/>
+      <c r="F1152" t="inlineStr"/>
+      <c r="G1152" t="inlineStr"/>
+      <c r="H1152" t="inlineStr"/>
+      <c r="I1152" t="inlineStr"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="inlineStr">
+        <is>
+          <t>Summarized description: Privately guided by a local expert. Roam around each corner of the city with your guide. Enrich your knowledge and idea of Barcelona with a local.</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr"/>
+      <c r="C1153" t="inlineStr"/>
+      <c r="D1153" t="inlineStr"/>
+      <c r="E1153" t="inlineStr"/>
+      <c r="F1153" t="inlineStr"/>
+      <c r="G1153" t="inlineStr"/>
+      <c r="H1153" t="inlineStr"/>
+      <c r="I1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="inlineStr">
+        <is>
+          <t>Title: Barcelona - Lets Explore the Hidden Gems with a Local (Private Tour)</t>
+        </is>
+      </c>
+      <c r="B1154" t="inlineStr"/>
+      <c r="C1154" t="inlineStr"/>
+      <c r="D1154" t="inlineStr"/>
+      <c r="E1154" t="inlineStr"/>
+      <c r="F1154" t="inlineStr"/>
+      <c r="G1154" t="inlineStr"/>
+      <c r="H1154" t="inlineStr"/>
+      <c r="I1154" t="inlineStr"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1155" t="inlineStr"/>
+      <c r="C1155" t="inlineStr"/>
+      <c r="D1155" t="inlineStr"/>
+      <c r="E1155" t="inlineStr"/>
+      <c r="F1155" t="inlineStr"/>
+      <c r="G1155" t="inlineStr"/>
+      <c r="H1155" t="inlineStr"/>
+      <c r="I1155" t="inlineStr"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1156" t="inlineStr"/>
+      <c r="C1156" t="inlineStr"/>
+      <c r="D1156" t="inlineStr"/>
+      <c r="E1156" t="inlineStr"/>
+      <c r="F1156" t="inlineStr"/>
+      <c r="G1156" t="inlineStr"/>
+      <c r="H1156" t="inlineStr"/>
+      <c r="I1156" t="inlineStr"/>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 239937P83</t>
+        </is>
+      </c>
+      <c r="B1157" t="inlineStr"/>
+      <c r="C1157" t="inlineStr"/>
+      <c r="D1157" t="inlineStr"/>
+      <c r="E1157" t="inlineStr"/>
+      <c r="F1157" t="inlineStr"/>
+      <c r="G1157" t="inlineStr"/>
+      <c r="H1157" t="inlineStr"/>
+      <c r="I1157" t="inlineStr"/>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="inlineStr">
+        <is>
+          <t>Summarized description: Discover the hidden gems of Barcelona where the locals can go only. See the Casa de La Ciutat, and Palau de la Generalitat. Roam around the Placa Reial. Discover the Palau Guell.</t>
+        </is>
+      </c>
+      <c r="B1158" t="inlineStr"/>
+      <c r="C1158" t="inlineStr"/>
+      <c r="D1158" t="inlineStr"/>
+      <c r="E1158" t="inlineStr"/>
+      <c r="F1158" t="inlineStr"/>
+      <c r="G1158" t="inlineStr"/>
+      <c r="H1158" t="inlineStr"/>
+      <c r="I1158" t="inlineStr"/>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="inlineStr">
+        <is>
+          <t>Title: Barcelona Private Tour - Lets Discover all the Hidden Gems with a Local</t>
+        </is>
+      </c>
+      <c r="B1159" t="inlineStr"/>
+      <c r="C1159" t="inlineStr"/>
+      <c r="D1159" t="inlineStr"/>
+      <c r="E1159" t="inlineStr"/>
+      <c r="F1159" t="inlineStr"/>
+      <c r="G1159" t="inlineStr"/>
+      <c r="H1159" t="inlineStr"/>
+      <c r="I1159" t="inlineStr"/>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1160" t="inlineStr"/>
+      <c r="C1160" t="inlineStr"/>
+      <c r="D1160" t="inlineStr"/>
+      <c r="E1160" t="inlineStr"/>
+      <c r="F1160" t="inlineStr"/>
+      <c r="G1160" t="inlineStr"/>
+      <c r="H1160" t="inlineStr"/>
+      <c r="I1160" t="inlineStr"/>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
+        </is>
+      </c>
+      <c r="B1161" t="inlineStr"/>
+      <c r="C1161" t="inlineStr"/>
+      <c r="D1161" t="inlineStr"/>
+      <c r="E1161" t="inlineStr"/>
+      <c r="F1161" t="inlineStr"/>
+      <c r="G1161" t="inlineStr"/>
+      <c r="H1161" t="inlineStr"/>
+      <c r="I1161" t="inlineStr"/>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 207305P227</t>
+        </is>
+      </c>
+      <c r="B1162" t="inlineStr"/>
+      <c r="C1162" t="inlineStr"/>
+      <c r="D1162" t="inlineStr"/>
+      <c r="E1162" t="inlineStr"/>
+      <c r="F1162" t="inlineStr"/>
+      <c r="G1162" t="inlineStr"/>
+      <c r="H1162" t="inlineStr"/>
+      <c r="I1162" t="inlineStr"/>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="inlineStr">
+        <is>
+          <t>Summarized description: Barcelona has always been one of the great art cities of Europe. Famous painters, sculptors and architects worked and lived here. Our fun and entertaining guide will make this a memorable experience for you.</t>
+        </is>
+      </c>
+      <c r="B1163" t="inlineStr"/>
+      <c r="C1163" t="inlineStr"/>
+      <c r="D1163" t="inlineStr"/>
+      <c r="E1163" t="inlineStr"/>
+      <c r="F1163" t="inlineStr"/>
+      <c r="G1163" t="inlineStr"/>
+      <c r="H1163" t="inlineStr"/>
+      <c r="I1163" t="inlineStr"/>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="inlineStr">
+        <is>
+          <t>Title: Private tour of Artistic Barcelona with a local</t>
+        </is>
+      </c>
+      <c r="B1164" t="inlineStr"/>
+      <c r="C1164" t="inlineStr"/>
+      <c r="D1164" t="inlineStr"/>
+      <c r="E1164" t="inlineStr"/>
+      <c r="F1164" t="inlineStr"/>
+      <c r="G1164" t="inlineStr"/>
+      <c r="H1164" t="inlineStr"/>
+      <c r="I1164" t="inlineStr"/>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1165" t="inlineStr"/>
+      <c r="C1165" t="inlineStr"/>
+      <c r="D1165" t="inlineStr"/>
+      <c r="E1165" t="inlineStr"/>
+      <c r="F1165" t="inlineStr"/>
+      <c r="G1165" t="inlineStr"/>
+      <c r="H1165" t="inlineStr"/>
+      <c r="I1165" t="inlineStr"/>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Museums', 'Cultural Tours']</t>
+        </is>
+      </c>
+      <c r="B1166" t="inlineStr"/>
+      <c r="C1166" t="inlineStr"/>
+      <c r="D1166" t="inlineStr"/>
+      <c r="E1166" t="inlineStr"/>
+      <c r="F1166" t="inlineStr"/>
+      <c r="G1166" t="inlineStr"/>
+      <c r="H1166" t="inlineStr"/>
+      <c r="I1166" t="inlineStr"/>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 126593P3</t>
+        </is>
+      </c>
+      <c r="B1167" t="inlineStr"/>
+      <c r="C1167" t="inlineStr"/>
+      <c r="D1167" t="inlineStr"/>
+      <c r="E1167" t="inlineStr"/>
+      <c r="F1167" t="inlineStr"/>
+      <c r="G1167" t="inlineStr"/>
+      <c r="H1167" t="inlineStr"/>
+      <c r="I1167" t="inlineStr"/>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="inlineStr">
+        <is>
+          <t>Summarized description: As a taylored tour, we'll design the tour together to include the sites you prefer. Indulge yourself in a private car or using public transport.</t>
+        </is>
+      </c>
+      <c r="B1168" t="inlineStr"/>
+      <c r="C1168" t="inlineStr"/>
+      <c r="D1168" t="inlineStr"/>
+      <c r="E1168" t="inlineStr"/>
+      <c r="F1168" t="inlineStr"/>
+      <c r="G1168" t="inlineStr"/>
+      <c r="H1168" t="inlineStr"/>
+      <c r="I1168" t="inlineStr"/>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="inlineStr">
+        <is>
+          <t>Title: Private bespoken tailored Tour in Barcelona (chauffered or walking)</t>
+        </is>
+      </c>
+      <c r="B1169" t="inlineStr"/>
+      <c r="C1169" t="inlineStr"/>
+      <c r="D1169" t="inlineStr"/>
+      <c r="E1169" t="inlineStr"/>
+      <c r="F1169" t="inlineStr"/>
+      <c r="G1169" t="inlineStr"/>
+      <c r="H1169" t="inlineStr"/>
+      <c r="I1169" t="inlineStr"/>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1170" t="inlineStr"/>
+      <c r="C1170" t="inlineStr"/>
+      <c r="D1170" t="inlineStr"/>
+      <c r="E1170" t="inlineStr"/>
+      <c r="F1170" t="inlineStr"/>
+      <c r="G1170" t="inlineStr"/>
+      <c r="H1170" t="inlineStr"/>
+      <c r="I1170" t="inlineStr"/>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1171" t="inlineStr"/>
+      <c r="C1171" t="inlineStr"/>
+      <c r="D1171" t="inlineStr"/>
+      <c r="E1171" t="inlineStr"/>
+      <c r="F1171" t="inlineStr"/>
+      <c r="G1171" t="inlineStr"/>
+      <c r="H1171" t="inlineStr"/>
+      <c r="I1171" t="inlineStr"/>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 248235P5</t>
+        </is>
+      </c>
+      <c r="B1172" t="inlineStr"/>
+      <c r="C1172" t="inlineStr"/>
+      <c r="D1172" t="inlineStr"/>
+      <c r="E1172" t="inlineStr"/>
+      <c r="F1172" t="inlineStr"/>
+      <c r="G1172" t="inlineStr"/>
+      <c r="H1172" t="inlineStr"/>
+      <c r="I1172" t="inlineStr"/>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="inlineStr">
+        <is>
+          <t>Summarized description: These are private walking tours which are customized to your preferences and last between 2 and 6 hours at your request. Children below 3 years old are free of charge. Children from 3 to 15 get 60% off the regular tour price.</t>
+        </is>
+      </c>
+      <c r="B1173" t="inlineStr"/>
+      <c r="C1173" t="inlineStr"/>
+      <c r="D1173" t="inlineStr"/>
+      <c r="E1173" t="inlineStr"/>
+      <c r="F1173" t="inlineStr"/>
+      <c r="G1173" t="inlineStr"/>
+      <c r="H1173" t="inlineStr"/>
+      <c r="I1173" t="inlineStr"/>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="inlineStr">
+        <is>
+          <t>Title: Discover Barcelona with a Private Walking Tour by a Local</t>
+        </is>
+      </c>
+      <c r="B1174" t="inlineStr"/>
+      <c r="C1174" t="inlineStr"/>
+      <c r="D1174" t="inlineStr"/>
+      <c r="E1174" t="inlineStr"/>
+      <c r="F1174" t="inlineStr"/>
+      <c r="G1174" t="inlineStr"/>
+      <c r="H1174" t="inlineStr"/>
+      <c r="I1174" t="inlineStr"/>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1175" t="inlineStr"/>
+      <c r="C1175" t="inlineStr"/>
+      <c r="D1175" t="inlineStr"/>
+      <c r="E1175" t="inlineStr"/>
+      <c r="F1175" t="inlineStr"/>
+      <c r="G1175" t="inlineStr"/>
+      <c r="H1175" t="inlineStr"/>
+      <c r="I1175" t="inlineStr"/>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="inlineStr">
+        <is>
+          <t>Category: ['']</t>
+        </is>
+      </c>
+      <c r="B1176" t="inlineStr"/>
+      <c r="C1176" t="inlineStr"/>
+      <c r="D1176" t="inlineStr"/>
+      <c r="E1176" t="inlineStr"/>
+      <c r="F1176" t="inlineStr"/>
+      <c r="G1176" t="inlineStr"/>
+      <c r="H1176" t="inlineStr"/>
+      <c r="I1176" t="inlineStr"/>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 11498P126</t>
+        </is>
+      </c>
+      <c r="B1177" t="inlineStr"/>
+      <c r="C1177" t="inlineStr"/>
+      <c r="D1177" t="inlineStr"/>
+      <c r="E1177" t="inlineStr"/>
+      <c r="F1177" t="inlineStr"/>
+      <c r="G1177" t="inlineStr"/>
+      <c r="H1177" t="inlineStr"/>
+      <c r="I1177" t="inlineStr"/>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="inlineStr">
+        <is>
+          <t>Summarized description: Walk the streets of one of the world’s best cities for strolling and discovering its astonishing art (from outside) Enjoy the best street-level exploration of Barcelona on this private 3-hours walking journey.</t>
+        </is>
+      </c>
+      <c r="B1178" t="inlineStr"/>
+      <c r="C1178" t="inlineStr"/>
+      <c r="D1178" t="inlineStr"/>
+      <c r="E1178" t="inlineStr"/>
+      <c r="F1178" t="inlineStr"/>
+      <c r="G1178" t="inlineStr"/>
+      <c r="H1178" t="inlineStr"/>
+      <c r="I1178" t="inlineStr"/>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="inlineStr">
+        <is>
+          <t>Title: The City of Gaudi - Private Barcelona Walking Tour with Local Expert Guide</t>
+        </is>
+      </c>
+      <c r="B1179" t="inlineStr"/>
+      <c r="C1179" t="inlineStr"/>
+      <c r="D1179" t="inlineStr"/>
+      <c r="E1179" t="inlineStr"/>
+      <c r="F1179" t="inlineStr"/>
+      <c r="G1179" t="inlineStr"/>
+      <c r="H1179" t="inlineStr"/>
+      <c r="I1179" t="inlineStr"/>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1180" t="inlineStr"/>
+      <c r="C1180" t="inlineStr"/>
+      <c r="D1180" t="inlineStr"/>
+      <c r="E1180" t="inlineStr"/>
+      <c r="F1180" t="inlineStr"/>
+      <c r="G1180" t="inlineStr"/>
+      <c r="H1180" t="inlineStr"/>
+      <c r="I1180" t="inlineStr"/>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
+        </is>
+      </c>
+      <c r="B1181" t="inlineStr"/>
+      <c r="C1181" t="inlineStr"/>
+      <c r="D1181" t="inlineStr"/>
+      <c r="E1181" t="inlineStr"/>
+      <c r="F1181" t="inlineStr"/>
+      <c r="G1181" t="inlineStr"/>
+      <c r="H1181" t="inlineStr"/>
+      <c r="I1181" t="inlineStr"/>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 8647P8</t>
+        </is>
+      </c>
+      <c r="B1182" t="inlineStr"/>
+      <c r="C1182" t="inlineStr"/>
+      <c r="D1182" t="inlineStr"/>
+      <c r="E1182" t="inlineStr"/>
+      <c r="F1182" t="inlineStr"/>
+      <c r="G1182" t="inlineStr"/>
+      <c r="H1182" t="inlineStr"/>
+      <c r="I1182" t="inlineStr"/>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="inlineStr">
+        <is>
+          <t>Summarized description: 8-hour walking tour with private guide. Transportation is not included, so it would be on your own cost. Get tips from your local guide to see what other areas and places you can visit.</t>
+        </is>
+      </c>
+      <c r="B1183" t="inlineStr"/>
+      <c r="C1183" t="inlineStr"/>
+      <c r="D1183" t="inlineStr"/>
+      <c r="E1183" t="inlineStr"/>
+      <c r="F1183" t="inlineStr"/>
+      <c r="G1183" t="inlineStr"/>
+      <c r="H1183" t="inlineStr"/>
+      <c r="I1183" t="inlineStr"/>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="inlineStr">
+        <is>
+          <t>Title: Private Full Day Walking City Tour in Barcelona</t>
+        </is>
+      </c>
+      <c r="B1184" t="inlineStr"/>
+      <c r="C1184" t="inlineStr"/>
+      <c r="D1184" t="inlineStr"/>
+      <c r="E1184" t="inlineStr"/>
+      <c r="F1184" t="inlineStr"/>
+      <c r="G1184" t="inlineStr"/>
+      <c r="H1184" t="inlineStr"/>
+      <c r="I1184" t="inlineStr"/>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1185" t="inlineStr"/>
+      <c r="C1185" t="inlineStr"/>
+      <c r="D1185" t="inlineStr"/>
+      <c r="E1185" t="inlineStr"/>
+      <c r="F1185" t="inlineStr"/>
+      <c r="G1185" t="inlineStr"/>
+      <c r="H1185" t="inlineStr"/>
+      <c r="I1185" t="inlineStr"/>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours']</t>
+        </is>
+      </c>
+      <c r="B1186" t="inlineStr"/>
+      <c r="C1186" t="inlineStr"/>
+      <c r="D1186" t="inlineStr"/>
+      <c r="E1186" t="inlineStr"/>
+      <c r="F1186" t="inlineStr"/>
+      <c r="G1186" t="inlineStr"/>
+      <c r="H1186" t="inlineStr"/>
+      <c r="I1186" t="inlineStr"/>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 8647P84</t>
+        </is>
+      </c>
+      <c r="B1187" t="inlineStr"/>
+      <c r="C1187" t="inlineStr"/>
+      <c r="D1187" t="inlineStr"/>
+      <c r="E1187" t="inlineStr"/>
+      <c r="F1187" t="inlineStr"/>
+      <c r="G1187" t="inlineStr"/>
+      <c r="H1187" t="inlineStr"/>
+      <c r="I1187" t="inlineStr"/>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="inlineStr">
+        <is>
+          <t>Summarized description: Your driver will pick you up from your hotel or place of choice and you will enjoy a 4 hour private tour of Barcelona. You will have your private luxury vehicle and your driver which will also be your guide.</t>
+        </is>
+      </c>
+      <c r="B1188" t="inlineStr"/>
+      <c r="C1188" t="inlineStr"/>
+      <c r="D1188" t="inlineStr"/>
+      <c r="E1188" t="inlineStr"/>
+      <c r="F1188" t="inlineStr"/>
+      <c r="G1188" t="inlineStr"/>
+      <c r="H1188" t="inlineStr"/>
+      <c r="I1188" t="inlineStr"/>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="inlineStr">
+        <is>
+          <t>Title: Private Tour of Barcelona with Driver Guide</t>
+        </is>
+      </c>
+      <c r="B1189" t="inlineStr"/>
+      <c r="C1189" t="inlineStr"/>
+      <c r="D1189" t="inlineStr"/>
+      <c r="E1189" t="inlineStr"/>
+      <c r="F1189" t="inlineStr"/>
+      <c r="G1189" t="inlineStr"/>
+      <c r="H1189" t="inlineStr"/>
+      <c r="I1189" t="inlineStr"/>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1190" t="inlineStr"/>
+      <c r="C1190" t="inlineStr"/>
+      <c r="D1190" t="inlineStr"/>
+      <c r="E1190" t="inlineStr"/>
+      <c r="F1190" t="inlineStr"/>
+      <c r="G1190" t="inlineStr"/>
+      <c r="H1190" t="inlineStr"/>
+      <c r="I1190" t="inlineStr"/>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1191" t="inlineStr"/>
+      <c r="C1191" t="inlineStr"/>
+      <c r="D1191" t="inlineStr"/>
+      <c r="E1191" t="inlineStr"/>
+      <c r="F1191" t="inlineStr"/>
+      <c r="G1191" t="inlineStr"/>
+      <c r="H1191" t="inlineStr"/>
+      <c r="I1191" t="inlineStr"/>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 239937P89</t>
+        </is>
+      </c>
+      <c r="B1192" t="inlineStr"/>
+      <c r="C1192" t="inlineStr"/>
+      <c r="D1192" t="inlineStr"/>
+      <c r="E1192" t="inlineStr"/>
+      <c r="F1192" t="inlineStr"/>
+      <c r="G1192" t="inlineStr"/>
+      <c r="H1192" t="inlineStr"/>
+      <c r="I1192" t="inlineStr"/>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="inlineStr">
+        <is>
+          <t>Summarized description: Barcelona kickstart tour with the locals is an amazing way to know about the hidden things &amp; places of Barcelona. Avoid the tourist crowds and discover the architectural beauty of this "Full of Life " city.</t>
+        </is>
+      </c>
+      <c r="B1193" t="inlineStr"/>
+      <c r="C1193" t="inlineStr"/>
+      <c r="D1193" t="inlineStr"/>
+      <c r="E1193" t="inlineStr"/>
+      <c r="F1193" t="inlineStr"/>
+      <c r="G1193" t="inlineStr"/>
+      <c r="H1193" t="inlineStr"/>
+      <c r="I1193" t="inlineStr"/>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>Title: Barcelona Kickstart Tour (City Highlight Private Tour)</t>
+        </is>
+      </c>
+      <c r="B1194" t="inlineStr"/>
+      <c r="C1194" t="inlineStr"/>
+      <c r="D1194" t="inlineStr"/>
+      <c r="E1194" t="inlineStr"/>
+      <c r="F1194" t="inlineStr"/>
+      <c r="G1194" t="inlineStr"/>
+      <c r="H1194" t="inlineStr"/>
+      <c r="I1194" t="inlineStr"/>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1195" t="inlineStr"/>
+      <c r="C1195" t="inlineStr"/>
+      <c r="D1195" t="inlineStr"/>
+      <c r="E1195" t="inlineStr"/>
+      <c r="F1195" t="inlineStr"/>
+      <c r="G1195" t="inlineStr"/>
+      <c r="H1195" t="inlineStr"/>
+      <c r="I1195" t="inlineStr"/>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1196" t="inlineStr"/>
+      <c r="C1196" t="inlineStr"/>
+      <c r="D1196" t="inlineStr"/>
+      <c r="E1196" t="inlineStr"/>
+      <c r="F1196" t="inlineStr"/>
+      <c r="G1196" t="inlineStr"/>
+      <c r="H1196" t="inlineStr"/>
+      <c r="I1196" t="inlineStr"/>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 207305P225</t>
+        </is>
+      </c>
+      <c r="B1197" t="inlineStr"/>
+      <c r="C1197" t="inlineStr"/>
+      <c r="D1197" t="inlineStr"/>
+      <c r="E1197" t="inlineStr"/>
+      <c r="F1197" t="inlineStr"/>
+      <c r="G1197" t="inlineStr"/>
+      <c r="H1197" t="inlineStr"/>
+      <c r="I1197" t="inlineStr"/>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="inlineStr">
+        <is>
+          <t>Summarized description: Make the most of your time in Barcelona and experience the best of everything in Barcelona on this layover special private tour with a local. Use public transport throughout this tour to enhance your local experience even more.</t>
+        </is>
+      </c>
+      <c r="B1198" t="inlineStr"/>
+      <c r="C1198" t="inlineStr"/>
+      <c r="D1198" t="inlineStr"/>
+      <c r="E1198" t="inlineStr"/>
+      <c r="F1198" t="inlineStr"/>
+      <c r="G1198" t="inlineStr"/>
+      <c r="H1198" t="inlineStr"/>
+      <c r="I1198" t="inlineStr"/>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="inlineStr">
+        <is>
+          <t>Title: Layover in Barcelona a Private Tour with a local: Best Highlights of Barcelona</t>
+        </is>
+      </c>
+      <c r="B1199" t="inlineStr"/>
+      <c r="C1199" t="inlineStr"/>
+      <c r="D1199" t="inlineStr"/>
+      <c r="E1199" t="inlineStr"/>
+      <c r="F1199" t="inlineStr"/>
+      <c r="G1199" t="inlineStr"/>
+      <c r="H1199" t="inlineStr"/>
+      <c r="I1199" t="inlineStr"/>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1200" t="inlineStr"/>
+      <c r="C1200" t="inlineStr"/>
+      <c r="D1200" t="inlineStr"/>
+      <c r="E1200" t="inlineStr"/>
+      <c r="F1200" t="inlineStr"/>
+      <c r="G1200" t="inlineStr"/>
+      <c r="H1200" t="inlineStr"/>
+      <c r="I1200" t="inlineStr"/>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
+        </is>
+      </c>
+      <c r="B1201" t="inlineStr"/>
+      <c r="C1201" t="inlineStr"/>
+      <c r="D1201" t="inlineStr"/>
+      <c r="E1201" t="inlineStr"/>
+      <c r="F1201" t="inlineStr"/>
+      <c r="G1201" t="inlineStr"/>
+      <c r="H1201" t="inlineStr"/>
+      <c r="I1201" t="inlineStr"/>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 207305P228</t>
+        </is>
+      </c>
+      <c r="B1202" t="inlineStr"/>
+      <c r="C1202" t="inlineStr"/>
+      <c r="D1202" t="inlineStr"/>
+      <c r="E1202" t="inlineStr"/>
+      <c r="F1202" t="inlineStr"/>
+      <c r="G1202" t="inlineStr"/>
+      <c r="H1202" t="inlineStr"/>
+      <c r="I1202" t="inlineStr"/>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="inlineStr">
+        <is>
+          <t>Summarized description: Spain is one of the best experiences to immerse yourself into the rich Spanish culture. Our fun and entertaining guide will make this a memorable experience for you.</t>
+        </is>
+      </c>
+      <c r="B1203" t="inlineStr"/>
+      <c r="C1203" t="inlineStr"/>
+      <c r="D1203" t="inlineStr"/>
+      <c r="E1203" t="inlineStr"/>
+      <c r="F1203" t="inlineStr"/>
+      <c r="G1203" t="inlineStr"/>
+      <c r="H1203" t="inlineStr"/>
+      <c r="I1203" t="inlineStr"/>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="inlineStr">
+        <is>
+          <t>Title: Private tour of Offbeat Barcelona with a local</t>
+        </is>
+      </c>
+      <c r="B1204" t="inlineStr"/>
+      <c r="C1204" t="inlineStr"/>
+      <c r="D1204" t="inlineStr"/>
+      <c r="E1204" t="inlineStr"/>
+      <c r="F1204" t="inlineStr"/>
+      <c r="G1204" t="inlineStr"/>
+      <c r="H1204" t="inlineStr"/>
+      <c r="I1204" t="inlineStr"/>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1205" t="inlineStr"/>
+      <c r="C1205" t="inlineStr"/>
+      <c r="D1205" t="inlineStr"/>
+      <c r="E1205" t="inlineStr"/>
+      <c r="F1205" t="inlineStr"/>
+      <c r="G1205" t="inlineStr"/>
+      <c r="H1205" t="inlineStr"/>
+      <c r="I1205" t="inlineStr"/>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="inlineStr">
+        <is>
+          <t>Category: ['Cultural Tours']</t>
+        </is>
+      </c>
+      <c r="B1206" t="inlineStr"/>
+      <c r="C1206" t="inlineStr"/>
+      <c r="D1206" t="inlineStr"/>
+      <c r="E1206" t="inlineStr"/>
+      <c r="F1206" t="inlineStr"/>
+      <c r="G1206" t="inlineStr"/>
+      <c r="H1206" t="inlineStr"/>
+      <c r="I1206" t="inlineStr"/>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+      <c r="B1207" t="inlineStr"/>
+      <c r="C1207" t="inlineStr"/>
+      <c r="D1207" t="inlineStr"/>
+      <c r="E1207" t="inlineStr"/>
+      <c r="F1207" t="inlineStr"/>
+      <c r="G1207" t="inlineStr"/>
+      <c r="H1207" t="inlineStr"/>
+      <c r="I1207" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/104357P6.xlsx
+++ b/experiment_results/104357P6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,7 +771,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -846,7 +846,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -1071,7 +1071,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1146,7 +1146,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1296,7 +1296,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -2046,7 +2046,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -2871,7 +2871,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
@@ -3021,7 +3021,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Health and Fitness Camps']</t>
+          <t>Category: ['Health and Fitness Camps', 'City Tours']</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -3321,7 +3321,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -3921,7 +3921,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
@@ -4071,7 +4071,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B239" t="inlineStr"/>
@@ -4371,7 +4371,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B259" t="inlineStr"/>
@@ -4596,7 +4596,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B274" t="inlineStr"/>
@@ -5121,7 +5121,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
@@ -5421,7 +5421,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B329" t="inlineStr"/>
@@ -5796,7 +5796,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Shopping and Fashion']</t>
+          <t>Category: ['City Tours', 'Shopping and Fashion', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B354" t="inlineStr"/>
@@ -6096,7 +6096,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B374" t="inlineStr"/>
@@ -6396,7 +6396,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B394" t="inlineStr"/>
@@ -6471,7 +6471,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['City Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B399" t="inlineStr"/>
@@ -6771,7 +6771,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B419" t="inlineStr"/>
@@ -7521,7 +7521,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B469" t="inlineStr"/>
@@ -7596,7 +7596,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B474" t="inlineStr"/>
@@ -7671,7 +7671,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B479" t="inlineStr"/>
@@ -7746,7 +7746,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B484" t="inlineStr"/>
@@ -7821,7 +7821,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B489" t="inlineStr"/>
@@ -8046,7 +8046,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B504" t="inlineStr"/>
@@ -8271,7 +8271,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B519" t="inlineStr"/>
@@ -8346,7 +8346,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B524" t="inlineStr"/>
@@ -8421,7 +8421,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B529" t="inlineStr"/>
@@ -8571,7 +8571,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B539" t="inlineStr"/>
@@ -8646,7 +8646,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B544" t="inlineStr"/>
@@ -8871,7 +8871,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B559" t="inlineStr"/>
@@ -8946,7 +8946,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B564" t="inlineStr"/>
@@ -9171,7 +9171,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B579" t="inlineStr"/>
@@ -9471,7 +9471,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B599" t="inlineStr"/>
@@ -9546,7 +9546,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B604" t="inlineStr"/>
@@ -9846,7 +9846,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B624" t="inlineStr"/>
@@ -9921,7 +9921,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B629" t="inlineStr"/>
@@ -9996,7 +9996,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B634" t="inlineStr"/>
@@ -10071,7 +10071,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B639" t="inlineStr"/>
@@ -10146,7 +10146,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B644" t="inlineStr"/>
@@ -10521,7 +10521,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B669" t="inlineStr"/>
@@ -10596,7 +10596,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B674" t="inlineStr"/>
@@ -10671,7 +10671,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B679" t="inlineStr"/>
@@ -10821,7 +10821,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B689" t="inlineStr"/>
@@ -10971,7 +10971,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B699" t="inlineStr"/>
@@ -11046,7 +11046,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B704" t="inlineStr"/>
@@ -11346,7 +11346,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B724" t="inlineStr"/>
@@ -11421,7 +11421,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B729" t="inlineStr"/>
@@ -11646,7 +11646,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B744" t="inlineStr"/>
@@ -11796,7 +11796,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B754" t="inlineStr"/>
@@ -11871,7 +11871,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B759" t="inlineStr"/>
@@ -11946,7 +11946,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B764" t="inlineStr"/>
@@ -12171,7 +12171,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B779" t="inlineStr"/>
@@ -12396,7 +12396,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B794" t="inlineStr"/>
@@ -12621,7 +12621,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B809" t="inlineStr"/>
@@ -12696,7 +12696,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Transportation &amp; Travel Services', 'Historical Tours']</t>
+          <t>Category: ['Transportation &amp; Travel Services', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B814" t="inlineStr"/>
@@ -12846,7 +12846,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B824" t="inlineStr"/>
@@ -12921,7 +12921,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B829" t="inlineStr"/>
@@ -12996,7 +12996,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B834" t="inlineStr"/>
@@ -13071,7 +13071,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B839" t="inlineStr"/>
@@ -13146,7 +13146,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B844" t="inlineStr"/>
@@ -13296,7 +13296,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B854" t="inlineStr"/>
@@ -13446,7 +13446,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Cooking Classes']</t>
+          <t>Category: ['Cultural Tours', 'Cooking Classes', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B864" t="inlineStr"/>
@@ -13596,7 +13596,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B874" t="inlineStr"/>
@@ -13777,7 +13777,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B886" t="inlineStr"/>
@@ -13792,7 +13792,7 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24780P1</t>
+          <t>PRODUCTCODE: 24380P129</t>
         </is>
       </c>
       <c r="B887" t="inlineStr"/>
@@ -13807,7 +13807,7 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy Barcelona in a private vehicle driven by professional drivers, uniformed and multilingual. The driver will pick you up at your centrally located hotel in Barcelona and will show you around some of the city's most famous landmarks.</t>
+          <t>Summarized description: Withlocals City Kickstart Tour™ is one of Withlocals' signature tours available in major cities worldwide. Discover where to find main attractions like Cathedral of Barcelona and Santa Maria del Mar and how to explore them away from the crowds.</t>
         </is>
       </c>
       <c r="B888" t="inlineStr"/>
@@ -13822,7 +13822,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Barcelona Highlights Private Tour </t>
+          <t>Title: Private City Kickstart Tour: Barcelona</t>
         </is>
       </c>
       <c r="B889" t="inlineStr"/>
@@ -13837,7 +13837,7 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>TotalReviews: 105</t>
+          <t>TotalReviews: 132</t>
         </is>
       </c>
       <c r="B890" t="inlineStr"/>
@@ -13867,7 +13867,7 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2148SP001LF</t>
+          <t>PRODUCTCODE: 24780P1</t>
         </is>
       </c>
       <c r="B892" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>Summarized description: Explore Barcelona any way you want on a 4-hour, customizable private tour. Choose a morning or afternoon tour, tell your guide your interests in advance. Entrance fees, food and drink are at your own expense.</t>
+          <t>Summarized description: Enjoy Barcelona in a private vehicle driven by professional drivers, uniformed and multilingual. The driver will pick you up at your centrally located hotel in Barcelona and will show you around some of the city's most famous landmarks.</t>
         </is>
       </c>
       <c r="B893" t="inlineStr"/>
@@ -13897,7 +13897,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>Title: Private Tour: Barcelona Half-Day Sightseeing Tour</t>
+          <t xml:space="preserve">Title: Barcelona Highlights Private Tour </t>
         </is>
       </c>
       <c r="B894" t="inlineStr"/>
@@ -13912,7 +13912,7 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>TotalReviews: 93</t>
+          <t>TotalReviews: 105</t>
         </is>
       </c>
       <c r="B895" t="inlineStr"/>
@@ -13942,7 +13942,7 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 30791P623</t>
+          <t>PRODUCTCODE: 2148SP001LF</t>
         </is>
       </c>
       <c r="B897" t="inlineStr"/>
@@ -13957,7 +13957,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>Summarized description: Your host will create a personalized itinerary to match your pace. Tick off those must-sees like the Jewish Quarter or uncover the wonders of the old Roman Temple. For a more local vibe, laze your afternoon away sipping sangria on the beach.</t>
+          <t>Summarized description: Explore Barcelona any way you want on a 4-hour, customizable private tour. Choose a morning or afternoon tour, tell your guide your interests in advance. Entrance fees, food and drink are at your own expense.</t>
         </is>
       </c>
       <c r="B898" t="inlineStr"/>
@@ -13972,7 +13972,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Barcelona Highlights Private Tour with a Local 100% Personalized </t>
+          <t>Title: Private Tour: Barcelona Half-Day Sightseeing Tour</t>
         </is>
       </c>
       <c r="B899" t="inlineStr"/>
@@ -13987,7 +13987,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>TotalReviews: 90</t>
+          <t>TotalReviews: 93</t>
         </is>
       </c>
       <c r="B900" t="inlineStr"/>
@@ -14002,7 +14002,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B901" t="inlineStr"/>
@@ -14017,7 +14017,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 299045P4</t>
+          <t>PRODUCTCODE: 30791P623</t>
         </is>
       </c>
       <c r="B902" t="inlineStr"/>
@@ -14032,7 +14032,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>Summarized description: We offer unique tailor-made private tours &amp; exclusives experiences in Barcelona and Catalonia with licensed local, Spanish, French and English-speaking tour guides. Proven experience in luxury tours guiding VIPs such as U2’s Bono, Sigourney Weaver, Beyoncé, among others.</t>
+          <t>Summarized description: Your host will create a personalized itinerary to match your pace. Tick off those must-sees like the Jewish Quarter or uncover the wonders of the old Roman Temple. For a more local vibe, laze your afternoon away sipping sangria on the beach.</t>
         </is>
       </c>
       <c r="B903" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>Title: Private Tailored Barcelona Tour</t>
+          <t xml:space="preserve">Title: Barcelona Highlights Private Tour with a Local 100% Personalized </t>
         </is>
       </c>
       <c r="B904" t="inlineStr"/>
@@ -14062,7 +14062,7 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>TotalReviews: 68</t>
+          <t>TotalReviews: 90</t>
         </is>
       </c>
       <c r="B905" t="inlineStr"/>
@@ -14077,7 +14077,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B906" t="inlineStr"/>
@@ -14092,7 +14092,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 141460P2</t>
+          <t>PRODUCTCODE: 299045P4</t>
         </is>
       </c>
       <c r="B907" t="inlineStr"/>
@@ -14107,7 +14107,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Barcelona at the hands of a local friend at your own pace doing exactly what you want to do. We will communicate beforehand to discuss your needs and interests to create a customized itinerary.</t>
+          <t>Summarized description: We offer unique tailor-made private tours &amp; exclusives experiences in Barcelona and Catalonia with licensed local, Spanish, French and English-speaking tour guides. Proven experience in luxury tours guiding VIPs such as U2’s Bono, Sigourney Weaver, Beyoncé, among others.</t>
         </is>
       </c>
       <c r="B908" t="inlineStr"/>
@@ -14122,7 +14122,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Barcelona Highlights with a Local Friend </t>
+          <t>Title: Private Tailored Barcelona Tour</t>
         </is>
       </c>
       <c r="B909" t="inlineStr"/>
@@ -14137,7 +14137,7 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>TotalReviews: 62</t>
+          <t>TotalReviews: 68</t>
         </is>
       </c>
       <c r="B910" t="inlineStr"/>
@@ -14152,7 +14152,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B911" t="inlineStr"/>
@@ -14167,7 +14167,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 73429P1</t>
+          <t>PRODUCTCODE: 141460P2</t>
         </is>
       </c>
       <c r="B912" t="inlineStr"/>
@@ -14182,7 +14182,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about important Catalan legends. Enjoy a drink in a magical square where mostly locals go. See Barcelona through the eyes of a local. See the city with different eyes!</t>
+          <t>Summarized description: Discover Barcelona at the hands of a local friend at your own pace doing exactly what you want to do. We will communicate beforehand to discuss your needs and interests to create a customized itinerary.</t>
         </is>
       </c>
       <c r="B913" t="inlineStr"/>
@@ -14197,7 +14197,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Explore hidden streets of Barcelona with a local </t>
+          <t xml:space="preserve">Title: Barcelona Highlights with a Local Friend </t>
         </is>
       </c>
       <c r="B914" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>TotalReviews: 57</t>
+          <t>TotalReviews: 62</t>
         </is>
       </c>
       <c r="B915" t="inlineStr"/>
@@ -14227,7 +14227,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B916" t="inlineStr"/>
@@ -14242,7 +14242,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P352</t>
+          <t>PRODUCTCODE: 73429P1</t>
         </is>
       </c>
       <c r="B917" t="inlineStr"/>
@@ -14257,7 +14257,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>Summarized description: Withlocals Family Friendly City Tour™ is one of Withlocals' signature tours available in major cities worldwide. Visit main highlights like Plaça Reial, Palau Güell, and Cathedral of Barcelona, and discover hidden gems through a series of activities.</t>
+          <t>Summarized description: Learn about important Catalan legends. Enjoy a drink in a magical square where mostly locals go. See Barcelona through the eyes of a local. See the city with different eyes!</t>
         </is>
       </c>
       <c r="B918" t="inlineStr"/>
@@ -14272,7 +14272,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>Title: Family Friendly Barcelona Private City Tour</t>
+          <t xml:space="preserve">Title: Explore hidden streets of Barcelona with a local </t>
         </is>
       </c>
       <c r="B919" t="inlineStr"/>
@@ -14287,7 +14287,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>TotalReviews: 38</t>
+          <t>TotalReviews: 57</t>
         </is>
       </c>
       <c r="B920" t="inlineStr"/>
@@ -14302,7 +14302,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B921" t="inlineStr"/>
@@ -14317,7 +14317,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P355</t>
+          <t>PRODUCTCODE: 24380P352</t>
         </is>
       </c>
       <c r="B922" t="inlineStr"/>
@@ -14332,7 +14332,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the best spots around the city with your private local guide. Get tips to make the trip more fun for your kids, what to visit and where to eat. Along the way there will be a fun-filled game, and a prize to be won!</t>
+          <t>Summarized description: Withlocals Family Friendly City Tour™ is one of Withlocals' signature tours available in major cities worldwide. Visit main highlights like Plaça Reial, Palau Güell, and Cathedral of Barcelona, and discover hidden gems through a series of activities.</t>
         </is>
       </c>
       <c r="B923" t="inlineStr"/>
@@ -14347,7 +14347,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>Title: Barcelona's Must-Do Private Family Tour</t>
+          <t>Title: Family Friendly Barcelona Private City Tour</t>
         </is>
       </c>
       <c r="B924" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B926" t="inlineStr"/>
@@ -14392,7 +14392,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P1581</t>
+          <t>PRODUCTCODE: 24380P355</t>
         </is>
       </c>
       <c r="B927" t="inlineStr"/>
@@ -14407,7 +14407,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>Summarized description: This highlights tour of Barcelona is created for you and in your own way. Check the must-see places in city off your traveling bucket list with the help of your local host.</t>
+          <t>Summarized description: Explore the best spots around the city with your private local guide. Get tips to make the trip more fun for your kids, what to visit and where to eat. Along the way there will be a fun-filled game, and a prize to be won!</t>
         </is>
       </c>
       <c r="B928" t="inlineStr"/>
@@ -14422,7 +14422,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>Title: Barcelona 100% Personalized 3-Hour Private City Tour</t>
+          <t>Title: Barcelona's Must-Do Private Family Tour</t>
         </is>
       </c>
       <c r="B929" t="inlineStr"/>
@@ -14437,7 +14437,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>TotalReviews: 32</t>
+          <t>TotalReviews: 38</t>
         </is>
       </c>
       <c r="B930" t="inlineStr"/>
@@ -14452,7 +14452,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B931" t="inlineStr"/>
@@ -14467,7 +14467,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 204981P1</t>
+          <t>PRODUCTCODE: 24380P1581</t>
         </is>
       </c>
       <c r="B932" t="inlineStr"/>
@@ -14482,7 +14482,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Barcelona on a totally private tour with your local guide and private transportation. This tour includes air-conditioned transportation in private van with driver guide, pick-up from your hotel, cruise port or airport and the option to choose skip-the-line.</t>
+          <t>Summarized description: This highlights tour of Barcelona is created for you and in your own way. Check the must-see places in city off your traveling bucket list with the help of your local host.</t>
         </is>
       </c>
       <c r="B933" t="inlineStr"/>
@@ -14497,7 +14497,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>Title: Barcelona Highlights Chauffeured Private Tour</t>
+          <t>Title: Barcelona 100% Personalized 3-Hour Private City Tour</t>
         </is>
       </c>
       <c r="B934" t="inlineStr"/>
@@ -14512,7 +14512,7 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>TotalReviews: 30</t>
+          <t>TotalReviews: 32</t>
         </is>
       </c>
       <c r="B935" t="inlineStr"/>
@@ -14902,7 +14902,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B961" t="inlineStr"/>
@@ -15052,7 +15052,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B971" t="inlineStr"/>
@@ -15217,7 +15217,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 101019P1</t>
+          <t>PRODUCTCODE: 437294P1</t>
         </is>
       </c>
       <c r="B982" t="inlineStr"/>
@@ -15232,7 +15232,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>Summarized description: The best way to get to know the city in a short time. Premium transportation and tickets are already included in the price of the tour, to make things easy for you.</t>
+          <t>Summarized description: Tourists can explore the Gothic Quarter, the Cathedral, Sant Felip Neri, Born, Plaça Sant Jaume... Barcelona is home to a rich history that we want to share with you.</t>
         </is>
       </c>
       <c r="B983" t="inlineStr"/>
@@ -15247,7 +15247,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Barcelona Highlights Private Tour in a chauffeured Mercedes-Benz </t>
+          <t>Title: Discover Barcelona with a Private Walking Tour with a Local Guide</t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15277,7 +15277,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -15292,7 +15292,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 437294P1</t>
+          <t>PRODUCTCODE: 5746DAYINBARCELONA</t>
         </is>
       </c>
       <c r="B987" t="inlineStr"/>
@@ -15307,7 +15307,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>Summarized description: Tourists can explore the Gothic Quarter, the Cathedral, Sant Felip Neri, Born, Plaça Sant Jaume... Barcelona is home to a rich history that we want to share with you.</t>
+          <t>Summarized description: Make the most of your time in Barcelona with a local guide. Choose between a half- or full-day tour, then let your guide know your interests. With preplanned logistics and public transport included, this tour has everything you need.</t>
         </is>
       </c>
       <c r="B988" t="inlineStr"/>
@@ -15322,7 +15322,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>Title: Discover Barcelona with a Private Walking Tour with a Local Guide</t>
+          <t>Title: Barcelona in a Day Custom Private Tour</t>
         </is>
       </c>
       <c r="B989" t="inlineStr"/>
@@ -15337,7 +15337,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B990" t="inlineStr"/>
@@ -15352,7 +15352,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B991" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5746DAYINBARCELONA</t>
+          <t>PRODUCTCODE: 30791P442</t>
         </is>
       </c>
       <c r="B992" t="inlineStr"/>
@@ -15382,7 +15382,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>Summarized description: Make the most of your time in Barcelona with a local guide. Choose between a half- or full-day tour, then let your guide know your interests. With preplanned logistics and public transport included, this tour has everything you need.</t>
+          <t>Summarized description: Discover Barcelona as you would if you were staying with a friend who lived there. With a local Host thoughtfully matched to you, explore the best know attractions as well as a few secret local spots along the way.</t>
         </is>
       </c>
       <c r="B993" t="inlineStr"/>
@@ -15397,7 +15397,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>Title: Barcelona in a Day Custom Private Tour</t>
+          <t>Title: Barcelona Private Tours with Locals: 100% Personalized, See the City Unscripted</t>
         </is>
       </c>
       <c r="B994" t="inlineStr"/>
@@ -15412,7 +15412,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B995" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B996" t="inlineStr"/>
@@ -15442,7 +15442,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 207389P1</t>
+          <t>PRODUCTCODE: 6874P181</t>
         </is>
       </c>
       <c r="B997" t="inlineStr"/>
@@ -15457,7 +15457,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>Summarized description: Our transfer and city tour service is designed to help you enjoy the city at your own pace and comfort. Enjoy aprivate service adapted to your needs.</t>
+          <t>Summarized description: Experience Barcelona in a way you've never before with your very own private guide. Wander through the Gothic Quarter, marvel at Gaudí’s masterpieces.</t>
         </is>
       </c>
       <c r="B998" t="inlineStr"/>
@@ -15472,7 +15472,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>Title: The private hop on/off Barcelona tour</t>
+          <t>Title: Barcelona Private Tour with an Expert Guide</t>
         </is>
       </c>
       <c r="B999" t="inlineStr"/>
@@ -15487,7 +15487,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr"/>
@@ -15502,7 +15502,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Category: ['Transportation &amp; Travel Services', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15517,7 +15517,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 30791P442</t>
+          <t>PRODUCTCODE: 117626P3</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Barcelona as you would if you were staying with a friend who lived there. With a local Host thoughtfully matched to you, explore the best know attractions as well as a few secret local spots along the way.</t>
+          <t>Summarized description: Private driver will take and show you the best locations in Barcelona. Includes door-to-door hotel pickup and drop-off. We organize the perfect tour for you and we also adapt to your preferences.</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>Title: Barcelona Private Tours with Locals: 100% Personalized, See the City Unscripted</t>
+          <t>Title: 8 hours Barcelona Highlights Private tour</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15592,7 +15592,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6874P181</t>
+          <t>PRODUCTCODE: 271552P2</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Summarized description: Experience Barcelona in a way you've never before with your very own private guide. Wander through the Gothic Quarter, marvel at Gaudí’s masterpieces.</t>
+          <t>Summarized description: Private guided walking tour with an expert, passionate and friendly guide. In the first part we will start with a trip to old Barcelona. Second part of the visit will focus on 19th century and early 20th century Barcelona.</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -15622,7 +15622,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>Title: Barcelona Private Tour with an Expert Guide</t>
+          <t>Title: Barcelona Express - Private tour</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15637,7 +15637,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 117626P3</t>
+          <t>PRODUCTCODE: 86919P8</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Summarized description: Private driver will take and show you the best locations in Barcelona. Includes door-to-door hotel pickup and drop-off. We organize the perfect tour for you and we also adapt to your preferences.</t>
+          <t>Summarized description: Get to know the city through the eyes of a passionate local. With no set itinerary, you can customize the tour or leave it up to the local. Since Lokafyers are not professional guides, they provide an experience that’s authentic and personal.</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>Title: 8 hours Barcelona Highlights Private tour</t>
+          <t>Title: Barcelona Like a Local: Customized Private Tour</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15712,7 +15712,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 271552P2</t>
+          <t>PRODUCTCODE: 172911P2</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Summarized description: Private guided walking tour with an expert, passionate and friendly guide. In the first part we will start with a trip to old Barcelona. Second part of the visit will focus on 19th century and early 20th century Barcelona.</t>
+          <t>Summarized description: At InSitu we believe that luxury is an attitude. That's why we design exclusive tours available to everyone. For us, each and every one of you is VIPs and, consequently, each one of the products we offer you is "premium"</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>Title: Barcelona Express - Private tour</t>
+          <t>Title: Private tour in Barcelona: The Gothic Quarter</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15787,7 +15787,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Entertainment', 'Shopping and Fashion']</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 11498P143</t>
+          <t>PRODUCTCODE: 76654P176</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the history of the city and take in the legendary landmarks. Ride through medieval districts, Barceloneta beach, Passeig Gracia, famous Gaudi buildings and the Sagrada Familia.</t>
+          <t>Summarized description: Join a Local Expert for a two-hour exclusive journey through Barcelona. Discover historic landmarks, relive storied pasts, and dive into the city's rich culture.</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>Title: Private Barcelona Bike Tour, Gaudi's Art and Medieval Districts with Local Guide</t>
+          <t>Title: Historic Barcelona: Exclusive Private Tour with a Local Expert</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 86919P8</t>
+          <t>PRODUCTCODE: 5689P20</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: Get to know the city through the eyes of a passionate local. With no set itinerary, you can customize the tour or leave it up to the local. Since Lokafyers are not professional guides, they provide an experience that’s authentic and personal.</t>
+          <t>Summarized description: Private Barcelona city tour with personal pickup and drop-off from the hotel, cruise port, or the airport. Discover all the highlights of Barcelona with an option to skip-the-lines too!</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>Title: Barcelona Like a Local: Customized Private Tour</t>
+          <t>Title: Private Guided Barcelona tour: customize the tour, skip-the-lines - Group</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 172911P2</t>
+          <t>PRODUCTCODE: 207305P220</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description: At InSitu we believe that luxury is an attitude. That's why we design exclusive tours available to everyone. For us, each and every one of you is VIPs and, consequently, each one of the products we offer you is "premium"</t>
+          <t>Summarized description: Barcelona has the reputation of being the most cosmopolitan, modern and avant-garde city in Spain. One of the great joys of a holiday abroad is sampling the local cuisine and the food in Barcelona is amongst the best in Europe.</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Title: Private tour in Barcelona: The Gothic Quarter</t>
+          <t>Title: A day in the life of Barcelona - Private tour with a local</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Shopping and Fashion']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 76654P176</t>
+          <t>PRODUCTCODE: 8647P2</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Summarized description: Join a Local Expert for a two-hour exclusive journey through Barcelona. Discover historic landmarks, relive storied pasts, and dive into the city's rich culture.</t>
+          <t>Summarized description: Get to know Barcelona by foot with a private guide in this 4-hour walking tour. Your official tour guide will pick you up in a central place of Barcelona, if your hotel is centrally located.</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>Title: Historic Barcelona: Exclusive Private Tour with a Local Expert</t>
+          <t>Title: Private Half Day Walking Tour in Barcelona with walking pick up</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5689P20</t>
+          <t>PRODUCTCODE: 323397P3</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: Private Barcelona city tour with personal pickup and drop-off from the hotel, cruise port, or the airport. Discover all the highlights of Barcelona with an option to skip-the-lines too!</t>
+          <t>Summarized description: The One Day Tour is a one-day trip to Barcelona, Spain. The tour includes a guided tour of the city and a tour of some of its most famous attractions.</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Title: Private Guided Barcelona tour: customize the tour, skip-the-lines - Group</t>
+          <t>Title: 6-Hour Private Walking Tour in Barcelona</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 406056P6</t>
+          <t>PRODUCTCODE: 30791P441</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description: 8-hour tour combines convenience of private chauffeured transportation and the expertise of a dedicated tour guide. Your adventure commences with a hotel pickup, ensuring a stress-free start to your immersive journey.</t>
+          <t>Summarized description: Your Host will offer practical advice on how to get around the city. They will also show you hidden gems you would otherwise miss. So choose the area you’d like to explore and get ready to kickstart your trip to Barcelona.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>Title: Full Day Private Tour with Hotel Pick Up in Barcelona</t>
+          <t>Title: Private Tour Guide Barcelona with a Local: Kickstart your Trip, Personalized</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 207305P220</t>
+          <t>PRODUCTCODE: 11498P125</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description: Barcelona has the reputation of being the most cosmopolitan, modern and avant-garde city in Spain. One of the great joys of a holiday abroad is sampling the local cuisine and the food in Barcelona is amongst the best in Europe.</t>
+          <t>Summarized description: Explore Born Market, ancient Roman walls and some of the lesser-known places. Enjoy the beauty of landmarks like the Arco de Triunfo and the sprawling Ciutdella Park.</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>Title: A day in the life of Barcelona - Private tour with a local</t>
+          <t>Title: Private Barcelona Old Town Walking Tour with Expert Local Guide</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8647P2</t>
+          <t>PRODUCTCODE: 30791P440</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Summarized description: Get to know Barcelona by foot with a private guide in this 4-hour walking tour. Your official tour guide will pick you up in a central place of Barcelona, if your hotel is centrally located.</t>
+          <t>Summarized description: Exploring the city with a handpicked Host will not only take the pressure off you to lead the way, but will also show you the best family friendly spots in the city. Whether you decide to explore the main tourist sights, hidden gems or a specific neighbourhood, you're guaranteed to discover places, activities and food that your whole family will enjoy.</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>Title: Private Half Day Walking Tour in Barcelona with walking pick up</t>
+          <t xml:space="preserve">Title: Barcelona Private Family Tours by Locals: 100% Personalized &amp; Private </t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 323397P3</t>
+          <t>PRODUCTCODE: 88037P90</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Summarized description: The One Day Tour is a one-day trip to Barcelona, Spain. The tour includes a guided tour of the city and a tour of some of its most famous attractions.</t>
+          <t>Summarized description: Follow us on a 2 hour tous through the Barri Gótic, or Gothic Quarter. We will unveil the complex layers of this city’s complex past.</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>Title: 6-Hour Private Walking Tour in Barcelona</t>
+          <t>Title: Barcelona Private Walking Tour with a Professional Guide</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 30791P441</t>
+          <t>PRODUCTCODE: 293233P2</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description: Your Host will offer practical advice on how to get around the city. They will also show you hidden gems you would otherwise miss. So choose the area you’d like to explore and get ready to kickstart your trip to Barcelona.</t>
+          <t>Summarized description: Local certified guides, with 10+ years of experience. Get some wonderful knowledge of the city of Barcelona. This is a premium quality tour, by local certified guides.</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>Title: Private Tour Guide Barcelona with a Local: Kickstart your Trip, Personalized</t>
+          <t>Title: Half-Day Private Walking Tour in Barcelona</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 11498P125</t>
+          <t>PRODUCTCODE: 144457P24</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description: Explore Born Market, ancient Roman walls and some of the lesser-known places. Enjoy the beauty of landmarks like the Arco de Triunfo and the sprawling Ciutdella Park.</t>
+          <t>Summarized description: Learn the history of the city and its museums or symbolic places in a confidential and personalised way with a private guide that speaks your language. Visit Barcelona with your family, friends or as a couple and come back with great memories.</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>Title: Private Barcelona Old Town Walking Tour with Expert Local Guide</t>
+          <t>Title: Barcelona Gothic Quarter | Private tour (2H) | Private guide</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16612,7 +16612,7 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 88037P90</t>
+          <t>PRODUCTCODE: 101067P4</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description: Follow us on a 2 hour tous through the Barri Gótic, or Gothic Quarter. We will unveil the complex layers of this city’s complex past.</t>
+          <t>Summarized description:  licensed tour guide who will put in perspective everything for you. Not only the historical and artistic facts but also the way of doing, costums, likes and dislikes, aspirations and issues.</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>Title: Barcelona Private Walking Tour with a Professional Guide</t>
+          <t>Title: 3-Hour Barcelona Private Walking Tour around Gothic Quarter</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 293233P2</t>
+          <t>PRODUCTCODE: 328911P1</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: Local certified guides, with 10+ years of experience. Get some wonderful knowledge of the city of Barcelona. This is a premium quality tour, by local certified guides.</t>
+          <t>Summarized description: All our guides are local citizen with guiding experience for more than 10 years. We are very attentive to the clients wishes and make each tour unforgettable.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Title: Half-Day Private Walking Tour in Barcelona</t>
+          <t>Title: Barcelona Historical Private Tour</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16762,7 +16762,7 @@
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 144457P24</t>
+          <t>PRODUCTCODE: 11498P135</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: Learn the history of the city and its museums or symbolic places in a confidential and personalised way with a private guide that speaks your language. Visit Barcelona with your family, friends or as a couple and come back with great memories.</t>
+          <t>Summarized description: Walking through the historic quarters of Barcelona, you will experience the friendly atmosphere of the Catalan capital. Your private guide will talk about local traditions and customs and how the city developed.</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Title: Barcelona Gothic Quarter | Private tour (2H) | Private guide</t>
+          <t>Title: Barcelona Must-See Private Tour with a Friendly Local Guide</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 101067P4</t>
+          <t>PRODUCTCODE: 196771P15</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description:  licensed tour guide who will put in perspective everything for you. Not only the historical and artistic facts but also the way of doing, costums, likes and dislikes, aspirations and issues.</t>
+          <t>Summarized description: A short trip to ancient El Born area  with 4 tapas included. Personalized experience as you want. Private tour: only you &amp; your local host. 4 alcoholic drinks: beer, wine, cava.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Title: 3-Hour Barcelona Private Walking Tour around Gothic Quarter</t>
+          <t>Title:  Roam in Barcelona at Night Like a Local - Private Tour</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 328911P1</t>
+          <t>PRODUCTCODE: 349654P1</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: All our guides are local citizen with guiding experience for more than 10 years. We are very attentive to the clients wishes and make each tour unforgettable.</t>
+          <t>Summarized description: Native Driver offers 1 private tour for 3 people during 2 hours. Tours include La Sagrada Familia, La Pedrera and Casa Batlló, Las Ramblas.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>Title: Barcelona Historical Private Tour</t>
+          <t>Title: Private Tour around Barcelona</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 11498P135</t>
+          <t>PRODUCTCODE: 172911P4</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Summarized description: Walking through the historic quarters of Barcelona, you will experience the friendly atmosphere of the Catalan capital. Your private guide will talk about local traditions and customs and how the city developed.</t>
+          <t>Summarized description: At InSitu we believe that luxury is an attitude. That's why we design exclusive tours available to everyone. For us, each and every one of you is VIPs and, consequently, each one of the products we offer you is "premium"</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Title: Barcelona Must-See Private Tour with a Friendly Local Guide</t>
+          <t>Title: Private tour in Barcelona: La Rambla.</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Entertainment', 'Shopping and Fashion']</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 196771P15</t>
+          <t>PRODUCTCODE: 330348P8</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Summarized description: A short trip to ancient El Born area  with 4 tapas included. Personalized experience as you want. Private tour: only you &amp; your local host. 4 alcoholic drinks: beer, wine, cava.</t>
+          <t>Summarized description: Listen to the audio guide online, or offline. The content is professionally created by a group of top authors and interpreted by TV and radio professionals. The smartphone is yours and you will not have contact with unsanitary devices provided by third parties.</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>Title:  Roam in Barcelona at Night Like a Local - Private Tour</t>
+          <t>Title: Private Audio Guided Walking Tour in Barcelona</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['']</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 349654P1</t>
+          <t>PRODUCTCODE: 239937P91</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Summarized description: Native Driver offers 1 private tour for 3 people during 2 hours. Tours include La Sagrada Familia, La Pedrera and Casa Batlló, Las Ramblas.</t>
+          <t>Summarized description: Let us explore the best spots around the city along with the tips from the locals. During this short trip, we will be able to know about the local insights and will enjoy the city like a local.</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>Title: Private Tour around Barcelona</t>
+          <t>Title: Barcelona's Must-Do Family Day Tour - A City Highlight Private Tour</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 172911P4</t>
+          <t>PRODUCTCODE: 239937P74</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Summarized description: At InSitu we believe that luxury is an attitude. That's why we design exclusive tours available to everyone. For us, each and every one of you is VIPs and, consequently, each one of the products we offer you is "premium"</t>
+          <t>Summarized description: Private tour only you and your guide. You can get a full personalized experience, just say it, and we will make it up to you. Discover Barcelona's old history and the history of the El Raval district.</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>Title: Private tour in Barcelona: La Rambla.</t>
+          <t>Title: Explore " Me Gusta " Barcelona - an Urban Kickstart Private Tour</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Shopping and Fashion']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 330348P8</t>
+          <t>PRODUCTCODE: 102055P6</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Summarized description: Listen to the audio guide online, or offline. The content is professionally created by a group of top authors and interpreted by TV and radio professionals. The smartphone is yours and you will not have contact with unsanitary devices provided by third parties.</t>
+          <t>Summarized description: Discover the origins of Barcelona on this guided walking tour. Your official guide will tell you anecdotes, legends and stories. Visit such emblematic places as Las Ramblas or the Plaza de Sant Jaume.</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>Title: Private Audio Guided Walking Tour in Barcelona</t>
+          <t>Title: Barcelona Gothic Quarter: private walking tour</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Category: ['']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239937P91</t>
+          <t>PRODUCTCODE: 428421P5</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17407,7 +17407,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Summarized description: Let us explore the best spots around the city along with the tips from the locals. During this short trip, we will be able to know about the local insights and will enjoy the city like a local.</t>
+          <t>Summarized description: Discover Barcelona your way with our 100% personalized city tour. Tailor your itinerary to your preferences, from iconic landmarks to hidden gems. Meet at the Wax Museum for an exclusive experience.</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>Title: Barcelona's Must-Do Family Day Tour - A City Highlight Private Tour</t>
+          <t>Title: Wonder Barcelona City Highlight Tour With Local Private Guide</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239937P74</t>
+          <t>PRODUCTCODE: 239937P75</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Summarized description: Private tour only you and your guide. You can get a full personalized experience, just say it, and we will make it up to you. Discover Barcelona's old history and the history of the El Raval district.</t>
+          <t>Summarized description: Privately guided by a local expert. Roam around each corner of the city with your guide. Enrich your knowledge and idea of Barcelona with a local.</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>Title: Explore " Me Gusta " Barcelona - an Urban Kickstart Private Tour</t>
+          <t>Title: Barcelona - Lets Explore the Hidden Gems with a Local (Private Tour)</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 144457P31</t>
+          <t>PRODUCTCODE: 239937P83</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Summarized description: Learn the history of the city and its museums or symbolic places in a confidential and personalised way with a private guide that speaks your language. Visit Barcelona with your family, friends or as a couple and come back with great memories.</t>
+          <t>Summarized description: Discover the hidden gems of Barcelona where the locals can go only. See the Casa de La Ciutat, and Palau de la Generalitat. Roam around the Placa Reial. Discover the Palau Guell.</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Title: Barcelona Gaudi Quarter | Private tour (2H) | Private guide</t>
+          <t>Title: Barcelona Private Tour - Lets Discover all the Hidden Gems with a Local</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 102055P6</t>
+          <t>PRODUCTCODE: 207305P227</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17632,7 +17632,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the origins of Barcelona on this guided walking tour. Your official guide will tell you anecdotes, legends and stories. Visit such emblematic places as Las Ramblas or the Plaza de Sant Jaume.</t>
+          <t>Summarized description: Barcelona has always been one of the great art cities of Europe. Famous painters, sculptors and architects worked and lived here. Our fun and entertaining guide will make this a memorable experience for you.</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr"/>
@@ -17647,7 +17647,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>Title: Barcelona Gothic Quarter: private walking tour</t>
+          <t>Title: Private tour of Artistic Barcelona with a local</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr"/>
@@ -17692,7 +17692,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 428421P5</t>
+          <t>PRODUCTCODE: 126593P3</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr"/>
@@ -17707,7 +17707,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Barcelona your way with our 100% personalized city tour. Tailor your itinerary to your preferences, from iconic landmarks to hidden gems. Meet at the Wax Museum for an exclusive experience.</t>
+          <t>Summarized description: As a taylored tour, we'll design the tour together to include the sites you prefer. Indulge yourself in a private car or using public transport.</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr"/>
@@ -17722,7 +17722,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>Title: Wonder Barcelona City Highlight Tour With Local Private Guide</t>
+          <t>Title: Private bespoken tailored Tour in Barcelona (chauffered or walking)</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr"/>
@@ -17752,7 +17752,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr"/>
@@ -17767,7 +17767,7 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239937P75</t>
+          <t>PRODUCTCODE: 248235P5</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr"/>
@@ -17782,7 +17782,7 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>Summarized description: Privately guided by a local expert. Roam around each corner of the city with your guide. Enrich your knowledge and idea of Barcelona with a local.</t>
+          <t>Summarized description: These are private walking tours which are customized to your preferences and last between 2 and 6 hours at your request. Children below 3 years old are free of charge. Children from 3 to 15 get 60% off the regular tour price.</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr"/>
@@ -17797,7 +17797,7 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>Title: Barcelona - Lets Explore the Hidden Gems with a Local (Private Tour)</t>
+          <t>Title: Discover Barcelona with a Private Walking Tour by a Local</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr"/>
@@ -17827,7 +17827,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['']</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239937P83</t>
+          <t>PRODUCTCODE: 11498P126</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr"/>
@@ -17857,7 +17857,7 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the hidden gems of Barcelona where the locals can go only. See the Casa de La Ciutat, and Palau de la Generalitat. Roam around the Placa Reial. Discover the Palau Guell.</t>
+          <t>Summarized description: Walk the streets of one of the world’s best cities for strolling and discovering its astonishing art (from outside) Enjoy the best street-level exploration of Barcelona on this private 3-hours walking journey.</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr"/>
@@ -17872,7 +17872,7 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>Title: Barcelona Private Tour - Lets Discover all the Hidden Gems with a Local</t>
+          <t>Title: The City of Gaudi - Private Barcelona Walking Tour with Local Expert Guide</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr"/>
@@ -17902,7 +17902,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr"/>
@@ -17917,7 +17917,7 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 207305P227</t>
+          <t>PRODUCTCODE: 8647P8</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr"/>
@@ -17932,7 +17932,7 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>Summarized description: Barcelona has always been one of the great art cities of Europe. Famous painters, sculptors and architects worked and lived here. Our fun and entertaining guide will make this a memorable experience for you.</t>
+          <t>Summarized description: 8-hour walking tour with private guide. Transportation is not included, so it would be on your own cost. Get tips from your local guide to see what other areas and places you can visit.</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr"/>
@@ -17947,7 +17947,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>Title: Private tour of Artistic Barcelona with a local</t>
+          <t>Title: Private Full Day Walking City Tour in Barcelona</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr"/>
@@ -17977,7 +17977,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Cultural Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr"/>
@@ -17992,7 +17992,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 126593P3</t>
+          <t>PRODUCTCODE: 8647P84</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>Summarized description: As a taylored tour, we'll design the tour together to include the sites you prefer. Indulge yourself in a private car or using public transport.</t>
+          <t>Summarized description: Your driver will pick you up from your hotel or place of choice and you will enjoy a 4 hour private tour of Barcelona. You will have your private luxury vehicle and your driver which will also be your guide.</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr"/>
@@ -18022,7 +18022,7 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>Title: Private bespoken tailored Tour in Barcelona (chauffered or walking)</t>
+          <t>Title: Private Tour of Barcelona with Driver Guide</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr"/>
@@ -18052,7 +18052,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr"/>
@@ -18067,7 +18067,7 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248235P5</t>
+          <t>PRODUCTCODE: 239937P89</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr"/>
@@ -18082,7 +18082,7 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>Summarized description: These are private walking tours which are customized to your preferences and last between 2 and 6 hours at your request. Children below 3 years old are free of charge. Children from 3 to 15 get 60% off the regular tour price.</t>
+          <t>Summarized description: Barcelona kickstart tour with the locals is an amazing way to know about the hidden things &amp; places of Barcelona. Avoid the tourist crowds and discover the architectural beauty of this "Full of Life " city.</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr"/>
@@ -18097,7 +18097,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>Title: Discover Barcelona with a Private Walking Tour by a Local</t>
+          <t>Title: Barcelona Kickstart Tour (City Highlight Private Tour)</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr"/>
@@ -18127,7 +18127,7 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>Category: ['']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr"/>
@@ -18142,7 +18142,7 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 11498P126</t>
+          <t>PRODUCTCODE: 207305P225</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr"/>
@@ -18157,7 +18157,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>Summarized description: Walk the streets of one of the world’s best cities for strolling and discovering its astonishing art (from outside) Enjoy the best street-level exploration of Barcelona on this private 3-hours walking journey.</t>
+          <t>Summarized description: Make the most of your time in Barcelona and experience the best of everything in Barcelona on this layover special private tour with a local. Use public transport throughout this tour to enhance your local experience even more.</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>Title: The City of Gaudi - Private Barcelona Walking Tour with Local Expert Guide</t>
+          <t>Title: Layover in Barcelona a Private Tour with a local: Best Highlights of Barcelona</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr"/>
@@ -18202,7 +18202,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr"/>
@@ -18217,7 +18217,7 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8647P8</t>
+          <t>PRODUCTCODE: 207305P228</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr"/>
@@ -18232,7 +18232,7 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>Summarized description: 8-hour walking tour with private guide. Transportation is not included, so it would be on your own cost. Get tips from your local guide to see what other areas and places you can visit.</t>
+          <t>Summarized description: Spain is one of the best experiences to immerse yourself into the rich Spanish culture. Our fun and entertaining guide will make this a memorable experience for you.</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr"/>
@@ -18247,7 +18247,7 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>Title: Private Full Day Walking City Tour in Barcelona</t>
+          <t>Title: Private tour of Offbeat Barcelona with a local</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr"/>
@@ -18277,7 +18277,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Cultural Tours']</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr"/>
@@ -18292,7 +18292,7 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8647P84</t>
+          <t>*****</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr"/>
@@ -18304,306 +18304,6 @@
       <c r="H1187" t="inlineStr"/>
       <c r="I1187" t="inlineStr"/>
     </row>
-    <row r="1188">
-      <c r="A1188" t="inlineStr">
-        <is>
-          <t>Summarized description: Your driver will pick you up from your hotel or place of choice and you will enjoy a 4 hour private tour of Barcelona. You will have your private luxury vehicle and your driver which will also be your guide.</t>
-        </is>
-      </c>
-      <c r="B1188" t="inlineStr"/>
-      <c r="C1188" t="inlineStr"/>
-      <c r="D1188" t="inlineStr"/>
-      <c r="E1188" t="inlineStr"/>
-      <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr"/>
-      <c r="H1188" t="inlineStr"/>
-      <c r="I1188" t="inlineStr"/>
-    </row>
-    <row r="1189">
-      <c r="A1189" t="inlineStr">
-        <is>
-          <t>Title: Private Tour of Barcelona with Driver Guide</t>
-        </is>
-      </c>
-      <c r="B1189" t="inlineStr"/>
-      <c r="C1189" t="inlineStr"/>
-      <c r="D1189" t="inlineStr"/>
-      <c r="E1189" t="inlineStr"/>
-      <c r="F1189" t="inlineStr"/>
-      <c r="G1189" t="inlineStr"/>
-      <c r="H1189" t="inlineStr"/>
-      <c r="I1189" t="inlineStr"/>
-    </row>
-    <row r="1190">
-      <c r="A1190" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1190" t="inlineStr"/>
-      <c r="C1190" t="inlineStr"/>
-      <c r="D1190" t="inlineStr"/>
-      <c r="E1190" t="inlineStr"/>
-      <c r="F1190" t="inlineStr"/>
-      <c r="G1190" t="inlineStr"/>
-      <c r="H1190" t="inlineStr"/>
-      <c r="I1190" t="inlineStr"/>
-    </row>
-    <row r="1191">
-      <c r="A1191" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1191" t="inlineStr"/>
-      <c r="C1191" t="inlineStr"/>
-      <c r="D1191" t="inlineStr"/>
-      <c r="E1191" t="inlineStr"/>
-      <c r="F1191" t="inlineStr"/>
-      <c r="G1191" t="inlineStr"/>
-      <c r="H1191" t="inlineStr"/>
-      <c r="I1191" t="inlineStr"/>
-    </row>
-    <row r="1192">
-      <c r="A1192" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 239937P89</t>
-        </is>
-      </c>
-      <c r="B1192" t="inlineStr"/>
-      <c r="C1192" t="inlineStr"/>
-      <c r="D1192" t="inlineStr"/>
-      <c r="E1192" t="inlineStr"/>
-      <c r="F1192" t="inlineStr"/>
-      <c r="G1192" t="inlineStr"/>
-      <c r="H1192" t="inlineStr"/>
-      <c r="I1192" t="inlineStr"/>
-    </row>
-    <row r="1193">
-      <c r="A1193" t="inlineStr">
-        <is>
-          <t>Summarized description: Barcelona kickstart tour with the locals is an amazing way to know about the hidden things &amp; places of Barcelona. Avoid the tourist crowds and discover the architectural beauty of this "Full of Life " city.</t>
-        </is>
-      </c>
-      <c r="B1193" t="inlineStr"/>
-      <c r="C1193" t="inlineStr"/>
-      <c r="D1193" t="inlineStr"/>
-      <c r="E1193" t="inlineStr"/>
-      <c r="F1193" t="inlineStr"/>
-      <c r="G1193" t="inlineStr"/>
-      <c r="H1193" t="inlineStr"/>
-      <c r="I1193" t="inlineStr"/>
-    </row>
-    <row r="1194">
-      <c r="A1194" t="inlineStr">
-        <is>
-          <t>Title: Barcelona Kickstart Tour (City Highlight Private Tour)</t>
-        </is>
-      </c>
-      <c r="B1194" t="inlineStr"/>
-      <c r="C1194" t="inlineStr"/>
-      <c r="D1194" t="inlineStr"/>
-      <c r="E1194" t="inlineStr"/>
-      <c r="F1194" t="inlineStr"/>
-      <c r="G1194" t="inlineStr"/>
-      <c r="H1194" t="inlineStr"/>
-      <c r="I1194" t="inlineStr"/>
-    </row>
-    <row r="1195">
-      <c r="A1195" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1195" t="inlineStr"/>
-      <c r="C1195" t="inlineStr"/>
-      <c r="D1195" t="inlineStr"/>
-      <c r="E1195" t="inlineStr"/>
-      <c r="F1195" t="inlineStr"/>
-      <c r="G1195" t="inlineStr"/>
-      <c r="H1195" t="inlineStr"/>
-      <c r="I1195" t="inlineStr"/>
-    </row>
-    <row r="1196">
-      <c r="A1196" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1196" t="inlineStr"/>
-      <c r="C1196" t="inlineStr"/>
-      <c r="D1196" t="inlineStr"/>
-      <c r="E1196" t="inlineStr"/>
-      <c r="F1196" t="inlineStr"/>
-      <c r="G1196" t="inlineStr"/>
-      <c r="H1196" t="inlineStr"/>
-      <c r="I1196" t="inlineStr"/>
-    </row>
-    <row r="1197">
-      <c r="A1197" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 207305P225</t>
-        </is>
-      </c>
-      <c r="B1197" t="inlineStr"/>
-      <c r="C1197" t="inlineStr"/>
-      <c r="D1197" t="inlineStr"/>
-      <c r="E1197" t="inlineStr"/>
-      <c r="F1197" t="inlineStr"/>
-      <c r="G1197" t="inlineStr"/>
-      <c r="H1197" t="inlineStr"/>
-      <c r="I1197" t="inlineStr"/>
-    </row>
-    <row r="1198">
-      <c r="A1198" t="inlineStr">
-        <is>
-          <t>Summarized description: Make the most of your time in Barcelona and experience the best of everything in Barcelona on this layover special private tour with a local. Use public transport throughout this tour to enhance your local experience even more.</t>
-        </is>
-      </c>
-      <c r="B1198" t="inlineStr"/>
-      <c r="C1198" t="inlineStr"/>
-      <c r="D1198" t="inlineStr"/>
-      <c r="E1198" t="inlineStr"/>
-      <c r="F1198" t="inlineStr"/>
-      <c r="G1198" t="inlineStr"/>
-      <c r="H1198" t="inlineStr"/>
-      <c r="I1198" t="inlineStr"/>
-    </row>
-    <row r="1199">
-      <c r="A1199" t="inlineStr">
-        <is>
-          <t>Title: Layover in Barcelona a Private Tour with a local: Best Highlights of Barcelona</t>
-        </is>
-      </c>
-      <c r="B1199" t="inlineStr"/>
-      <c r="C1199" t="inlineStr"/>
-      <c r="D1199" t="inlineStr"/>
-      <c r="E1199" t="inlineStr"/>
-      <c r="F1199" t="inlineStr"/>
-      <c r="G1199" t="inlineStr"/>
-      <c r="H1199" t="inlineStr"/>
-      <c r="I1199" t="inlineStr"/>
-    </row>
-    <row r="1200">
-      <c r="A1200" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1200" t="inlineStr"/>
-      <c r="C1200" t="inlineStr"/>
-      <c r="D1200" t="inlineStr"/>
-      <c r="E1200" t="inlineStr"/>
-      <c r="F1200" t="inlineStr"/>
-      <c r="G1200" t="inlineStr"/>
-      <c r="H1200" t="inlineStr"/>
-      <c r="I1200" t="inlineStr"/>
-    </row>
-    <row r="1201">
-      <c r="A1201" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1201" t="inlineStr"/>
-      <c r="C1201" t="inlineStr"/>
-      <c r="D1201" t="inlineStr"/>
-      <c r="E1201" t="inlineStr"/>
-      <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr"/>
-      <c r="H1201" t="inlineStr"/>
-      <c r="I1201" t="inlineStr"/>
-    </row>
-    <row r="1202">
-      <c r="A1202" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 207305P228</t>
-        </is>
-      </c>
-      <c r="B1202" t="inlineStr"/>
-      <c r="C1202" t="inlineStr"/>
-      <c r="D1202" t="inlineStr"/>
-      <c r="E1202" t="inlineStr"/>
-      <c r="F1202" t="inlineStr"/>
-      <c r="G1202" t="inlineStr"/>
-      <c r="H1202" t="inlineStr"/>
-      <c r="I1202" t="inlineStr"/>
-    </row>
-    <row r="1203">
-      <c r="A1203" t="inlineStr">
-        <is>
-          <t>Summarized description: Spain is one of the best experiences to immerse yourself into the rich Spanish culture. Our fun and entertaining guide will make this a memorable experience for you.</t>
-        </is>
-      </c>
-      <c r="B1203" t="inlineStr"/>
-      <c r="C1203" t="inlineStr"/>
-      <c r="D1203" t="inlineStr"/>
-      <c r="E1203" t="inlineStr"/>
-      <c r="F1203" t="inlineStr"/>
-      <c r="G1203" t="inlineStr"/>
-      <c r="H1203" t="inlineStr"/>
-      <c r="I1203" t="inlineStr"/>
-    </row>
-    <row r="1204">
-      <c r="A1204" t="inlineStr">
-        <is>
-          <t>Title: Private tour of Offbeat Barcelona with a local</t>
-        </is>
-      </c>
-      <c r="B1204" t="inlineStr"/>
-      <c r="C1204" t="inlineStr"/>
-      <c r="D1204" t="inlineStr"/>
-      <c r="E1204" t="inlineStr"/>
-      <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr"/>
-      <c r="H1204" t="inlineStr"/>
-      <c r="I1204" t="inlineStr"/>
-    </row>
-    <row r="1205">
-      <c r="A1205" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1205" t="inlineStr"/>
-      <c r="C1205" t="inlineStr"/>
-      <c r="D1205" t="inlineStr"/>
-      <c r="E1205" t="inlineStr"/>
-      <c r="F1205" t="inlineStr"/>
-      <c r="G1205" t="inlineStr"/>
-      <c r="H1205" t="inlineStr"/>
-      <c r="I1205" t="inlineStr"/>
-    </row>
-    <row r="1206">
-      <c r="A1206" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1206" t="inlineStr"/>
-      <c r="C1206" t="inlineStr"/>
-      <c r="D1206" t="inlineStr"/>
-      <c r="E1206" t="inlineStr"/>
-      <c r="F1206" t="inlineStr"/>
-      <c r="G1206" t="inlineStr"/>
-      <c r="H1206" t="inlineStr"/>
-      <c r="I1206" t="inlineStr"/>
-    </row>
-    <row r="1207">
-      <c r="A1207" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-      <c r="B1207" t="inlineStr"/>
-      <c r="C1207" t="inlineStr"/>
-      <c r="D1207" t="inlineStr"/>
-      <c r="E1207" t="inlineStr"/>
-      <c r="F1207" t="inlineStr"/>
-      <c r="G1207" t="inlineStr"/>
-      <c r="H1207" t="inlineStr"/>
-      <c r="I1207" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/104357P6.xlsx
+++ b/experiment_results/104357P6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1187"/>
+  <dimension ref="A1:I1192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -846,7 +846,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -1071,7 +1071,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1146,7 +1146,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1296,7 +1296,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -1596,7 +1596,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -1746,7 +1746,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -2346,7 +2346,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
@@ -2421,7 +2421,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -2871,7 +2871,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -3321,7 +3321,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -3396,7 +3396,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
@@ -3846,7 +3846,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Category: ['Performing Arts', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Performing Arts']</t>
         </is>
       </c>
       <c r="B224" t="inlineStr"/>
@@ -4221,7 +4221,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Category: ['Transportation &amp; Travel Services', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B249" t="inlineStr"/>
@@ -4371,7 +4371,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B259" t="inlineStr"/>
@@ -4446,7 +4446,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B264" t="inlineStr"/>
@@ -4596,7 +4596,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B274" t="inlineStr"/>
@@ -4971,7 +4971,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B299" t="inlineStr"/>
@@ -5046,7 +5046,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B304" t="inlineStr"/>
@@ -5421,7 +5421,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B329" t="inlineStr"/>
@@ -5646,7 +5646,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B344" t="inlineStr"/>
@@ -5871,7 +5871,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Shopping and Fashion']</t>
+          <t>Category: ['Shopping and Fashion', 'Entertainment']</t>
         </is>
       </c>
       <c r="B359" t="inlineStr"/>
@@ -6021,7 +6021,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B369" t="inlineStr"/>
@@ -6096,7 +6096,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B374" t="inlineStr"/>
@@ -6321,7 +6321,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B389" t="inlineStr"/>
@@ -6471,7 +6471,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B399" t="inlineStr"/>
@@ -6546,7 +6546,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Shopping and Fashion']</t>
+          <t>Category: ['Shopping and Fashion', 'Entertainment']</t>
         </is>
       </c>
       <c r="B404" t="inlineStr"/>
@@ -6771,7 +6771,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B419" t="inlineStr"/>
@@ -7071,7 +7071,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B439" t="inlineStr"/>
@@ -7146,7 +7146,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B444" t="inlineStr"/>
@@ -7296,7 +7296,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B454" t="inlineStr"/>
@@ -7521,7 +7521,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B469" t="inlineStr"/>
@@ -7596,7 +7596,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B474" t="inlineStr"/>
@@ -7671,7 +7671,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B479" t="inlineStr"/>
@@ -7746,7 +7746,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B484" t="inlineStr"/>
@@ -7821,7 +7821,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B489" t="inlineStr"/>
@@ -7896,7 +7896,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B494" t="inlineStr"/>
@@ -7971,7 +7971,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B499" t="inlineStr"/>
@@ -8046,7 +8046,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B504" t="inlineStr"/>
@@ -8346,7 +8346,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B524" t="inlineStr"/>
@@ -8496,7 +8496,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B534" t="inlineStr"/>
@@ -8571,7 +8571,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B539" t="inlineStr"/>
@@ -8646,7 +8646,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B544" t="inlineStr"/>
@@ -8871,7 +8871,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B559" t="inlineStr"/>
@@ -9096,7 +9096,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Category: ['Performing Arts', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Performing Arts']</t>
         </is>
       </c>
       <c r="B574" t="inlineStr"/>
@@ -9171,7 +9171,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B579" t="inlineStr"/>
@@ -9471,7 +9471,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B599" t="inlineStr"/>
@@ -9621,7 +9621,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Shopping and Fashion']</t>
+          <t>Category: ['Shopping and Fashion', 'Entertainment']</t>
         </is>
       </c>
       <c r="B609" t="inlineStr"/>
@@ -9846,7 +9846,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B624" t="inlineStr"/>
@@ -9921,7 +9921,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B629" t="inlineStr"/>
@@ -9996,7 +9996,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B634" t="inlineStr"/>
@@ -10371,7 +10371,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B659" t="inlineStr"/>
@@ -10446,7 +10446,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B664" t="inlineStr"/>
@@ -10521,7 +10521,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B669" t="inlineStr"/>
@@ -10596,7 +10596,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B674" t="inlineStr"/>
@@ -10671,7 +10671,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B679" t="inlineStr"/>
@@ -10821,7 +10821,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B689" t="inlineStr"/>
@@ -10971,7 +10971,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B699" t="inlineStr"/>
@@ -11046,7 +11046,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B704" t="inlineStr"/>
@@ -11421,7 +11421,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B729" t="inlineStr"/>
@@ -11571,7 +11571,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Festivals']</t>
+          <t>Category: ['Cultural Festivals', 'City Tours']</t>
         </is>
       </c>
       <c r="B739" t="inlineStr"/>
@@ -11646,7 +11646,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B744" t="inlineStr"/>
@@ -11796,7 +11796,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B754" t="inlineStr"/>
@@ -11871,7 +11871,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B759" t="inlineStr"/>
@@ -11946,7 +11946,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B764" t="inlineStr"/>
@@ -12171,7 +12171,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B779" t="inlineStr"/>
@@ -12396,7 +12396,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B794" t="inlineStr"/>
@@ -12696,7 +12696,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Category: ['Transportation &amp; Travel Services', 'Historical Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B814" t="inlineStr"/>
@@ -12846,7 +12846,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B824" t="inlineStr"/>
@@ -12921,7 +12921,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B829" t="inlineStr"/>
@@ -13071,7 +13071,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B839" t="inlineStr"/>
@@ -13146,7 +13146,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B844" t="inlineStr"/>
@@ -13221,7 +13221,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B849" t="inlineStr"/>
@@ -13371,7 +13371,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B859" t="inlineStr"/>
@@ -13446,7 +13446,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Cooking Classes', 'Culinary Tours']</t>
+          <t>Category: ['Cooking Classes', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B864" t="inlineStr"/>
@@ -13777,7 +13777,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B886" t="inlineStr"/>
@@ -13792,7 +13792,7 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P129</t>
+          <t>PRODUCTCODE: 24780P1</t>
         </is>
       </c>
       <c r="B887" t="inlineStr"/>
@@ -13807,7 +13807,7 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>Summarized description: Withlocals City Kickstart Tour™ is one of Withlocals' signature tours available in major cities worldwide. Discover where to find main attractions like Cathedral of Barcelona and Santa Maria del Mar and how to explore them away from the crowds.</t>
+          <t>Summarized description: Enjoy Barcelona in a private vehicle driven by professional drivers, uniformed and multilingual. The driver will pick you up at your centrally located hotel in Barcelona and will show you around some of the city's most famous landmarks.</t>
         </is>
       </c>
       <c r="B888" t="inlineStr"/>
@@ -13822,7 +13822,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>Title: Private City Kickstart Tour: Barcelona</t>
+          <t xml:space="preserve">Title: Barcelona Highlights Private Tour </t>
         </is>
       </c>
       <c r="B889" t="inlineStr"/>
@@ -13837,7 +13837,7 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>TotalReviews: 132</t>
+          <t>TotalReviews: 105</t>
         </is>
       </c>
       <c r="B890" t="inlineStr"/>
@@ -13867,7 +13867,7 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24780P1</t>
+          <t>PRODUCTCODE: 2148SP001LF</t>
         </is>
       </c>
       <c r="B892" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy Barcelona in a private vehicle driven by professional drivers, uniformed and multilingual. The driver will pick you up at your centrally located hotel in Barcelona and will show you around some of the city's most famous landmarks.</t>
+          <t>Summarized description: Explore Barcelona any way you want on a 4-hour, customizable private tour. Choose a morning or afternoon tour, tell your guide your interests in advance. Entrance fees, food and drink are at your own expense.</t>
         </is>
       </c>
       <c r="B893" t="inlineStr"/>
@@ -13897,7 +13897,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Barcelona Highlights Private Tour </t>
+          <t>Title: Private Tour: Barcelona Half-Day Sightseeing Tour</t>
         </is>
       </c>
       <c r="B894" t="inlineStr"/>
@@ -13912,7 +13912,7 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>TotalReviews: 105</t>
+          <t>TotalReviews: 93</t>
         </is>
       </c>
       <c r="B895" t="inlineStr"/>
@@ -13942,7 +13942,7 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2148SP001LF</t>
+          <t>PRODUCTCODE: 30791P623</t>
         </is>
       </c>
       <c r="B897" t="inlineStr"/>
@@ -13957,7 +13957,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>Summarized description: Explore Barcelona any way you want on a 4-hour, customizable private tour. Choose a morning or afternoon tour, tell your guide your interests in advance. Entrance fees, food and drink are at your own expense.</t>
+          <t>Summarized description: Your host will create a personalized itinerary to match your pace. Tick off those must-sees like the Jewish Quarter or uncover the wonders of the old Roman Temple. For a more local vibe, laze your afternoon away sipping sangria on the beach.</t>
         </is>
       </c>
       <c r="B898" t="inlineStr"/>
@@ -13972,7 +13972,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>Title: Private Tour: Barcelona Half-Day Sightseeing Tour</t>
+          <t xml:space="preserve">Title: Barcelona Highlights Private Tour with a Local 100% Personalized </t>
         </is>
       </c>
       <c r="B899" t="inlineStr"/>
@@ -13987,7 +13987,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>TotalReviews: 93</t>
+          <t>TotalReviews: 90</t>
         </is>
       </c>
       <c r="B900" t="inlineStr"/>
@@ -14002,7 +14002,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B901" t="inlineStr"/>
@@ -14017,7 +14017,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 30791P623</t>
+          <t>PRODUCTCODE: 299045P4</t>
         </is>
       </c>
       <c r="B902" t="inlineStr"/>
@@ -14032,7 +14032,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>Summarized description: Your host will create a personalized itinerary to match your pace. Tick off those must-sees like the Jewish Quarter or uncover the wonders of the old Roman Temple. For a more local vibe, laze your afternoon away sipping sangria on the beach.</t>
+          <t>Summarized description: We offer unique tailor-made private tours &amp; exclusives experiences in Barcelona and Catalonia with licensed local, Spanish, French and English-speaking tour guides. Proven experience in luxury tours guiding VIPs such as U2’s Bono, Sigourney Weaver, Beyoncé, among others.</t>
         </is>
       </c>
       <c r="B903" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Barcelona Highlights Private Tour with a Local 100% Personalized </t>
+          <t>Title: Private Tailored Barcelona Tour</t>
         </is>
       </c>
       <c r="B904" t="inlineStr"/>
@@ -14062,7 +14062,7 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>TotalReviews: 90</t>
+          <t>TotalReviews: 68</t>
         </is>
       </c>
       <c r="B905" t="inlineStr"/>
@@ -14077,7 +14077,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B906" t="inlineStr"/>
@@ -14092,7 +14092,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 299045P4</t>
+          <t>PRODUCTCODE: 141460P2</t>
         </is>
       </c>
       <c r="B907" t="inlineStr"/>
@@ -14107,7 +14107,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>Summarized description: We offer unique tailor-made private tours &amp; exclusives experiences in Barcelona and Catalonia with licensed local, Spanish, French and English-speaking tour guides. Proven experience in luxury tours guiding VIPs such as U2’s Bono, Sigourney Weaver, Beyoncé, among others.</t>
+          <t>Summarized description: Discover Barcelona at the hands of a local friend at your own pace doing exactly what you want to do. We will communicate beforehand to discuss your needs and interests to create a customized itinerary.</t>
         </is>
       </c>
       <c r="B908" t="inlineStr"/>
@@ -14122,7 +14122,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>Title: Private Tailored Barcelona Tour</t>
+          <t xml:space="preserve">Title: Barcelona Highlights with a Local Friend </t>
         </is>
       </c>
       <c r="B909" t="inlineStr"/>
@@ -14137,7 +14137,7 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>TotalReviews: 68</t>
+          <t>TotalReviews: 62</t>
         </is>
       </c>
       <c r="B910" t="inlineStr"/>
@@ -14152,7 +14152,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B911" t="inlineStr"/>
@@ -14167,7 +14167,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 141460P2</t>
+          <t>PRODUCTCODE: 73429P1</t>
         </is>
       </c>
       <c r="B912" t="inlineStr"/>
@@ -14182,7 +14182,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Barcelona at the hands of a local friend at your own pace doing exactly what you want to do. We will communicate beforehand to discuss your needs and interests to create a customized itinerary.</t>
+          <t>Summarized description: Learn about important Catalan legends. Enjoy a drink in a magical square where mostly locals go. See Barcelona through the eyes of a local. See the city with different eyes!</t>
         </is>
       </c>
       <c r="B913" t="inlineStr"/>
@@ -14197,7 +14197,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Barcelona Highlights with a Local Friend </t>
+          <t xml:space="preserve">Title: Explore hidden streets of Barcelona with a local </t>
         </is>
       </c>
       <c r="B914" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>TotalReviews: 62</t>
+          <t>TotalReviews: 57</t>
         </is>
       </c>
       <c r="B915" t="inlineStr"/>
@@ -14227,7 +14227,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B916" t="inlineStr"/>
@@ -14242,7 +14242,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 73429P1</t>
+          <t>PRODUCTCODE: 24380P352</t>
         </is>
       </c>
       <c r="B917" t="inlineStr"/>
@@ -14257,7 +14257,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about important Catalan legends. Enjoy a drink in a magical square where mostly locals go. See Barcelona through the eyes of a local. See the city with different eyes!</t>
+          <t>Summarized description: Withlocals Family Friendly City Tour™ is one of Withlocals' signature tours available in major cities worldwide. Visit main highlights like Plaça Reial, Palau Güell, and Cathedral of Barcelona, and discover hidden gems through a series of activities.</t>
         </is>
       </c>
       <c r="B918" t="inlineStr"/>
@@ -14272,7 +14272,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Explore hidden streets of Barcelona with a local </t>
+          <t>Title: Family Friendly Barcelona Private City Tour</t>
         </is>
       </c>
       <c r="B919" t="inlineStr"/>
@@ -14287,7 +14287,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>TotalReviews: 57</t>
+          <t>TotalReviews: 38</t>
         </is>
       </c>
       <c r="B920" t="inlineStr"/>
@@ -14302,7 +14302,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B921" t="inlineStr"/>
@@ -14317,7 +14317,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P352</t>
+          <t>PRODUCTCODE: 24380P355</t>
         </is>
       </c>
       <c r="B922" t="inlineStr"/>
@@ -14332,7 +14332,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>Summarized description: Withlocals Family Friendly City Tour™ is one of Withlocals' signature tours available in major cities worldwide. Visit main highlights like Plaça Reial, Palau Güell, and Cathedral of Barcelona, and discover hidden gems through a series of activities.</t>
+          <t>Summarized description: Explore the best spots around the city with your private local guide. Get tips to make the trip more fun for your kids, what to visit and where to eat. Along the way there will be a fun-filled game, and a prize to be won!</t>
         </is>
       </c>
       <c r="B923" t="inlineStr"/>
@@ -14347,7 +14347,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>Title: Family Friendly Barcelona Private City Tour</t>
+          <t>Title: Barcelona's Must-Do Private Family Tour</t>
         </is>
       </c>
       <c r="B924" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B926" t="inlineStr"/>
@@ -14392,7 +14392,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P355</t>
+          <t>PRODUCTCODE: 24380P1581</t>
         </is>
       </c>
       <c r="B927" t="inlineStr"/>
@@ -14407,7 +14407,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the best spots around the city with your private local guide. Get tips to make the trip more fun for your kids, what to visit and where to eat. Along the way there will be a fun-filled game, and a prize to be won!</t>
+          <t>Summarized description: This highlights tour of Barcelona is created for you and in your own way. Check the must-see places in city off your traveling bucket list with the help of your local host.</t>
         </is>
       </c>
       <c r="B928" t="inlineStr"/>
@@ -14422,7 +14422,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>Title: Barcelona's Must-Do Private Family Tour</t>
+          <t>Title: Barcelona 100% Personalized 3-Hour Private City Tour</t>
         </is>
       </c>
       <c r="B929" t="inlineStr"/>
@@ -14437,7 +14437,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>TotalReviews: 38</t>
+          <t>TotalReviews: 32</t>
         </is>
       </c>
       <c r="B930" t="inlineStr"/>
@@ -14452,7 +14452,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B931" t="inlineStr"/>
@@ -14467,7 +14467,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P1581</t>
+          <t>PRODUCTCODE: 24380P130</t>
         </is>
       </c>
       <c r="B932" t="inlineStr"/>
@@ -14482,7 +14482,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>Summarized description: This highlights tour of Barcelona is created for you and in your own way. Check the must-see places in city off your traveling bucket list with the help of your local host.</t>
+          <t>Summarized description: Discover Barcelona's most popular sites like a local with your own private guide. See the Cathedral of Barcelona, Plaça Reial, and the Palau de la Musica.</t>
         </is>
       </c>
       <c r="B933" t="inlineStr"/>
@@ -14497,7 +14497,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>Title: Barcelona 100% Personalized 3-Hour Private City Tour</t>
+          <t>Title: Highlights and Hidden Gems Private Tour Barcelona</t>
         </is>
       </c>
       <c r="B934" t="inlineStr"/>
@@ -14512,7 +14512,7 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>TotalReviews: 32</t>
+          <t>TotalReviews: 27</t>
         </is>
       </c>
       <c r="B935" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P130</t>
+          <t>PRODUCTCODE: 173069P1</t>
         </is>
       </c>
       <c r="B937" t="inlineStr"/>
@@ -14557,7 +14557,7 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Barcelona's most popular sites like a local with your own private guide. See the Cathedral of Barcelona, Plaça Reial, and the Palau de la Musica.</t>
+          <t>Summarized description: Exploring the old city center with its narrow alleys, impressive medieval buildings and lively squares. Find out what lies under our feet and what we regularly miss above our heads.</t>
         </is>
       </c>
       <c r="B938" t="inlineStr"/>
@@ -14572,7 +14572,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>Title: Highlights and Hidden Gems Private Tour Barcelona</t>
+          <t>Title: Private Tours Barcelona</t>
         </is>
       </c>
       <c r="B939" t="inlineStr"/>
@@ -14587,7 +14587,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>TotalReviews: 27</t>
+          <t>TotalReviews: 26</t>
         </is>
       </c>
       <c r="B940" t="inlineStr"/>
@@ -14602,7 +14602,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B941" t="inlineStr"/>
@@ -14617,7 +14617,7 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 173069P1</t>
+          <t>PRODUCTCODE: 8647P3</t>
         </is>
       </c>
       <c r="B942" t="inlineStr"/>
@@ -14632,7 +14632,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>Summarized description: Exploring the old city center with its narrow alleys, impressive medieval buildings and lively squares. Find out what lies under our feet and what we regularly miss above our heads.</t>
+          <t>Summarized description: Enjoy this 4-hour tour of Barcelona in your own private vehicle and guide. Pick up will be from your hotel or place of choice in Barcelona.</t>
         </is>
       </c>
       <c r="B943" t="inlineStr"/>
@@ -14647,7 +14647,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>Title: Private Tours Barcelona</t>
+          <t>Title: Barcelona Private 4 hour Tour with driver and official tour guide</t>
         </is>
       </c>
       <c r="B944" t="inlineStr"/>
@@ -14662,7 +14662,7 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>TotalReviews: 26</t>
+          <t>TotalReviews: 24</t>
         </is>
       </c>
       <c r="B945" t="inlineStr"/>
@@ -14677,7 +14677,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B946" t="inlineStr"/>
@@ -14692,7 +14692,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8647P3</t>
+          <t>PRODUCTCODE: 2148SP002LF</t>
         </is>
       </c>
       <c r="B947" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy this 4-hour tour of Barcelona in your own private vehicle and guide. Pick up will be from your hotel or place of choice in Barcelona.</t>
+          <t>Summarized description: Discover Barcelona the way you wish on this full-day, customizable private tour. Let your guide know what you want to see and, on the day, follow an itinerary designed around your interests. All admission fees, meals and drinks are at your own expense.</t>
         </is>
       </c>
       <c r="B948" t="inlineStr"/>
@@ -14722,7 +14722,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>Title: Barcelona Private 4 hour Tour with driver and official tour guide</t>
+          <t>Title: Private Tour: Barcelona Full-Day Sightseeing Tour</t>
         </is>
       </c>
       <c r="B949" t="inlineStr"/>
@@ -14737,7 +14737,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>TotalReviews: 24</t>
+          <t>TotalReviews: 18</t>
         </is>
       </c>
       <c r="B950" t="inlineStr"/>
@@ -14767,7 +14767,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2148SP002LF</t>
+          <t>PRODUCTCODE: 214073P1</t>
         </is>
       </c>
       <c r="B952" t="inlineStr"/>
@@ -14782,7 +14782,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Barcelona the way you wish on this full-day, customizable private tour. Let your guide know what you want to see and, on the day, follow an itinerary designed around your interests. All admission fees, meals and drinks are at your own expense.</t>
+          <t>Summarized description: Our bike tour is a great introduction to this fabulous city. Get into the back streets, find the hidden gems and see the romantic hideaways. With our guides, it's like having a friend show you around the city.</t>
         </is>
       </c>
       <c r="B953" t="inlineStr"/>
@@ -14797,7 +14797,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>Title: Private Tour: Barcelona Full-Day Sightseeing Tour</t>
+          <t>Title: Private Barcelona City Bike Tour</t>
         </is>
       </c>
       <c r="B954" t="inlineStr"/>
@@ -14812,7 +14812,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>TotalReviews: 18</t>
+          <t>TotalReviews: 16</t>
         </is>
       </c>
       <c r="B955" t="inlineStr"/>
@@ -14827,7 +14827,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B956" t="inlineStr"/>
@@ -14842,7 +14842,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 214073P1</t>
+          <t>PRODUCTCODE: 5689P16</t>
         </is>
       </c>
       <c r="B957" t="inlineStr"/>
@@ -14857,7 +14857,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>Summarized description: Our bike tour is a great introduction to this fabulous city. Get into the back streets, find the hidden gems and see the romantic hideaways. With our guides, it's like having a friend show you around the city.</t>
+          <t>Summarized description: Private Barcelona city tour with personal pickup and drop-off from the hotel, cruise port, or the airport. Discover all the highlights of Barcelona with an option to skip-the-lines too!</t>
         </is>
       </c>
       <c r="B958" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>Title: Private Barcelona City Bike Tour</t>
+          <t>Title: Private Guided Barcelona Tour - Discover Barcelona Skip-the-Lines Group Option</t>
         </is>
       </c>
       <c r="B959" t="inlineStr"/>
@@ -14887,7 +14887,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>TotalReviews: 16</t>
+          <t>TotalReviews: 13</t>
         </is>
       </c>
       <c r="B960" t="inlineStr"/>
@@ -14902,7 +14902,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B961" t="inlineStr"/>
@@ -14917,7 +14917,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5689P16</t>
+          <t>PRODUCTCODE: 11201P1</t>
         </is>
       </c>
       <c r="B962" t="inlineStr"/>
@@ -14932,7 +14932,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>Summarized description: Private Barcelona city tour with personal pickup and drop-off from the hotel, cruise port, or the airport. Discover all the highlights of Barcelona with an option to skip-the-lines too!</t>
+          <t>Summarized description: Experience Barcelona's top highlights during this private 3-hour tour. With an English-speaking driver/guide, relax in the comfort of an air-conditioned Mercedes. See a panoramic view of the city, Gaudí's Sagrada Família and Olympic Ring.</t>
         </is>
       </c>
       <c r="B963" t="inlineStr"/>
@@ -14947,7 +14947,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>Title: Private Guided Barcelona Tour - Discover Barcelona Skip-the-Lines Group Option</t>
+          <t>Title: Barcelona Highlights: Private Guided Tour</t>
         </is>
       </c>
       <c r="B964" t="inlineStr"/>
@@ -14962,7 +14962,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>TotalReviews: 13</t>
+          <t>TotalReviews: 12</t>
         </is>
       </c>
       <c r="B965" t="inlineStr"/>
@@ -14977,7 +14977,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B966" t="inlineStr"/>
@@ -14992,7 +14992,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 11201P1</t>
+          <t>PRODUCTCODE: 73429P14</t>
         </is>
       </c>
       <c r="B967" t="inlineStr"/>
@@ -15007,7 +15007,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>Summarized description: Experience Barcelona's top highlights during this private 3-hour tour. With an English-speaking driver/guide, relax in the comfort of an air-conditioned Mercedes. See a panoramic view of the city, Gaudí's Sagrada Família and Olympic Ring.</t>
+          <t>Summarized description: Learn about important Catalan legends. Enjoy a drink in a magical square where mostly locals go. See Barcelona through the eyes of a local. See the city with different eyes!</t>
         </is>
       </c>
       <c r="B968" t="inlineStr"/>
@@ -15022,7 +15022,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>Title: Barcelona Highlights: Private Guided Tour</t>
+          <t>Title: Explore hidden streets of Barcelona with a local - Private Tour</t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>TotalReviews: 12</t>
+          <t>TotalReviews: 11</t>
         </is>
       </c>
       <c r="B970" t="inlineStr"/>
@@ -15052,7 +15052,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B971" t="inlineStr"/>
@@ -15067,7 +15067,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 73429P14</t>
+          <t>PRODUCTCODE: 161628P1</t>
         </is>
       </c>
       <c r="B972" t="inlineStr"/>
@@ -15082,7 +15082,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about important Catalan legends. Enjoy a drink in a magical square where mostly locals go. See Barcelona through the eyes of a local. See the city with different eyes!</t>
+          <t>Summarized description: Ride with a local English Speaking Driver and explore the most iconic monuments of the city. Our drivers are not licensed to accompany you into the sights but are very knowledgeable of the places visited.</t>
         </is>
       </c>
       <c r="B973" t="inlineStr"/>
@@ -15097,7 +15097,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>Title: Explore hidden streets of Barcelona with a local - Private Tour</t>
+          <t>Title: Private 2-Hour Sightseeing Tour in Barcelona</t>
         </is>
       </c>
       <c r="B974" t="inlineStr"/>
@@ -15112,7 +15112,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>TotalReviews: 11</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B975" t="inlineStr"/>
@@ -15127,7 +15127,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B976" t="inlineStr"/>
@@ -15142,7 +15142,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 161628P1</t>
+          <t>PRODUCTCODE: 437294P1</t>
         </is>
       </c>
       <c r="B977" t="inlineStr"/>
@@ -15157,7 +15157,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>Summarized description: Ride with a local English Speaking Driver and explore the most iconic monuments of the city. Our drivers are not licensed to accompany you into the sights but are very knowledgeable of the places visited.</t>
+          <t>Summarized description: Tourists can explore the Gothic Quarter, the Cathedral, Sant Felip Neri, Born, Plaça Sant Jaume... Barcelona is home to a rich history that we want to share with you.</t>
         </is>
       </c>
       <c r="B978" t="inlineStr"/>
@@ -15172,7 +15172,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>Title: Private 2-Hour Sightseeing Tour in Barcelona</t>
+          <t>Title: Discover Barcelona with a Private Walking Tour with a Local Guide</t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B981" t="inlineStr"/>
@@ -15217,7 +15217,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 437294P1</t>
+          <t>PRODUCTCODE: 5746DAYINBARCELONA</t>
         </is>
       </c>
       <c r="B982" t="inlineStr"/>
@@ -15232,7 +15232,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>Summarized description: Tourists can explore the Gothic Quarter, the Cathedral, Sant Felip Neri, Born, Plaça Sant Jaume... Barcelona is home to a rich history that we want to share with you.</t>
+          <t>Summarized description: Make the most of your time in Barcelona with a local guide. Choose between a half- or full-day tour, then let your guide know your interests. With preplanned logistics and public transport included, this tour has everything you need.</t>
         </is>
       </c>
       <c r="B983" t="inlineStr"/>
@@ -15247,7 +15247,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>Title: Discover Barcelona with a Private Walking Tour with a Local Guide</t>
+          <t>Title: Barcelona in a Day Custom Private Tour</t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15262,7 +15262,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B985" t="inlineStr"/>
@@ -15277,7 +15277,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -15292,7 +15292,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5746DAYINBARCELONA</t>
+          <t>PRODUCTCODE: 207389P1</t>
         </is>
       </c>
       <c r="B987" t="inlineStr"/>
@@ -15307,7 +15307,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>Summarized description: Make the most of your time in Barcelona with a local guide. Choose between a half- or full-day tour, then let your guide know your interests. With preplanned logistics and public transport included, this tour has everything you need.</t>
+          <t>Summarized description: Our transfer and city tour service is designed to help you enjoy the city at your own pace and comfort. Enjoy aprivate service adapted to your needs.</t>
         </is>
       </c>
       <c r="B988" t="inlineStr"/>
@@ -15322,7 +15322,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>Title: Barcelona in a Day Custom Private Tour</t>
+          <t>Title: The private hop on/off Barcelona tour</t>
         </is>
       </c>
       <c r="B989" t="inlineStr"/>
@@ -15337,7 +15337,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B990" t="inlineStr"/>
@@ -15352,7 +15352,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B991" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B996" t="inlineStr"/>
@@ -15502,7 +15502,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 86919P8</t>
+          <t>PRODUCTCODE: 11498P143</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Summarized description: Get to know the city through the eyes of a passionate local. With no set itinerary, you can customize the tour or leave it up to the local. Since Lokafyers are not professional guides, they provide an experience that’s authentic and personal.</t>
+          <t>Summarized description: Explore the history of the city and take in the legendary landmarks. Ride through medieval districts, Barceloneta beach, Passeig Gracia, famous Gaudi buildings and the Sagrada Familia.</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>Title: Barcelona Like a Local: Customized Private Tour</t>
+          <t>Title: Private Barcelona Bike Tour, Gaudi's Art and Medieval Districts with Local Guide</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15712,7 +15712,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 172911P2</t>
+          <t>PRODUCTCODE: 86919P8</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Summarized description: At InSitu we believe that luxury is an attitude. That's why we design exclusive tours available to everyone. For us, each and every one of you is VIPs and, consequently, each one of the products we offer you is "premium"</t>
+          <t>Summarized description: Get to know the city through the eyes of a passionate local. With no set itinerary, you can customize the tour or leave it up to the local. Since Lokafyers are not professional guides, they provide an experience that’s authentic and personal.</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>Title: Private tour in Barcelona: The Gothic Quarter</t>
+          <t>Title: Barcelona Like a Local: Customized Private Tour</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Shopping and Fashion']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 76654P176</t>
+          <t>PRODUCTCODE: 172911P2</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Summarized description: Join a Local Expert for a two-hour exclusive journey through Barcelona. Discover historic landmarks, relive storied pasts, and dive into the city's rich culture.</t>
+          <t>Summarized description: At InSitu we believe that luxury is an attitude. That's why we design exclusive tours available to everyone. For us, each and every one of you is VIPs and, consequently, each one of the products we offer you is "premium"</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>Title: Historic Barcelona: Exclusive Private Tour with a Local Expert</t>
+          <t>Title: Private tour in Barcelona: The Gothic Quarter</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Shopping and Fashion', 'Entertainment']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5689P20</t>
+          <t>PRODUCTCODE: 76654P176</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: Private Barcelona city tour with personal pickup and drop-off from the hotel, cruise port, or the airport. Discover all the highlights of Barcelona with an option to skip-the-lines too!</t>
+          <t>Summarized description: Join a Local Expert for a two-hour exclusive journey through Barcelona. Discover historic landmarks, relive storied pasts, and dive into the city's rich culture.</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>Title: Private Guided Barcelona tour: customize the tour, skip-the-lines - Group</t>
+          <t>Title: Historic Barcelona: Exclusive Private Tour with a Local Expert</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 207305P220</t>
+          <t>PRODUCTCODE: 5689P20</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description: Barcelona has the reputation of being the most cosmopolitan, modern and avant-garde city in Spain. One of the great joys of a holiday abroad is sampling the local cuisine and the food in Barcelona is amongst the best in Europe.</t>
+          <t>Summarized description: Private Barcelona city tour with personal pickup and drop-off from the hotel, cruise port, or the airport. Discover all the highlights of Barcelona with an option to skip-the-lines too!</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Title: A day in the life of Barcelona - Private tour with a local</t>
+          <t>Title: Private Guided Barcelona tour: customize the tour, skip-the-lines - Group</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8647P2</t>
+          <t>PRODUCTCODE: 406056P6</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Summarized description: Get to know Barcelona by foot with a private guide in this 4-hour walking tour. Your official tour guide will pick you up in a central place of Barcelona, if your hotel is centrally located.</t>
+          <t>Summarized description: 8-hour tour combines convenience of private chauffeured transportation and the expertise of a dedicated tour guide. Your adventure commences with a hotel pickup, ensuring a stress-free start to your immersive journey.</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>Title: Private Half Day Walking Tour in Barcelona with walking pick up</t>
+          <t>Title: Full Day Private Tour with Hotel Pick Up in Barcelona</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 323397P3</t>
+          <t>PRODUCTCODE: 207305P220</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: The One Day Tour is a one-day trip to Barcelona, Spain. The tour includes a guided tour of the city and a tour of some of its most famous attractions.</t>
+          <t>Summarized description: Barcelona has the reputation of being the most cosmopolitan, modern and avant-garde city in Spain. One of the great joys of a holiday abroad is sampling the local cuisine and the food in Barcelona is amongst the best in Europe.</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Title: 6-Hour Private Walking Tour in Barcelona</t>
+          <t>Title: A day in the life of Barcelona - Private tour with a local</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 30791P441</t>
+          <t>PRODUCTCODE: 8647P2</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description: Your Host will offer practical advice on how to get around the city. They will also show you hidden gems you would otherwise miss. So choose the area you’d like to explore and get ready to kickstart your trip to Barcelona.</t>
+          <t>Summarized description: Get to know Barcelona by foot with a private guide in this 4-hour walking tour. Your official tour guide will pick you up in a central place of Barcelona, if your hotel is centrally located.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>Title: Private Tour Guide Barcelona with a Local: Kickstart your Trip, Personalized</t>
+          <t>Title: Private Half Day Walking Tour in Barcelona with walking pick up</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 11498P125</t>
+          <t>PRODUCTCODE: 323397P3</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description: Explore Born Market, ancient Roman walls and some of the lesser-known places. Enjoy the beauty of landmarks like the Arco de Triunfo and the sprawling Ciutdella Park.</t>
+          <t>Summarized description: The One Day Tour is a one-day trip to Barcelona, Spain. The tour includes a guided tour of the city and a tour of some of its most famous attractions.</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>Title: Private Barcelona Old Town Walking Tour with Expert Local Guide</t>
+          <t>Title: 6-Hour Private Walking Tour in Barcelona</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 30791P440</t>
+          <t>PRODUCTCODE: 30791P441</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Summarized description: Exploring the city with a handpicked Host will not only take the pressure off you to lead the way, but will also show you the best family friendly spots in the city. Whether you decide to explore the main tourist sights, hidden gems or a specific neighbourhood, you're guaranteed to discover places, activities and food that your whole family will enjoy.</t>
+          <t>Summarized description: Your Host will offer practical advice on how to get around the city. They will also show you hidden gems you would otherwise miss. So choose the area you’d like to explore and get ready to kickstart your trip to Barcelona.</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Barcelona Private Family Tours by Locals: 100% Personalized &amp; Private </t>
+          <t>Title: Private Tour Guide Barcelona with a Local: Kickstart your Trip, Personalized</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 88037P90</t>
+          <t>PRODUCTCODE: 11498P125</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Summarized description: Follow us on a 2 hour tous through the Barri Gótic, or Gothic Quarter. We will unveil the complex layers of this city’s complex past.</t>
+          <t>Summarized description: Explore Born Market, ancient Roman walls and some of the lesser-known places. Enjoy the beauty of landmarks like the Arco de Triunfo and the sprawling Ciutdella Park.</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>Title: Barcelona Private Walking Tour with a Professional Guide</t>
+          <t>Title: Private Barcelona Old Town Walking Tour with Expert Local Guide</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 293233P2</t>
+          <t>PRODUCTCODE: 88037P90</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description: Local certified guides, with 10+ years of experience. Get some wonderful knowledge of the city of Barcelona. This is a premium quality tour, by local certified guides.</t>
+          <t>Summarized description: Follow us on a 2 hour tous through the Barri Gótic, or Gothic Quarter. We will unveil the complex layers of this city’s complex past.</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>Title: Half-Day Private Walking Tour in Barcelona</t>
+          <t>Title: Barcelona Private Walking Tour with a Professional Guide</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 144457P24</t>
+          <t>PRODUCTCODE: 293233P2</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description: Learn the history of the city and its museums or symbolic places in a confidential and personalised way with a private guide that speaks your language. Visit Barcelona with your family, friends or as a couple and come back with great memories.</t>
+          <t>Summarized description: Local certified guides, with 10+ years of experience. Get some wonderful knowledge of the city of Barcelona. This is a premium quality tour, by local certified guides.</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>Title: Barcelona Gothic Quarter | Private tour (2H) | Private guide</t>
+          <t>Title: Half-Day Private Walking Tour in Barcelona</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16612,7 +16612,7 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 101067P4</t>
+          <t>PRODUCTCODE: 144457P24</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description:  licensed tour guide who will put in perspective everything for you. Not only the historical and artistic facts but also the way of doing, costums, likes and dislikes, aspirations and issues.</t>
+          <t>Summarized description: Learn the history of the city and its museums or symbolic places in a confidential and personalised way with a private guide that speaks your language. Visit Barcelona with your family, friends or as a couple and come back with great memories.</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>Title: 3-Hour Barcelona Private Walking Tour around Gothic Quarter</t>
+          <t>Title: Barcelona Gothic Quarter | Private tour (2H) | Private guide</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 328911P1</t>
+          <t>PRODUCTCODE: 101067P4</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: All our guides are local citizen with guiding experience for more than 10 years. We are very attentive to the clients wishes and make each tour unforgettable.</t>
+          <t>Summarized description:  licensed tour guide who will put in perspective everything for you. Not only the historical and artistic facts but also the way of doing, costums, likes and dislikes, aspirations and issues.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Title: Barcelona Historical Private Tour</t>
+          <t>Title: 3-Hour Barcelona Private Walking Tour around Gothic Quarter</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 11498P135</t>
+          <t>PRODUCTCODE: 328911P1</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: Walking through the historic quarters of Barcelona, you will experience the friendly atmosphere of the Catalan capital. Your private guide will talk about local traditions and customs and how the city developed.</t>
+          <t>Summarized description: All our guides are local citizen with guiding experience for more than 10 years. We are very attentive to the clients wishes and make each tour unforgettable.</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Title: Barcelona Must-See Private Tour with a Friendly Local Guide</t>
+          <t>Title: Barcelona Historical Private Tour</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 196771P15</t>
+          <t>PRODUCTCODE: 11498P135</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: A short trip to ancient El Born area  with 4 tapas included. Personalized experience as you want. Private tour: only you &amp; your local host. 4 alcoholic drinks: beer, wine, cava.</t>
+          <t>Summarized description: Walking through the historic quarters of Barcelona, you will experience the friendly atmosphere of the Catalan capital. Your private guide will talk about local traditions and customs and how the city developed.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Title:  Roam in Barcelona at Night Like a Local - Private Tour</t>
+          <t>Title: Barcelona Must-See Private Tour with a Friendly Local Guide</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 349654P1</t>
+          <t>PRODUCTCODE: 196771P15</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: Native Driver offers 1 private tour for 3 people during 2 hours. Tours include La Sagrada Familia, La Pedrera and Casa Batlló, Las Ramblas.</t>
+          <t>Summarized description: A short trip to ancient El Born area  with 4 tapas included. Personalized experience as you want. Private tour: only you &amp; your local host. 4 alcoholic drinks: beer, wine, cava.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>Title: Private Tour around Barcelona</t>
+          <t>Title:  Roam in Barcelona at Night Like a Local - Private Tour</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 172911P4</t>
+          <t>PRODUCTCODE: 349654P1</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Summarized description: At InSitu we believe that luxury is an attitude. That's why we design exclusive tours available to everyone. For us, each and every one of you is VIPs and, consequently, each one of the products we offer you is "premium"</t>
+          <t>Summarized description: Native Driver offers 1 private tour for 3 people during 2 hours. Tours include La Sagrada Familia, La Pedrera and Casa Batlló, Las Ramblas.</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Title: Private tour in Barcelona: La Rambla.</t>
+          <t>Title: Private Tour around Barcelona</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Shopping and Fashion']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 330348P8</t>
+          <t>PRODUCTCODE: 172911P4</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Summarized description: Listen to the audio guide online, or offline. The content is professionally created by a group of top authors and interpreted by TV and radio professionals. The smartphone is yours and you will not have contact with unsanitary devices provided by third parties.</t>
+          <t>Summarized description: At InSitu we believe that luxury is an attitude. That's why we design exclusive tours available to everyone. For us, each and every one of you is VIPs and, consequently, each one of the products we offer you is "premium"</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>Title: Private Audio Guided Walking Tour in Barcelona</t>
+          <t>Title: Private tour in Barcelona: La Rambla.</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Category: ['']</t>
+          <t>Category: ['Shopping and Fashion', 'Entertainment']</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239937P91</t>
+          <t>PRODUCTCODE: 330348P8</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Summarized description: Let us explore the best spots around the city along with the tips from the locals. During this short trip, we will be able to know about the local insights and will enjoy the city like a local.</t>
+          <t>Summarized description: Listen to the audio guide online, or offline. The content is professionally created by a group of top authors and interpreted by TV and radio professionals. The smartphone is yours and you will not have contact with unsanitary devices provided by third parties.</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>Title: Barcelona's Must-Do Family Day Tour - A City Highlight Private Tour</t>
+          <t>Title: Private Audio Guided Walking Tour in Barcelona</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['']</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239937P74</t>
+          <t>PRODUCTCODE: 239937P91</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Summarized description: Private tour only you and your guide. You can get a full personalized experience, just say it, and we will make it up to you. Discover Barcelona's old history and the history of the El Raval district.</t>
+          <t>Summarized description: Let us explore the best spots around the city along with the tips from the locals. During this short trip, we will be able to know about the local insights and will enjoy the city like a local.</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>Title: Explore " Me Gusta " Barcelona - an Urban Kickstart Private Tour</t>
+          <t>Title: Barcelona's Must-Do Family Day Tour - A City Highlight Private Tour</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 102055P6</t>
+          <t>PRODUCTCODE: 239937P74</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the origins of Barcelona on this guided walking tour. Your official guide will tell you anecdotes, legends and stories. Visit such emblematic places as Las Ramblas or the Plaza de Sant Jaume.</t>
+          <t>Summarized description: Private tour only you and your guide. You can get a full personalized experience, just say it, and we will make it up to you. Discover Barcelona's old history and the history of the El Raval district.</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>Title: Barcelona Gothic Quarter: private walking tour</t>
+          <t>Title: Explore " Me Gusta " Barcelona - an Urban Kickstart Private Tour</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 428421P5</t>
+          <t>PRODUCTCODE: 102055P6</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17407,7 +17407,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Barcelona your way with our 100% personalized city tour. Tailor your itinerary to your preferences, from iconic landmarks to hidden gems. Meet at the Wax Museum for an exclusive experience.</t>
+          <t>Summarized description: Discover the origins of Barcelona on this guided walking tour. Your official guide will tell you anecdotes, legends and stories. Visit such emblematic places as Las Ramblas or the Plaza de Sant Jaume.</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>Title: Wonder Barcelona City Highlight Tour With Local Private Guide</t>
+          <t>Title: Barcelona Gothic Quarter: private walking tour</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239937P75</t>
+          <t>PRODUCTCODE: 428421P5</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Summarized description: Privately guided by a local expert. Roam around each corner of the city with your guide. Enrich your knowledge and idea of Barcelona with a local.</t>
+          <t>Summarized description: Discover Barcelona your way with our 100% personalized city tour. Tailor your itinerary to your preferences, from iconic landmarks to hidden gems. Meet at the Wax Museum for an exclusive experience.</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>Title: Barcelona - Lets Explore the Hidden Gems with a Local (Private Tour)</t>
+          <t>Title: Wonder Barcelona City Highlight Tour With Local Private Guide</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239937P83</t>
+          <t>PRODUCTCODE: 239937P75</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the hidden gems of Barcelona where the locals can go only. See the Casa de La Ciutat, and Palau de la Generalitat. Roam around the Placa Reial. Discover the Palau Guell.</t>
+          <t>Summarized description: Privately guided by a local expert. Roam around each corner of the city with your guide. Enrich your knowledge and idea of Barcelona with a local.</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Title: Barcelona Private Tour - Lets Discover all the Hidden Gems with a Local</t>
+          <t>Title: Barcelona - Lets Explore the Hidden Gems with a Local (Private Tour)</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 207305P227</t>
+          <t>PRODUCTCODE: 239937P83</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17632,7 +17632,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Summarized description: Barcelona has always been one of the great art cities of Europe. Famous painters, sculptors and architects worked and lived here. Our fun and entertaining guide will make this a memorable experience for you.</t>
+          <t>Summarized description: Discover the hidden gems of Barcelona where the locals can go only. See the Casa de La Ciutat, and Palau de la Generalitat. Roam around the Placa Reial. Discover the Palau Guell.</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr"/>
@@ -17647,7 +17647,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>Title: Private tour of Artistic Barcelona with a local</t>
+          <t>Title: Barcelona Private Tour - Lets Discover all the Hidden Gems with a Local</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr"/>
@@ -17692,7 +17692,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 126593P3</t>
+          <t>PRODUCTCODE: 207305P227</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr"/>
@@ -17707,7 +17707,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Summarized description: As a taylored tour, we'll design the tour together to include the sites you prefer. Indulge yourself in a private car or using public transport.</t>
+          <t>Summarized description: Barcelona has always been one of the great art cities of Europe. Famous painters, sculptors and architects worked and lived here. Our fun and entertaining guide will make this a memorable experience for you.</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr"/>
@@ -17722,7 +17722,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>Title: Private bespoken tailored Tour in Barcelona (chauffered or walking)</t>
+          <t>Title: Private tour of Artistic Barcelona with a local</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr"/>
@@ -17752,7 +17752,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr"/>
@@ -17767,7 +17767,7 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248235P5</t>
+          <t>PRODUCTCODE: 126593P3</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr"/>
@@ -17782,7 +17782,7 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>Summarized description: These are private walking tours which are customized to your preferences and last between 2 and 6 hours at your request. Children below 3 years old are free of charge. Children from 3 to 15 get 60% off the regular tour price.</t>
+          <t>Summarized description: As a taylored tour, we'll design the tour together to include the sites you prefer. Indulge yourself in a private car or using public transport.</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr"/>
@@ -17797,7 +17797,7 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>Title: Discover Barcelona with a Private Walking Tour by a Local</t>
+          <t>Title: Private bespoken tailored Tour in Barcelona (chauffered or walking)</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr"/>
@@ -17827,7 +17827,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>Category: ['']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 11498P126</t>
+          <t>PRODUCTCODE: 248235P5</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr"/>
@@ -17857,7 +17857,7 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>Summarized description: Walk the streets of one of the world’s best cities for strolling and discovering its astonishing art (from outside) Enjoy the best street-level exploration of Barcelona on this private 3-hours walking journey.</t>
+          <t>Summarized description: These are private walking tours which are customized to your preferences and last between 2 and 6 hours at your request. Children below 3 years old are free of charge. Children from 3 to 15 get 60% off the regular tour price.</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr"/>
@@ -17872,7 +17872,7 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>Title: The City of Gaudi - Private Barcelona Walking Tour with Local Expert Guide</t>
+          <t>Title: Discover Barcelona with a Private Walking Tour by a Local</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr"/>
@@ -17902,7 +17902,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['']</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr"/>
@@ -17917,7 +17917,7 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8647P8</t>
+          <t>PRODUCTCODE: 11498P126</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr"/>
@@ -17932,7 +17932,7 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>Summarized description: 8-hour walking tour with private guide. Transportation is not included, so it would be on your own cost. Get tips from your local guide to see what other areas and places you can visit.</t>
+          <t>Summarized description: Walk the streets of one of the world’s best cities for strolling and discovering its astonishing art (from outside) Enjoy the best street-level exploration of Barcelona on this private 3-hours walking journey.</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr"/>
@@ -17947,7 +17947,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>Title: Private Full Day Walking City Tour in Barcelona</t>
+          <t>Title: The City of Gaudi - Private Barcelona Walking Tour with Local Expert Guide</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr"/>
@@ -17977,7 +17977,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr"/>
@@ -17992,7 +17992,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8647P84</t>
+          <t>PRODUCTCODE: 8647P8</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>Summarized description: Your driver will pick you up from your hotel or place of choice and you will enjoy a 4 hour private tour of Barcelona. You will have your private luxury vehicle and your driver which will also be your guide.</t>
+          <t>Summarized description: 8-hour walking tour with private guide. Transportation is not included, so it would be on your own cost. Get tips from your local guide to see what other areas and places you can visit.</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr"/>
@@ -18022,7 +18022,7 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>Title: Private Tour of Barcelona with Driver Guide</t>
+          <t>Title: Private Full Day Walking City Tour in Barcelona</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr"/>
@@ -18052,7 +18052,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr"/>
@@ -18067,7 +18067,7 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239937P89</t>
+          <t>PRODUCTCODE: 8647P84</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr"/>
@@ -18082,7 +18082,7 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>Summarized description: Barcelona kickstart tour with the locals is an amazing way to know about the hidden things &amp; places of Barcelona. Avoid the tourist crowds and discover the architectural beauty of this "Full of Life " city.</t>
+          <t>Summarized description: Your driver will pick you up from your hotel or place of choice and you will enjoy a 4 hour private tour of Barcelona. You will have your private luxury vehicle and your driver which will also be your guide.</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr"/>
@@ -18097,7 +18097,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>Title: Barcelona Kickstart Tour (City Highlight Private Tour)</t>
+          <t>Title: Private Tour of Barcelona with Driver Guide</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr"/>
@@ -18127,7 +18127,7 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr"/>
@@ -18142,7 +18142,7 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 207305P225</t>
+          <t>PRODUCTCODE: 239937P89</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr"/>
@@ -18157,7 +18157,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>Summarized description: Make the most of your time in Barcelona and experience the best of everything in Barcelona on this layover special private tour with a local. Use public transport throughout this tour to enhance your local experience even more.</t>
+          <t>Summarized description: Barcelona kickstart tour with the locals is an amazing way to know about the hidden things &amp; places of Barcelona. Avoid the tourist crowds and discover the architectural beauty of this "Full of Life " city.</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>Title: Layover in Barcelona a Private Tour with a local: Best Highlights of Barcelona</t>
+          <t>Title: Barcelona Kickstart Tour (City Highlight Private Tour)</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr"/>
@@ -18202,7 +18202,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr"/>
@@ -18217,7 +18217,7 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 207305P228</t>
+          <t>PRODUCTCODE: 207305P225</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr"/>
@@ -18232,7 +18232,7 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>Summarized description: Spain is one of the best experiences to immerse yourself into the rich Spanish culture. Our fun and entertaining guide will make this a memorable experience for you.</t>
+          <t>Summarized description: Make the most of your time in Barcelona and experience the best of everything in Barcelona on this layover special private tour with a local. Use public transport throughout this tour to enhance your local experience even more.</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr"/>
@@ -18247,7 +18247,7 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>Title: Private tour of Offbeat Barcelona with a local</t>
+          <t>Title: Layover in Barcelona a Private Tour with a local: Best Highlights of Barcelona</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr"/>
@@ -18277,7 +18277,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr"/>
@@ -18292,7 +18292,7 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>PRODUCTCODE: 207305P228</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr"/>
@@ -18304,6 +18304,81 @@
       <c r="H1187" t="inlineStr"/>
       <c r="I1187" t="inlineStr"/>
     </row>
+    <row r="1188">
+      <c r="A1188" t="inlineStr">
+        <is>
+          <t>Summarized description: Spain is one of the best experiences to immerse yourself into the rich Spanish culture. Our fun and entertaining guide will make this a memorable experience for you.</t>
+        </is>
+      </c>
+      <c r="B1188" t="inlineStr"/>
+      <c r="C1188" t="inlineStr"/>
+      <c r="D1188" t="inlineStr"/>
+      <c r="E1188" t="inlineStr"/>
+      <c r="F1188" t="inlineStr"/>
+      <c r="G1188" t="inlineStr"/>
+      <c r="H1188" t="inlineStr"/>
+      <c r="I1188" t="inlineStr"/>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="inlineStr">
+        <is>
+          <t>Title: Private tour of Offbeat Barcelona with a local</t>
+        </is>
+      </c>
+      <c r="B1189" t="inlineStr"/>
+      <c r="C1189" t="inlineStr"/>
+      <c r="D1189" t="inlineStr"/>
+      <c r="E1189" t="inlineStr"/>
+      <c r="F1189" t="inlineStr"/>
+      <c r="G1189" t="inlineStr"/>
+      <c r="H1189" t="inlineStr"/>
+      <c r="I1189" t="inlineStr"/>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1190" t="inlineStr"/>
+      <c r="C1190" t="inlineStr"/>
+      <c r="D1190" t="inlineStr"/>
+      <c r="E1190" t="inlineStr"/>
+      <c r="F1190" t="inlineStr"/>
+      <c r="G1190" t="inlineStr"/>
+      <c r="H1190" t="inlineStr"/>
+      <c r="I1190" t="inlineStr"/>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t>Category: ['Cultural Tours']</t>
+        </is>
+      </c>
+      <c r="B1191" t="inlineStr"/>
+      <c r="C1191" t="inlineStr"/>
+      <c r="D1191" t="inlineStr"/>
+      <c r="E1191" t="inlineStr"/>
+      <c r="F1191" t="inlineStr"/>
+      <c r="G1191" t="inlineStr"/>
+      <c r="H1191" t="inlineStr"/>
+      <c r="I1191" t="inlineStr"/>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+      <c r="B1192" t="inlineStr"/>
+      <c r="C1192" t="inlineStr"/>
+      <c r="D1192" t="inlineStr"/>
+      <c r="E1192" t="inlineStr"/>
+      <c r="F1192" t="inlineStr"/>
+      <c r="G1192" t="inlineStr"/>
+      <c r="H1192" t="inlineStr"/>
+      <c r="I1192" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/104357P6.xlsx
+++ b/experiment_results/104357P6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1314"/>
+  <dimension ref="A1:I1379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -726,7 +726,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -801,7 +801,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -1026,7 +1026,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -1101,7 +1101,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -1251,7 +1251,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -1401,7 +1401,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -1701,7 +1701,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
@@ -2001,7 +2001,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
@@ -2676,7 +2676,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B146" t="inlineStr"/>
@@ -2826,7 +2826,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B156" t="inlineStr"/>
@@ -2976,7 +2976,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Category: ['Health and Fitness Camps', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Health and Fitness Camps']</t>
         </is>
       </c>
       <c r="B166" t="inlineStr"/>
@@ -3051,7 +3051,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B171" t="inlineStr"/>
@@ -4026,7 +4026,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B236" t="inlineStr"/>
@@ -4326,7 +4326,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B256" t="inlineStr"/>
@@ -4551,7 +4551,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B271" t="inlineStr"/>
@@ -5751,7 +5751,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Category: ['Shopping and Fashion', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Shopping and Fashion', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B351" t="inlineStr"/>
@@ -6051,7 +6051,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B371" t="inlineStr"/>
@@ -6426,7 +6426,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B396" t="inlineStr"/>
@@ -6726,7 +6726,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B416" t="inlineStr"/>
@@ -7476,7 +7476,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B466" t="inlineStr"/>
@@ -7551,7 +7551,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B471" t="inlineStr"/>
@@ -7626,7 +7626,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B476" t="inlineStr"/>
@@ -7701,7 +7701,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B481" t="inlineStr"/>
@@ -7776,7 +7776,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B486" t="inlineStr"/>
@@ -8001,7 +8001,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B501" t="inlineStr"/>
@@ -8226,7 +8226,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B516" t="inlineStr"/>
@@ -8301,7 +8301,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B521" t="inlineStr"/>
@@ -8376,7 +8376,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B526" t="inlineStr"/>
@@ -8526,7 +8526,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B536" t="inlineStr"/>
@@ -8601,7 +8601,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B541" t="inlineStr"/>
@@ -8826,7 +8826,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B556" t="inlineStr"/>
@@ -8976,7 +8976,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Entertainment']</t>
         </is>
       </c>
       <c r="B566" t="inlineStr"/>
@@ -9126,7 +9126,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B576" t="inlineStr"/>
@@ -9426,7 +9426,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B596" t="inlineStr"/>
@@ -9801,7 +9801,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B621" t="inlineStr"/>
@@ -9876,7 +9876,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B626" t="inlineStr"/>
@@ -9951,7 +9951,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B631" t="inlineStr"/>
@@ -10026,7 +10026,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B636" t="inlineStr"/>
@@ -10476,7 +10476,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B666" t="inlineStr"/>
@@ -10551,7 +10551,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B671" t="inlineStr"/>
@@ -10626,7 +10626,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B676" t="inlineStr"/>
@@ -10776,7 +10776,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B686" t="inlineStr"/>
@@ -10926,7 +10926,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B696" t="inlineStr"/>
@@ -11001,7 +11001,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B701" t="inlineStr"/>
@@ -11301,7 +11301,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B721" t="inlineStr"/>
@@ -11376,7 +11376,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B726" t="inlineStr"/>
@@ -11601,7 +11601,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B741" t="inlineStr"/>
@@ -11751,7 +11751,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B751" t="inlineStr"/>
@@ -11826,7 +11826,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B756" t="inlineStr"/>
@@ -11901,7 +11901,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B761" t="inlineStr"/>
@@ -12126,7 +12126,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B776" t="inlineStr"/>
@@ -12351,7 +12351,7 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B791" t="inlineStr"/>
@@ -12576,7 +12576,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B806" t="inlineStr"/>
@@ -12651,7 +12651,7 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>Category: ['Transportation &amp; Travel Services', 'Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Scenic Tours', 'Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B811" t="inlineStr"/>
@@ -12801,7 +12801,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B821" t="inlineStr"/>
@@ -12876,7 +12876,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B826" t="inlineStr"/>
@@ -12951,7 +12951,7 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B831" t="inlineStr"/>
@@ -13026,7 +13026,7 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B836" t="inlineStr"/>
@@ -13101,7 +13101,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B841" t="inlineStr"/>
@@ -13176,7 +13176,7 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B846" t="inlineStr"/>
@@ -13326,7 +13326,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B856" t="inlineStr"/>
@@ -13401,7 +13401,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours', 'Cooking Classes']</t>
+          <t>Category: ['Cooking Classes', 'Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B861" t="inlineStr"/>
@@ -13551,7 +13551,7 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B871" t="inlineStr"/>
@@ -13672,7 +13672,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P129</t>
+          <t>PRODUCTCODE: 24380P322</t>
         </is>
       </c>
       <c r="B879" t="inlineStr"/>
@@ -13687,7 +13687,7 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>Summarized description: Withlocals City Kickstart Tour™ is one of Withlocals' signature tours available in major cities worldwide. Discover where to find main attractions like Cathedral of Barcelona and Santa Maria del Mar and how to explore them away from the crowds.</t>
+          <t>Summarized description: Withlocals Highlights &amp; Hidden Gems Private City Tour is one of Withlocals' signature tours available in major cities worldwide. We work with passionate local guides who earn a fair fee. We support local economies by only offering local produce and prevent over-tourism with only small non-intrusive groups.</t>
         </is>
       </c>
       <c r="B880" t="inlineStr"/>
@@ -13702,7 +13702,7 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>Title: Private City Kickstart Tour: Barcelona</t>
+          <t>Title: Barcelona Highlights &amp; Hidden Gems Private Tour</t>
         </is>
       </c>
       <c r="B881" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>TotalReviews: 132</t>
+          <t>TotalReviews: 234</t>
         </is>
       </c>
       <c r="B882" t="inlineStr"/>
@@ -13732,7 +13732,7 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B883" t="inlineStr"/>
@@ -13747,7 +13747,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24780P1</t>
+          <t>PRODUCTCODE: 24380P129</t>
         </is>
       </c>
       <c r="B884" t="inlineStr"/>
@@ -13762,7 +13762,7 @@
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy Barcelona in a private vehicle driven by professional drivers, uniformed and multilingual. The driver will pick you up at your centrally located hotel in Barcelona and will show you around some of the city's most famous landmarks.</t>
+          <t>Summarized description: Withlocals City Kickstart Tour™ is one of Withlocals' signature tours available in major cities worldwide. Discover where to find main attractions like Cathedral of Barcelona and Santa Maria del Mar and how to explore them away from the crowds.</t>
         </is>
       </c>
       <c r="B885" t="inlineStr"/>
@@ -13777,7 +13777,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Barcelona Highlights Private Tour </t>
+          <t>Title: Private City Kickstart Tour: Barcelona</t>
         </is>
       </c>
       <c r="B886" t="inlineStr"/>
@@ -13792,7 +13792,7 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>TotalReviews: 105</t>
+          <t>TotalReviews: 132</t>
         </is>
       </c>
       <c r="B887" t="inlineStr"/>
@@ -13822,7 +13822,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2148SP001LF</t>
+          <t>PRODUCTCODE: 24780P1</t>
         </is>
       </c>
       <c r="B889" t="inlineStr"/>
@@ -13837,7 +13837,7 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>Summarized description: Explore Barcelona any way you want on a 4-hour, customizable private tour. Choose a morning or afternoon tour, tell your guide your interests in advance. Entrance fees, food and drink are at your own expense.</t>
+          <t>Summarized description: Enjoy Barcelona in a private vehicle driven by professional drivers, uniformed and multilingual. The driver will pick you up at your centrally located hotel in Barcelona and will show you around some of the city's most famous landmarks.</t>
         </is>
       </c>
       <c r="B890" t="inlineStr"/>
@@ -13852,7 +13852,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>Title: Private Tour: Barcelona Half-Day Sightseeing Tour</t>
+          <t xml:space="preserve">Title: Barcelona Highlights Private Tour </t>
         </is>
       </c>
       <c r="B891" t="inlineStr"/>
@@ -13867,7 +13867,7 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>TotalReviews: 93</t>
+          <t>TotalReviews: 105</t>
         </is>
       </c>
       <c r="B892" t="inlineStr"/>
@@ -13897,7 +13897,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 299045P4</t>
+          <t>PRODUCTCODE: 24380P867</t>
         </is>
       </c>
       <c r="B894" t="inlineStr"/>
@@ -13912,7 +13912,7 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>Summarized description: We offer unique tailor-made private tours &amp; exclusives experiences in Barcelona and Catalonia with licensed local, Spanish, French and English-speaking tour guides. Proven experience in luxury tours guiding VIPs such as U2’s Bono, Sigourney Weaver, Beyoncé, among others.</t>
+          <t>Summarized description: Withlocals Skip the Line Private Tour is one of Withlocals' signature tours available in major cities worldwide. With a local guide by your side, you get the ins and outs, answers to your Sagrada Familia questions, and a different and personalized perspective of the attraction.</t>
         </is>
       </c>
       <c r="B895" t="inlineStr"/>
@@ -13927,7 +13927,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>Title: Private Tailored Barcelona Tour</t>
+          <t>Title: Sagrada Familia &amp; Surroundings Private Tour with Local Guide</t>
         </is>
       </c>
       <c r="B896" t="inlineStr"/>
@@ -13942,7 +13942,7 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>TotalReviews: 68</t>
+          <t>TotalReviews: 94</t>
         </is>
       </c>
       <c r="B897" t="inlineStr"/>
@@ -13957,7 +13957,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B898" t="inlineStr"/>
@@ -13972,7 +13972,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 141460P2</t>
+          <t>PRODUCTCODE: 2148SP001LF</t>
         </is>
       </c>
       <c r="B899" t="inlineStr"/>
@@ -13987,7 +13987,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Barcelona at the hands of a local friend at your own pace doing exactly what you want to do. We will communicate beforehand to discuss your needs and interests to create a customized itinerary.</t>
+          <t>Summarized description: Explore Barcelona any way you want on a 4-hour, customizable private tour. Choose a morning or afternoon tour, tell your guide your interests in advance. Entrance fees, food and drink are at your own expense.</t>
         </is>
       </c>
       <c r="B900" t="inlineStr"/>
@@ -14002,7 +14002,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Barcelona Highlights with a Local Friend </t>
+          <t>Title: Private Tour: Barcelona Half-Day Sightseeing Tour</t>
         </is>
       </c>
       <c r="B901" t="inlineStr"/>
@@ -14017,7 +14017,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>TotalReviews: 62</t>
+          <t>TotalReviews: 93</t>
         </is>
       </c>
       <c r="B902" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P352</t>
+          <t>PRODUCTCODE: 30791P623</t>
         </is>
       </c>
       <c r="B904" t="inlineStr"/>
@@ -14062,7 +14062,7 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>Summarized description: Withlocals Family Friendly City Tour™ is one of Withlocals' signature tours available in major cities worldwide. Visit main highlights like Plaça Reial, Palau Güell, and Cathedral of Barcelona, and discover hidden gems through a series of activities.</t>
+          <t>Summarized description: Your host will create a personalized itinerary to match your pace. Tick off those must-sees like the Jewish Quarter or uncover the wonders of the old Roman Temple. For a more local vibe, laze your afternoon away sipping sangria on the beach.</t>
         </is>
       </c>
       <c r="B905" t="inlineStr"/>
@@ -14077,7 +14077,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>Title: Family Friendly Barcelona Private City Tour</t>
+          <t xml:space="preserve">Title: Barcelona Highlights Private Tour with a Local 100% Personalized </t>
         </is>
       </c>
       <c r="B906" t="inlineStr"/>
@@ -14092,7 +14092,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>TotalReviews: 38</t>
+          <t>TotalReviews: 90</t>
         </is>
       </c>
       <c r="B907" t="inlineStr"/>
@@ -14107,7 +14107,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B908" t="inlineStr"/>
@@ -14122,7 +14122,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P355</t>
+          <t>PRODUCTCODE: 299045P4</t>
         </is>
       </c>
       <c r="B909" t="inlineStr"/>
@@ -14137,7 +14137,7 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the best spots around the city with your private local guide. Get tips to make the trip more fun for your kids, what to visit and where to eat. Along the way there will be a fun-filled game, and a prize to be won!</t>
+          <t>Summarized description: We offer unique tailor-made private tours &amp; exclusives experiences in Barcelona and Catalonia with licensed local, Spanish, French and English-speaking tour guides. Proven experience in luxury tours guiding VIPs such as U2’s Bono, Sigourney Weaver, Beyoncé, among others.</t>
         </is>
       </c>
       <c r="B910" t="inlineStr"/>
@@ -14152,7 +14152,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>Title: Barcelona's Must-Do Private Family Tour</t>
+          <t>Title: Private Tailored Barcelona Tour</t>
         </is>
       </c>
       <c r="B911" t="inlineStr"/>
@@ -14167,7 +14167,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>TotalReviews: 38</t>
+          <t>TotalReviews: 68</t>
         </is>
       </c>
       <c r="B912" t="inlineStr"/>
@@ -14182,7 +14182,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B913" t="inlineStr"/>
@@ -14197,7 +14197,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P1581</t>
+          <t>PRODUCTCODE: 141460P2</t>
         </is>
       </c>
       <c r="B914" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>Summarized description: This highlights tour of Barcelona is created for you and in your own way. Check the must-see places in city off your traveling bucket list with the help of your local host.</t>
+          <t>Summarized description: Discover Barcelona at the hands of a local friend at your own pace doing exactly what you want to do. We will communicate beforehand to discuss your needs and interests to create a customized itinerary.</t>
         </is>
       </c>
       <c r="B915" t="inlineStr"/>
@@ -14227,7 +14227,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>Title: Barcelona 100% Personalized 3-Hour Private City Tour</t>
+          <t xml:space="preserve">Title: Barcelona Highlights with a Local Friend </t>
         </is>
       </c>
       <c r="B916" t="inlineStr"/>
@@ -14242,7 +14242,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>TotalReviews: 32</t>
+          <t>TotalReviews: 62</t>
         </is>
       </c>
       <c r="B917" t="inlineStr"/>
@@ -14272,7 +14272,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 204981P1</t>
+          <t>PRODUCTCODE: 73429P1</t>
         </is>
       </c>
       <c r="B919" t="inlineStr"/>
@@ -14287,7 +14287,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Barcelona on a totally private tour with your local guide and private transportation. This tour includes air-conditioned transportation in private van with driver guide, pick-up from your hotel, cruise port or airport and the option to choose skip-the-line.</t>
+          <t>Summarized description: Learn about important Catalan legends. Enjoy a drink in a magical square where mostly locals go. See Barcelona through the eyes of a local. See the city with different eyes!</t>
         </is>
       </c>
       <c r="B920" t="inlineStr"/>
@@ -14302,7 +14302,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>Title: Barcelona Highlights Chauffeured Private Tour</t>
+          <t xml:space="preserve">Title: Explore hidden streets of Barcelona with a local </t>
         </is>
       </c>
       <c r="B921" t="inlineStr"/>
@@ -14317,7 +14317,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>TotalReviews: 30</t>
+          <t>TotalReviews: 57</t>
         </is>
       </c>
       <c r="B922" t="inlineStr"/>
@@ -14332,7 +14332,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B923" t="inlineStr"/>
@@ -14347,7 +14347,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P620</t>
+          <t>PRODUCTCODE: 24380P352</t>
         </is>
       </c>
       <c r="B924" t="inlineStr"/>
@@ -14362,7 +14362,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>Summarized description: Withlocals Culinary Kickstart Tour is one of Withlocals' signature tours available in major cities worldwide. Enjoy a variety of tastings such as vermut and patatas bravas.</t>
+          <t>Summarized description: Withlocals Family Friendly City Tour™ is one of Withlocals' signature tours available in major cities worldwide. Visit main highlights like Plaça Reial, Palau Güell, and Cathedral of Barcelona, and discover hidden gems through a series of activities.</t>
         </is>
       </c>
       <c r="B925" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>Title: Private Culinary Kickstart Tour: Barcelona</t>
+          <t>Title: Family Friendly Barcelona Private City Tour</t>
         </is>
       </c>
       <c r="B926" t="inlineStr"/>
@@ -14392,7 +14392,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>TotalReviews: 30</t>
+          <t>TotalReviews: 38</t>
         </is>
       </c>
       <c r="B927" t="inlineStr"/>
@@ -14407,7 +14407,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B928" t="inlineStr"/>
@@ -14422,7 +14422,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P818</t>
+          <t>PRODUCTCODE: 24380P355</t>
         </is>
       </c>
       <c r="B929" t="inlineStr"/>
@@ -14437,7 +14437,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>Summarized description: Withlocals Treasures of Barcelona Tour™ is one of Withlocals' signature tours available in major cities worldwide. Learn from its history to the present influence that still lingers in Barcelona as you visit the Picasso Museum.</t>
+          <t>Summarized description: Explore the best spots around the city with your private local guide. Get tips to make the trip more fun for your kids, what to visit and where to eat. Along the way there will be a fun-filled game, and a prize to be won!</t>
         </is>
       </c>
       <c r="B930" t="inlineStr"/>
@@ -14452,7 +14452,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>Title: Treasures of Barcelona: Picasso Private Tour</t>
+          <t>Title: Barcelona's Must-Do Private Family Tour</t>
         </is>
       </c>
       <c r="B931" t="inlineStr"/>
@@ -14467,7 +14467,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>TotalReviews: 28</t>
+          <t>TotalReviews: 38</t>
         </is>
       </c>
       <c r="B932" t="inlineStr"/>
@@ -14482,7 +14482,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B933" t="inlineStr"/>
@@ -14497,7 +14497,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P130</t>
+          <t>PRODUCTCODE: 24380P1581</t>
         </is>
       </c>
       <c r="B934" t="inlineStr"/>
@@ -14512,7 +14512,7 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Barcelona's most popular sites like a local with your own private guide. See the Cathedral of Barcelona, Plaça Reial, and the Palau de la Musica.</t>
+          <t>Summarized description: This highlights tour of Barcelona is created for you and in your own way. Check the must-see places in city off your traveling bucket list with the help of your local host.</t>
         </is>
       </c>
       <c r="B935" t="inlineStr"/>
@@ -14527,7 +14527,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>Title: Highlights and Hidden Gems Private Tour Barcelona</t>
+          <t>Title: Barcelona 100% Personalized 3-Hour Private City Tour</t>
         </is>
       </c>
       <c r="B936" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>TotalReviews: 27</t>
+          <t>TotalReviews: 32</t>
         </is>
       </c>
       <c r="B937" t="inlineStr"/>
@@ -14572,7 +14572,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P336</t>
+          <t>PRODUCTCODE: 204981P1</t>
         </is>
       </c>
       <c r="B939" t="inlineStr"/>
@@ -14587,7 +14587,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>Summarized description: Withlocals Evening City Tour™ is one of Withlocals' signature tours available in major cities worldwide. Discover where the locals go to unwind after work and let your local host point you out.</t>
+          <t>Summarized description: Discover Barcelona on a totally private tour with your local guide and private transportation. This tour includes air-conditioned transportation in private van with driver guide, pick-up from your hotel, cruise port or airport and the option to choose skip-the-line.</t>
         </is>
       </c>
       <c r="B940" t="inlineStr"/>
@@ -14602,7 +14602,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>Title: A Magical Evening in Barcelona: Private City Tour</t>
+          <t>Title: Barcelona Highlights Chauffeured Private Tour</t>
         </is>
       </c>
       <c r="B941" t="inlineStr"/>
@@ -14617,7 +14617,7 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>TotalReviews: 27</t>
+          <t>TotalReviews: 30</t>
         </is>
       </c>
       <c r="B942" t="inlineStr"/>
@@ -14647,7 +14647,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P354</t>
+          <t>PRODUCTCODE: 24380P130</t>
         </is>
       </c>
       <c r="B944" t="inlineStr"/>
@@ -14662,7 +14662,7 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>Summarized description: Get the most amazing food treats in the city and discover the local lifestyle. 1 private guide of your choice, 8 delicious tastings and unforgettable food memories.</t>
+          <t>Summarized description: Discover Barcelona's most popular sites like a local with your own private guide. See the Cathedral of Barcelona, Plaça Reial, and the Palau de la Musica.</t>
         </is>
       </c>
       <c r="B945" t="inlineStr"/>
@@ -14677,7 +14677,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>Title: Barcelona's best private family food tour</t>
+          <t>Title: Highlights and Hidden Gems Private Tour Barcelona</t>
         </is>
       </c>
       <c r="B946" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B948" t="inlineStr"/>
@@ -14722,7 +14722,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5574P6</t>
+          <t>PRODUCTCODE: 24380P336</t>
         </is>
       </c>
       <c r="B949" t="inlineStr"/>
@@ -14737,7 +14737,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>Summarized description:  Picasso had a passion for Barcelona, and this tour wants to show you. He had arrived in 1895, with 13 years, and it was here that he went out on his firsts binges with friends.</t>
+          <t>Summarized description: Withlocals Evening City Tour™ is one of Withlocals' signature tours available in major cities worldwide. Discover where the locals go to unwind after work and let your local host point you out.</t>
         </is>
       </c>
       <c r="B950" t="inlineStr"/>
@@ -14752,7 +14752,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>Title: Barcelona Picasso Private Experience with Expert Local Guide</t>
+          <t>Title: A Magical Evening in Barcelona: Private City Tour</t>
         </is>
       </c>
       <c r="B951" t="inlineStr"/>
@@ -14782,7 +14782,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B953" t="inlineStr"/>
@@ -14797,7 +14797,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 29916P1</t>
+          <t>PRODUCTCODE: 173069P1</t>
         </is>
       </c>
       <c r="B954" t="inlineStr"/>
@@ -14812,7 +14812,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>Summarized description: Get to know Barcelona in style on a personalized tour with a local guide. This tour is a fun way to discover and to experience a custom made visit to the city.</t>
+          <t>Summarized description: Exploring the old city center with its narrow alleys, impressive medieval buildings and lively squares. Find out what lies under our feet and what we regularly miss above our heads.</t>
         </is>
       </c>
       <c r="B955" t="inlineStr"/>
@@ -14827,7 +14827,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>Title: Barcelona Guided Tour in a Convertible</t>
+          <t>Title: Private Tours Barcelona</t>
         </is>
       </c>
       <c r="B956" t="inlineStr"/>
@@ -14842,7 +14842,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>TotalReviews: 25</t>
+          <t>TotalReviews: 26</t>
         </is>
       </c>
       <c r="B957" t="inlineStr"/>
@@ -14857,7 +14857,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B958" t="inlineStr"/>
@@ -15082,7 +15082,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B973" t="inlineStr"/>
@@ -15172,7 +15172,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 72366P1</t>
+          <t>PRODUCTCODE: 214073P1</t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15187,7 +15187,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>Summarized description: Our guides are here to share our knowledge and information of our beloved city via a bicycle tour of Barcelona. We hope you will join us on our tour of the Spanish capital.</t>
+          <t>Summarized description: Our bike tour is a great introduction to this fabulous city. Get into the back streets, find the hidden gems and see the romantic hideaways. With our guides, it's like having a friend show you around the city.</t>
         </is>
       </c>
       <c r="B980" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>Title: Guided Bike Tour of Barcelona</t>
+          <t>Title: Private Barcelona City Bike Tour</t>
         </is>
       </c>
       <c r="B981" t="inlineStr"/>
@@ -15217,7 +15217,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>TotalReviews: 18</t>
+          <t>TotalReviews: 16</t>
         </is>
       </c>
       <c r="B982" t="inlineStr"/>
@@ -15232,7 +15232,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B983" t="inlineStr"/>
@@ -15247,7 +15247,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 214073P1</t>
+          <t>PRODUCTCODE: 24380P362</t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15262,7 +15262,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>Summarized description: Our bike tour is a great introduction to this fabulous city. Get into the back streets, find the hidden gems and see the romantic hideaways. With our guides, it's like having a friend show you around the city.</t>
+          <t>Summarized description: Peddle off the beaten track and discover the hidden corners of this beautiful city. Admire vibrant graffitis, discover city's most street artist from your local guide.</t>
         </is>
       </c>
       <c r="B985" t="inlineStr"/>
@@ -15277,7 +15277,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Title: Private Barcelona City Bike Tour</t>
+          <t>Title: Barcelona Street Art Private Bike Tour Led by Local Designer</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -15292,7 +15292,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>TotalReviews: 16</t>
+          <t>TotalReviews: 15</t>
         </is>
       </c>
       <c r="B987" t="inlineStr"/>
@@ -15307,7 +15307,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B988" t="inlineStr"/>
@@ -15322,7 +15322,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 261413P1</t>
+          <t>PRODUCTCODE: 5689P16</t>
         </is>
       </c>
       <c r="B989" t="inlineStr"/>
@@ -15337,7 +15337,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>Summarized description: Sightrunning tour is a unique way for a runner to discover a city while getting a workout in. As we are running, we can go to any place in the city without any restrictions including to the hidden ones.</t>
+          <t>Summarized description: Private Barcelona city tour with personal pickup and drop-off from the hotel, cruise port, or the airport. Discover all the highlights of Barcelona with an option to skip-the-lines too!</t>
         </is>
       </c>
       <c r="B990" t="inlineStr"/>
@@ -15352,7 +15352,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Title: 2 Hours Running Tour in Barcelona with Local Guide</t>
+          <t>Title: Private Guided Barcelona Tour - Discover Barcelona Skip-the-Lines Group Option</t>
         </is>
       </c>
       <c r="B991" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>TotalReviews: 16</t>
+          <t>TotalReviews: 13</t>
         </is>
       </c>
       <c r="B992" t="inlineStr"/>
@@ -15382,7 +15382,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>Category: ['Health and Fitness Camps', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B993" t="inlineStr"/>
@@ -15397,7 +15397,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P362</t>
+          <t>PRODUCTCODE: 11201P1</t>
         </is>
       </c>
       <c r="B994" t="inlineStr"/>
@@ -15412,7 +15412,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>Summarized description: Peddle off the beaten track and discover the hidden corners of this beautiful city. Admire vibrant graffitis, discover city's most street artist from your local guide.</t>
+          <t>Summarized description: Experience Barcelona's top highlights during this private 3-hour tour. With an English-speaking driver/guide, relax in the comfort of an air-conditioned Mercedes. See a panoramic view of the city, Gaudí's Sagrada Família and Olympic Ring.</t>
         </is>
       </c>
       <c r="B995" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>Title: Barcelona Street Art Private Bike Tour Led by Local Designer</t>
+          <t>Title: Barcelona Highlights: Private Guided Tour</t>
         </is>
       </c>
       <c r="B996" t="inlineStr"/>
@@ -15442,7 +15442,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>TotalReviews: 15</t>
+          <t>TotalReviews: 12</t>
         </is>
       </c>
       <c r="B997" t="inlineStr"/>
@@ -15457,7 +15457,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B998" t="inlineStr"/>
@@ -15472,7 +15472,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 32771P1</t>
+          <t>PRODUCTCODE: 73429P14</t>
         </is>
       </c>
       <c r="B999" t="inlineStr"/>
@@ -15487,7 +15487,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>Summarized description: Live a great experience on this private tour around Brava Coast visiting the most beautiful spots. All at your own pace, as you will be able to customize your own route. This is a daily private tour which includes a private car.</t>
+          <t>Summarized description: Learn about important Catalan legends. Enjoy a drink in a magical square where mostly locals go. See Barcelona through the eyes of a local. See the city with different eyes!</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr"/>
@@ -15502,7 +15502,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Title: Private Guided Tour of Costa Brava from Barcelona</t>
+          <t>Title: Explore hidden streets of Barcelona with a local - Private Tour</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15517,7 +15517,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>TotalReviews: 15</t>
+          <t>TotalReviews: 11</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5689P16</t>
+          <t>PRODUCTCODE: 161628P1</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15562,7 +15562,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>Summarized description: Private Barcelona city tour with personal pickup and drop-off from the hotel, cruise port, or the airport. Discover all the highlights of Barcelona with an option to skip-the-lines too!</t>
+          <t>Summarized description: Ride with a local English Speaking Driver and explore the most iconic monuments of the city. Our drivers are not licensed to accompany you into the sights but are very knowledgeable of the places visited.</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Title: Private Guided Barcelona Tour - Discover Barcelona Skip-the-Lines Group Option</t>
+          <t>Title: Private 2-Hour Sightseeing Tour in Barcelona</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15592,7 +15592,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>TotalReviews: 13</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -15622,7 +15622,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 11201P1</t>
+          <t>PRODUCTCODE: 101019P1</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15637,7 +15637,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>Summarized description: Experience Barcelona's top highlights during this private 3-hour tour. With an English-speaking driver/guide, relax in the comfort of an air-conditioned Mercedes. See a panoramic view of the city, Gaudí's Sagrada Família and Olympic Ring.</t>
+          <t>Summarized description: The best way to get to know the city in a short time. Premium transportation and tickets are already included in the price of the tour, to make things easy for you.</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Title: Barcelona Highlights: Private Guided Tour</t>
+          <t xml:space="preserve">Title: Barcelona Highlights Private Tour in a chauffeured Mercedes-Benz </t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>TotalReviews: 12</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 73429P14</t>
+          <t>PRODUCTCODE: 437294P1</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15712,7 +15712,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about important Catalan legends. Enjoy a drink in a magical square where mostly locals go. See Barcelona through the eyes of a local. See the city with different eyes!</t>
+          <t>Summarized description: Tourists can explore the Gothic Quarter, the Cathedral, Sant Felip Neri, Born, Plaça Sant Jaume... Barcelona is home to a rich history that we want to share with you.</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Title: Explore hidden streets of Barcelona with a local - Private Tour</t>
+          <t>Title: Discover Barcelona with a Private Walking Tour with a Local Guide</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>TotalReviews: 11</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 161628P1</t>
+          <t>PRODUCTCODE: 5746DAYINBARCELONA</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15787,7 +15787,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>Summarized description: Ride with a local English Speaking Driver and explore the most iconic monuments of the city. Our drivers are not licensed to accompany you into the sights but are very knowledgeable of the places visited.</t>
+          <t>Summarized description: Make the most of your time in Barcelona with a local guide. Choose between a half- or full-day tour, then let your guide know your interests. With preplanned logistics and public transport included, this tour has everything you need.</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Title: Private 2-Hour Sightseeing Tour in Barcelona</t>
+          <t>Title: Barcelona in a Day Custom Private Tour</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 101019P1</t>
+          <t>PRODUCTCODE: 30791P442</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>Summarized description: The best way to get to know the city in a short time. Premium transportation and tickets are already included in the price of the tour, to make things easy for you.</t>
+          <t>Summarized description: Discover Barcelona as you would if you were staying with a friend who lived there. With a local Host thoughtfully matched to you, explore the best know attractions as well as a few secret local spots along the way.</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Barcelona Highlights Private Tour in a chauffeured Mercedes-Benz </t>
+          <t>Title: Barcelona Private Tours with Locals: 100% Personalized, See the City Unscripted</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 437294P1</t>
+          <t>PRODUCTCODE: 6874P181</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>Summarized description: Tourists can explore the Gothic Quarter, the Cathedral, Sant Felip Neri, Born, Plaça Sant Jaume... Barcelona is home to a rich history that we want to share with you.</t>
+          <t>Summarized description: Experience Barcelona in a way you've never before with your very own private guide. Wander through the Gothic Quarter, marvel at Gaudí’s masterpieces.</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Title: Discover Barcelona with a Private Walking Tour with a Local Guide</t>
+          <t>Title: Barcelona Private Tour with an Expert Guide</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 17377P43</t>
+          <t>PRODUCTCODE: 117626P3</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about our culture, our gastronomy, and flamenco on this private guided tour. Enjoy your walking tour through the Roman and medieval part of the city, the oldest neighborhoods. Then, round out your day with a flamenco show where you will experience one of Spain's extraordinary traditional dances.</t>
+          <t>Summarized description: Private driver will take and show you the best locations in Barcelona. Includes door-to-door hotel pickup and drop-off. We organize the perfect tour for you and we also adapt to your preferences.</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Title: Private Barcelona Walking Tour &amp; Flamenco Show + Tapas Dinner</t>
+          <t>Title: 8 hours Barcelona Highlights Private tour</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Category: ['Performing Arts', 'Cultural Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 14218P10</t>
+          <t>PRODUCTCODE: 101019P7</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16087,7 +16087,7 @@
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>Summarized description: 3-hour private walking tour. Enjoy some of the best tapas in different typical bars of the area. Talk about the history, culture and life style of the amazing city of Barcelona.</t>
+          <t>Summarized description: This is your tour, travel at your own pace, enjoy. Do you think the walking part of the tour is going to be too hard for you? Let us know in advance (no less than 48h) and we will offer you other options that will adapt better to your needs.</t>
         </is>
       </c>
       <c r="B1040" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Title: Tapas like a local Private Tour in Barcelona</t>
+          <t>Title: Barcelona Highlights Full Day Tour with a Licensed Tour Guide</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5746DAYINBARCELONA</t>
+          <t>PRODUCTCODE: 30791P174</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16162,7 +16162,7 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>Summarized description: Make the most of your time in Barcelona with a local guide. Choose between a half- or full-day tour, then let your guide know your interests. With preplanned logistics and public transport included, this tour has everything you need.</t>
+          <t>Summarized description: Your host will create a personalized itinerary to match your pace. Tick off those must-sees like the Jewish Quarter or uncover the wonders of the old Roman Temple. For a more local vibe, laze your afternoon away sipping sangria on the beach.</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Title: Barcelona in a Day Custom Private Tour</t>
+          <t xml:space="preserve">Title: Full Day In Barcelona With A Local: Private &amp; 100% Personalized </t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Cultural Tours']</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 30791P437</t>
+          <t>PRODUCTCODE: 271552P2</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16237,7 +16237,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>Summarized description:  Join a handpicked Host in Barcelona and let your taste buds guide you through its most historic neighborhoods. Immerse yourself in the food culture and traditions that epitomize this unique region.</t>
+          <t>Summarized description: Private guided walking tour with an expert, passionate and friendly guide. In the first part we will start with a trip to old Barcelona. Second part of the visit will focus on 19th century and early 20th century Barcelona.</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Barcelona Tapas Tour with a Local Foodie: 100% Personalized &amp; Private </t>
+          <t>Title: Barcelona Express - Private tour</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7842P54</t>
+          <t>PRODUCTCODE: 11498P137</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16312,7 +16312,7 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>Summarized description: Aperture Tours is a one-on-one tour of Barcelona, Spain. Follow along with a professional photographer as you learn about the city and its history.</t>
+          <t>Summarized description: 2-hour private historic tour will open all the remains of Jewish culture and history in two Jewish Quarters of Barcelona. Your expert guide will show you the Greater Synagogue of Barcelona and you will learn a lot about local history.</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Title: Barcelona Private Photo Tour</t>
+          <t>Title: Private Barcelona Jewish Quarter Tour with Local Expert Guide</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Category: ['']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 207389P1</t>
+          <t>PRODUCTCODE: 16168P28</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16387,7 +16387,7 @@
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>Summarized description: Our transfer and city tour service is designed to help you enjoy the city at your own pace and comfort. Enjoy aprivate service adapted to your needs.</t>
+          <t>Summarized description: 3-hour private tour is designed for real foodies and wine lovers. Tour will take you through 3 different neighborhoods including La Boqueria Market, Barcelona’s Old Town and we will stop at 4 different authentic tapas restaurants.</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Title: The private hop on/off Barcelona tour</t>
+          <t>Title: Barcelona Tapas and Wine Private Walking Tour</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Transportation &amp; Travel Services']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 73995P8</t>
+          <t>PRODUCTCODE: 63511P683</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16462,7 +16462,7 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Barcelona with a self-guided audio tour, from the moment you arrive in your destination. Find yourself immersed in the culture and history of the city, as you approach iconic landmarks.</t>
+          <t>Summarized description: We are the largest network of local vacation photographers in the world. Besides Barcelona, we operate in over 700 destinations worldwide. We always make sure that every special moment of each client is captured well.</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Barcelona: Self-Guided City Experience </t>
+          <t>Title: Private Photo Session with a Local Photographer in Barcelona</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['']</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 30791P442</t>
+          <t>PRODUCTCODE: 11498P143</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16537,7 +16537,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Barcelona as you would if you were staying with a friend who lived there. With a local Host thoughtfully matched to you, explore the best know attractions as well as a few secret local spots along the way.</t>
+          <t>Summarized description: Explore the history of the city and take in the legendary landmarks. Ride through medieval districts, Barceloneta beach, Passeig Gracia, famous Gaudi buildings and the Sagrada Familia.</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Title: Barcelona Private Tours with Locals: 100% Personalized, See the City Unscripted</t>
+          <t>Title: Private Barcelona Bike Tour, Gaudi's Art and Medieval Districts with Local Guide</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6874P181</t>
+          <t>PRODUCTCODE: 24380P646</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16612,7 +16612,7 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>Summarized description: Experience Barcelona in a way you've never before with your very own private guide. Wander through the Gothic Quarter, marvel at Gaudí’s masterpieces.</t>
+          <t>Summarized description: Treat your taste buds with the tastiest tapas and the best local drinks. Create unforgettable food memories and learn about the city's heavenly food scene. 6 delicious tastings included!</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Title: Barcelona Private Tour with an Expert Guide</t>
+          <t>Title: Barcelona Bites &amp; Flavors: Private Food Tour</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 117626P3</t>
+          <t>PRODUCTCODE: 419333P13</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>Summarized description: Private driver will take and show you the best locations in Barcelona. Includes door-to-door hotel pickup and drop-off. We organize the perfect tour for you and we also adapt to your preferences.</t>
+          <t>Summarized description: 4-hour 100% fully-customizable and private tour. Includes hotel pickup and drop-off from a professional English-speaking driver/local guide.</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Title: 8 hours Barcelona Highlights Private tour</t>
+          <t>Title: Private Barcelona Tour: Park Güell &amp; Sagrada Familia</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 101019P7</t>
+          <t>PRODUCTCODE: 73429P13</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16762,7 +16762,7 @@
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>Summarized description: This is your tour, travel at your own pace, enjoy. Do you think the walking part of the tour is going to be too hard for you? Let us know in advance (no less than 48h) and we will offer you other options that will adapt better to your needs.</t>
+          <t>Summarized description: Two-hour walk through the streets of Barcelona. Learn about the history of the city and the architects who designed it. See the city through the eyes of the people who built it.</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Title: Barcelona Highlights Full Day Tour with a Licensed Tour Guide</t>
+          <t>Title: Gaudí and Barcelona Legends - Private Tour</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 271552P2</t>
+          <t>PRODUCTCODE: 86919P8</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16837,7 +16837,7 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>Summarized description: Private guided walking tour with an expert, passionate and friendly guide. In the first part we will start with a trip to old Barcelona. Second part of the visit will focus on 19th century and early 20th century Barcelona.</t>
+          <t>Summarized description: Get to know the city through the eyes of a passionate local. With no set itinerary, you can customize the tour or leave it up to the local. Since Lokafyers are not professional guides, they provide an experience that’s authentic and personal.</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Title: Barcelona Express - Private tour</t>
+          <t>Title: Barcelona Like a Local: Customized Private Tour</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 11498P137</t>
+          <t>PRODUCTCODE: 172911P2</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16912,7 +16912,7 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>Summarized description: 2-hour private historic tour will open all the remains of Jewish culture and history in two Jewish Quarters of Barcelona. Your expert guide will show you the Greater Synagogue of Barcelona and you will learn a lot about local history.</t>
+          <t>Summarized description: At InSitu we believe that luxury is an attitude. That's why we design exclusive tours available to everyone. For us, each and every one of you is VIPs and, consequently, each one of the products we offer you is "premium"</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Title: Private Barcelona Jewish Quarter Tour with Local Expert Guide</t>
+          <t>Title: Private tour in Barcelona: The Gothic Quarter</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Shopping and Fashion', 'Entertainment']</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 11498P143</t>
+          <t>PRODUCTCODE: 9866P130</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -16987,7 +16987,7 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the history of the city and take in the legendary landmarks. Ride through medieval districts, Barceloneta beach, Passeig Gracia, famous Gaudi buildings and the Sagrada Familia.</t>
+          <t>Summarized description: Explore the most emblematic places of the city’s historic center and 19th-century expansion. A private tour only for you and your group with the guide ensures a personalized experience.</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Title: Private Barcelona Bike Tour, Gaudi's Art and Medieval Districts with Local Guide</t>
+          <t>Title: Private Barcelona Bike Highlights &amp; Sagrada Familia</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P646</t>
+          <t>PRODUCTCODE: 76654P176</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17062,7 +17062,7 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>Summarized description: Treat your taste buds with the tastiest tapas and the best local drinks. Create unforgettable food memories and learn about the city's heavenly food scene. 6 delicious tastings included!</t>
+          <t>Summarized description: Join a Local Expert for a two-hour exclusive journey through Barcelona. Discover historic landmarks, relive storied pasts, and dive into the city's rich culture.</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Title: Barcelona Bites &amp; Flavors: Private Food Tour</t>
+          <t>Title: Historic Barcelona: Exclusive Private Tour with a Local Expert</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 419333P13</t>
+          <t>PRODUCTCODE: 5689P20</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17137,7 +17137,7 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>Summarized description: 4-hour 100% fully-customizable and private tour. Includes hotel pickup and drop-off from a professional English-speaking driver/local guide.</t>
+          <t>Summarized description: Private Barcelona city tour with personal pickup and drop-off from the hotel, cruise port, or the airport. Discover all the highlights of Barcelona with an option to skip-the-lines too!</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Title: Private Barcelona Tour: Park Güell &amp; Sagrada Familia</t>
+          <t>Title: Private Guided Barcelona tour: customize the tour, skip-the-lines - Group</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 73429P13</t>
+          <t>PRODUCTCODE: 406056P6</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17212,7 +17212,7 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>Summarized description: Two-hour walk through the streets of Barcelona. Learn about the history of the city and the architects who designed it. See the city through the eyes of the people who built it.</t>
+          <t>Summarized description: 8-hour tour combines convenience of private chauffeured transportation and the expertise of a dedicated tour guide. Your adventure commences with a hotel pickup, ensuring a stress-free start to your immersive journey.</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Title: Gaudí and Barcelona Legends - Private Tour</t>
+          <t>Title: Full Day Private Tour with Hotel Pick Up in Barcelona</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 323397P2</t>
+          <t>PRODUCTCODE: 207305P220</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17287,7 +17287,7 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>Summarized description: During the tour we will: make 5 tastings of local food and drinks in not touristy bars; visit shops, concept stores, stores of local designers, vintage shops. See interesting and important spots in the city including the most famous attractions.</t>
+          <t>Summarized description: Barcelona has the reputation of being the most cosmopolitan, modern and avant-garde city in Spain. One of the great joys of a holiday abroad is sampling the local cuisine and the food in Barcelona is amongst the best in Europe.</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Title: 3 Hours Private Walking Foods and Goods Tour in Barcelona</t>
+          <t>Title: A day in the life of Barcelona - Private tour with a local</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Category: ['Shopping and Fashion', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 172911P2</t>
+          <t>PRODUCTCODE: 172911P5</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Title: Private tour in Barcelona: The Gothic Quarter</t>
+          <t>Title: Private tour in Barcelona: Montjuïc</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 76654P176</t>
+          <t>PRODUCTCODE: 8647P2</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17437,7 +17437,7 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>Summarized description: Join a Local Expert for a two-hour exclusive journey through Barcelona. Discover historic landmarks, relive storied pasts, and dive into the city's rich culture.</t>
+          <t>Summarized description: Get to know Barcelona by foot with a private guide in this 4-hour walking tour. Your official tour guide will pick you up in a central place of Barcelona, if your hotel is centrally located.</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Title: Historic Barcelona: Exclusive Private Tour with a Local Expert</t>
+          <t>Title: Private Half Day Walking Tour in Barcelona with walking pick up</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5689P20</t>
+          <t>PRODUCTCODE: 323397P3</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>Summarized description: Private Barcelona city tour with personal pickup and drop-off from the hotel, cruise port, or the airport. Discover all the highlights of Barcelona with an option to skip-the-lines too!</t>
+          <t>Summarized description: The One Day Tour is a one-day trip to Barcelona, Spain. The tour includes a guided tour of the city and a tour of some of its most famous attractions.</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Title: Private Guided Barcelona tour: customize the tour, skip-the-lines - Group</t>
+          <t>Title: 6-Hour Private Walking Tour in Barcelona</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8647P2</t>
+          <t>PRODUCTCODE: 30791P441</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17587,7 +17587,7 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>Summarized description: Get to know Barcelona by foot with a private guide in this 4-hour walking tour. Your official tour guide will pick you up in a central place of Barcelona, if your hotel is centrally located.</t>
+          <t>Summarized description: Your Host will offer practical advice on how to get around the city. They will also show you hidden gems you would otherwise miss. So choose the area you’d like to explore and get ready to kickstart your trip to Barcelona.</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Title: Private Half Day Walking Tour in Barcelona with walking pick up</t>
+          <t>Title: Private Tour Guide Barcelona with a Local: Kickstart your Trip, Personalized</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17647,7 +17647,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 30791P441</t>
+          <t>PRODUCTCODE: 76654P288</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr"/>
@@ -17662,7 +17662,7 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>Summarized description: Your Host will offer practical advice on how to get around the city. They will also show you hidden gems you would otherwise miss. So choose the area you’d like to explore and get ready to kickstart your trip to Barcelona.</t>
+          <t>Summarized description: Discover Barcelona’s iconic architecture with the guidance of a Local Expert. Uncover how Sagrada Família has shaped Barcelona's skyline. Get curated recommendations for further city discovery.</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Title: Private Tour Guide Barcelona with a Local: Kickstart your Trip, Personalized</t>
+          <t>Title: Architectural Barcelona: Private Tour with a Local Expert</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr"/>
@@ -17722,7 +17722,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 76654P288</t>
+          <t>PRODUCTCODE: 201078P6</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr"/>
@@ -17737,7 +17737,7 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Barcelona’s iconic architecture with the guidance of a Local Expert. Uncover how Sagrada Família has shaped Barcelona's skyline. Get curated recommendations for further city discovery.</t>
+          <t>Summarized description: The forbidden and mysterious Barcelona tour has been created so that you can learn about the history of the city of Barcelona through the darkest crimes and events that have taken place in its streets over the centuries. Throughout the tour, you will learn about some of the most macabre and dark stories of Barcelona.</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr"/>
@@ -17752,7 +17752,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Title: Architectural Barcelona: Private Tour with a Local Expert</t>
+          <t>Title: Private Tour of the Mysterious and Forbidden Barcelona</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr"/>
@@ -17782,7 +17782,7 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr"/>
@@ -18022,7 +18022,7 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 88037P90</t>
+          <t>PRODUCTCODE: 30791P440</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr"/>
@@ -18037,7 +18037,7 @@
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>Summarized description: Follow us on a 2 hour tous through the Barri Gótic, or Gothic Quarter. We will unveil the complex layers of this city’s complex past.</t>
+          <t>Summarized description: Exploring the city with a handpicked Host will not only take the pressure off you to lead the way, but will also show you the best family friendly spots in the city. Whether you decide to explore the main tourist sights, hidden gems or a specific neighbourhood, you're guaranteed to discover places, activities and food that your whole family will enjoy.</t>
         </is>
       </c>
       <c r="B1170" t="inlineStr"/>
@@ -18052,7 +18052,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>Title: Barcelona Private Walking Tour with a Professional Guide</t>
+          <t xml:space="preserve">Title: Barcelona Private Family Tours by Locals: 100% Personalized &amp; Private </t>
         </is>
       </c>
       <c r="B1171" t="inlineStr"/>
@@ -18082,7 +18082,7 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr"/>
@@ -18097,7 +18097,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 22869P75</t>
+          <t>PRODUCTCODE: 244199P1</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr"/>
@@ -18112,7 +18112,7 @@
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>Summarized description: 8-hour private excursion with personalized attention. Start at the La Sagrada Familia and walk the streets. Enjoy lunch (own expense) at your chosen location.</t>
+          <t>Summarized description: Treat your taste buds to the best tapas and the best local drinks. Make great culinary memories while learning about the city's food culture. There are 6 delectable tastes included!</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr"/>
@@ -18127,7 +18127,7 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>Title: Barcelona in One Day Private Tour</t>
+          <t>Title: Taste Bites &amp; Flavors of Barcelona With Private Guide Tour</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr"/>
@@ -18157,7 +18157,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6410P9</t>
+          <t>PRODUCTCODE: 76654P172</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr"/>
@@ -18187,7 +18187,7 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Barcelona through your camera's lens during this private 3-hour tour, led by a professional photographer. Depending on your skill level, you will learn everything from the basics, to how to find the image, composition, settings, and other useful photography tips.</t>
+          <t>Summarized description: Find out the different cultural and artistic characteristics that makes this city unique. This Experience is provided by a private local. Each LocalBini Experience is conducted in a small group of up to 6 people.</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr"/>
@@ -18202,7 +18202,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>Title: Private Photography Tour in Barcelona</t>
+          <t>Title: Explore Barcelona’s Art and Culture with a Local</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr"/>
@@ -18217,7 +18217,7 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr"/>
@@ -18232,7 +18232,7 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Workshops and Classes']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr"/>
@@ -18247,7 +18247,7 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 144457P24</t>
+          <t>PRODUCTCODE: 88037P90</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr"/>
@@ -18262,7 +18262,7 @@
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>Summarized description: Learn the history of the city and its museums or symbolic places in a confidential and personalised way with a private guide that speaks your language. Visit Barcelona with your family, friends or as a couple and come back with great memories.</t>
+          <t>Summarized description: Follow us on a 2 hour tous through the Barri Gótic, or Gothic Quarter. We will unveil the complex layers of this city’s complex past.</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr"/>
@@ -18277,7 +18277,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Title: Barcelona Gothic Quarter | Private tour (2H) | Private guide</t>
+          <t>Title: Barcelona Private Walking Tour with a Professional Guide</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr"/>
@@ -18292,7 +18292,7 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr"/>
@@ -18307,7 +18307,7 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr"/>
@@ -18322,7 +18322,7 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 22869P144</t>
+          <t>PRODUCTCODE: 293233P2</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>Summarized description: Get to know the city of Barcelona and get the best images for your Instagram profile. Discover the history of the city with a local guide while allowing yourself to be photographed by a professional photographer. Get your full potential, let yourself be advised and feel like a true Instagrammer.</t>
+          <t>Summarized description: Local certified guides, with 10+ years of experience. Get some wonderful knowledge of the city of Barcelona. This is a premium quality tour, by local certified guides.</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr"/>
@@ -18352,7 +18352,7 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>Title: Instagram Tour with Professional Photographer and Local Guide in Barcelona</t>
+          <t>Title: Half-Day Private Walking Tour in Barcelona</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr"/>
@@ -18367,7 +18367,7 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr"/>
@@ -18382,7 +18382,7 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr"/>
@@ -18397,7 +18397,7 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 101067P4</t>
+          <t>PRODUCTCODE: 144457P24</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr"/>
@@ -18412,7 +18412,7 @@
     <row r="1195">
       <c r="A1195" t="inlineStr">
         <is>
-          <t>Summarized description:  licensed tour guide who will put in perspective everything for you. Not only the historical and artistic facts but also the way of doing, costums, likes and dislikes, aspirations and issues.</t>
+          <t>Summarized description: Learn the history of the city and its museums or symbolic places in a confidential and personalised way with a private guide that speaks your language. Visit Barcelona with your family, friends or as a couple and come back with great memories.</t>
         </is>
       </c>
       <c r="B1195" t="inlineStr"/>
@@ -18427,7 +18427,7 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>Title: 3-Hour Barcelona Private Walking Tour around Gothic Quarter</t>
+          <t>Title: Barcelona Gothic Quarter | Private tour (2H) | Private guide</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr"/>
@@ -18457,7 +18457,7 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr"/>
@@ -18472,7 +18472,7 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 207305P226</t>
+          <t>PRODUCTCODE: 101067P4</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr"/>
@@ -18487,7 +18487,7 @@
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the ancient, medieval and modern neighborhoods, cafes, hidden alleys, coffee shop and markets for that picture perfect photo of Barcelona. It is one of the best experiences to immerse yourself into the Spanish culture.</t>
+          <t>Summarized description:  licensed tour guide who will put in perspective everything for you. Not only the historical and artistic facts but also the way of doing, costums, likes and dislikes, aspirations and issues.</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>Title: Private tour of Photography at best locations in Barcelona with a local</t>
+          <t>Title: 3-Hour Barcelona Private Walking Tour around Gothic Quarter</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr"/>
@@ -18532,7 +18532,7 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr"/>
@@ -18547,7 +18547,7 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3394P22</t>
+          <t>PRODUCTCODE: 207305P226</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr"/>
@@ -18562,7 +18562,7 @@
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>Summarized description: Explore authentic local cuisine with this tour created for foodies. With your expert food guide taste excellent tapas and gourmet sweets, followed by an unforgettable Michelin star cuisine meal.</t>
+          <t>Summarized description: Visit the ancient, medieval and modern neighborhoods, cafes, hidden alleys, coffee shop and markets for that picture perfect photo of Barcelona. It is one of the best experiences to immerse yourself into the Spanish culture.</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr"/>
@@ -18577,7 +18577,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>Title: Private Barcelona Food Lovers Walking Tour</t>
+          <t>Title: Private tour of Photography at best locations in Barcelona with a local</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr"/>
@@ -18607,7 +18607,7 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr"/>
@@ -18622,7 +18622,7 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 196771P18</t>
+          <t>PRODUCTCODE: 8647P6</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr"/>
@@ -18637,7 +18637,7 @@
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>Summarized description: Get to know the city bite by bite. 8 delicious food tastings included. Private tour: only you &amp; your host. Available languages: English, Español, Nederlands, Norsk.</t>
+          <t>Summarized description: Learn how to shop like a local as you are taken down the most famous streets in the city centre. Enjoy this private 4-hour shopping tour in the beautiful city of Barcelona.</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr"/>
@@ -18652,7 +18652,7 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>Title: Barcelona Essentials : Best Food Tour (With Private Guide)</t>
+          <t>Title: Private Shopping Tour in Barcelona</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr"/>
@@ -18682,7 +18682,7 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Shopping and Fashion']</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr"/>
@@ -18697,7 +18697,7 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 66178P11</t>
+          <t>PRODUCTCODE: 328911P1</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr"/>
@@ -18712,7 +18712,7 @@
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>Summarized description: You can change the itinerary and tailor-made the tour, with the interests you have. Your guide will change your itinerary for you if its necessary.</t>
+          <t>Summarized description: All our guides are local citizen with guiding experience for more than 10 years. We are very attentive to the clients wishes and make each tour unforgettable.</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr"/>
@@ -18727,7 +18727,7 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>Title: Private Tapas Tour with a local Guide- Discover the local "bodegas"</t>
+          <t>Title: Barcelona Historical Private Tour</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr"/>
@@ -18757,7 +18757,7 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr"/>
@@ -18772,7 +18772,7 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 144457P31</t>
+          <t>PRODUCTCODE: 11498P135</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr"/>
@@ -18787,7 +18787,7 @@
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>Summarized description: Learn the history of the city and its museums or symbolic places in a confidential and personalised way with a private guide that speaks your language. Visit Barcelona with your family, friends or as a couple and come back with great memories.</t>
+          <t>Summarized description: Walking through the historic quarters of Barcelona, you will experience the friendly atmosphere of the Catalan capital. Your private guide will talk about local traditions and customs and how the city developed.</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr"/>
@@ -18802,7 +18802,7 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>Title: Barcelona Gaudi Quarter | Private tour (2H) | Private guide</t>
+          <t>Title: Barcelona Must-See Private Tour with a Friendly Local Guide</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr"/>
@@ -18847,7 +18847,7 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 21175P31</t>
+          <t>PRODUCTCODE: 196771P15</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr"/>
@@ -18862,7 +18862,7 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>Summarized description: 3-hour private culinary tour of Barcelona. Three tapas bars in Gothic Quarter and El Born neighbourhoods. Try out traditional Catalonian recipes as well as favorites from other regions.</t>
+          <t>Summarized description: A short trip to ancient El Born area  with 4 tapas included. Personalized experience as you want. Private tour: only you &amp; your local host. 4 alcoholic drinks: beer, wine, cava.</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr"/>
@@ -18877,7 +18877,7 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>Title: Private Guided Tapas Tour of Barcelona</t>
+          <t>Title:  Roam in Barcelona at Night Like a Local - Private Tour</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr"/>
@@ -18907,7 +18907,7 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr"/>
@@ -18922,7 +18922,7 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 102055P6</t>
+          <t>PRODUCTCODE: 201078P22</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr"/>
@@ -18937,7 +18937,7 @@
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the origins of Barcelona on this guided walking tour. Your official guide will tell you anecdotes, legends and stories. Visit such emblematic places as Las Ramblas or the Plaza de Sant Jaume.</t>
+          <t>Summarized description: This itinerary of music in Barcelona is aimed at all those who want to know the history of Barcelona through music. You, together with our expert local guide, will accompany you so that you can discover the great theatres and the best cabarets.</t>
         </is>
       </c>
       <c r="B1230" t="inlineStr"/>
@@ -18952,7 +18952,7 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>Title: Barcelona Gothic Quarter: private walking tour</t>
+          <t>Title: 2-Hour Private Tour of Music in Barcelona</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr"/>
@@ -18982,7 +18982,7 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Performing Arts', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P1360</t>
+          <t>PRODUCTCODE: 3394P22</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr"/>
@@ -19012,7 +19012,7 @@
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy the most unique architectural masterpieces in Europe on a bike tour. A local can take you to the most popular Gaudi sights while telling you unique stories about the artist.</t>
+          <t>Summarized description: Explore authentic local cuisine with this tour created for foodies. With your expert food guide taste excellent tapas and gourmet sweets, followed by an unforgettable Michelin star cuisine meal.</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr"/>
@@ -19027,7 +19027,7 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>Title: 3 Hours Cycling Tour in Barcelona with Local Guide</t>
+          <t>Title: Private Barcelona Food Lovers Walking Tour</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr"/>
@@ -19057,7 +19057,7 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr"/>
@@ -19072,7 +19072,7 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 428421P5</t>
+          <t>PRODUCTCODE: 349654P1</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr"/>
@@ -19087,7 +19087,7 @@
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Barcelona your way with our 100% personalized city tour. Tailor your itinerary to your preferences, from iconic landmarks to hidden gems. Meet at the Wax Museum for an exclusive experience.</t>
+          <t>Summarized description: Native Driver offers 1 private tour for 3 people during 2 hours. Tours include La Sagrada Familia, La Pedrera and Casa Batlló, Las Ramblas.</t>
         </is>
       </c>
       <c r="B1240" t="inlineStr"/>
@@ -19102,7 +19102,7 @@
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>Title: Wonder Barcelona City Highlight Tour With Local Private Guide</t>
+          <t>Title: Private Tour around Barcelona</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr"/>
@@ -19132,7 +19132,7 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr"/>
@@ -19147,7 +19147,7 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 21175P29</t>
+          <t>PRODUCTCODE: 172911P4</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
     <row r="1245">
       <c r="A1245" t="inlineStr">
         <is>
-          <t>Summarized description: Travel to the Catalan capital’s top landmarks accompanied by an expert guide and a private driver with luxury vehicle. Immerse yourself in the world of Gaudi and his masterpieces La Sagrada Familia, Palau Guell, Pablo Picasso Museum and Casa Batlò.</t>
+          <t>Summarized description: At InSitu we believe that luxury is an attitude. That's why we design exclusive tours available to everyone. For us, each and every one of you is VIPs and, consequently, each one of the products we offer you is "premium"</t>
         </is>
       </c>
       <c r="B1245" t="inlineStr"/>
@@ -19177,7 +19177,7 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>Title: Barcelona in a Day Private Guided Tour</t>
+          <t>Title: Private tour in Barcelona: La Rambla.</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr"/>
@@ -19207,7 +19207,7 @@
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Shopping and Fashion', 'Entertainment']</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr"/>
@@ -19222,7 +19222,7 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 22869P73</t>
+          <t>PRODUCTCODE: 11498P138</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr"/>
@@ -19237,7 +19237,7 @@
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>Summarized description: Take a tour through the best of Gaudi’s works, and get ready to know the most popular buildings of Barcelona. Enjoy this exclusive tour on personalized attention.</t>
+          <t>Summarized description: The splendor of Barcelona lies not only in its architectural monuments, narrow streets and old quarters. Enjoy the best of Barcelona by night with an expert local guide. This night tour will immerse you to Barcelona nightlife.</t>
         </is>
       </c>
       <c r="B1250" t="inlineStr"/>
@@ -19252,7 +19252,7 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>Title: Gaudi Masterpieces Private Tour in Barcelona</t>
+          <t xml:space="preserve">Title: Barcelona Night Tour Including Bar Hopping and Drinks with Private Local Guide </t>
         </is>
       </c>
       <c r="B1251" t="inlineStr"/>
@@ -19282,7 +19282,7 @@
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours']</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr"/>
@@ -19297,7 +19297,7 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 175789P2</t>
+          <t>PRODUCTCODE: 239937P91</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr"/>
@@ -19312,7 +19312,7 @@
     <row r="1255">
       <c r="A1255" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the best landmarks and historical sights of Barcelona on a personalized tour with your local driver. Your English-speaking driver will share with you his local knowledge as well as personal recommendations in each area.</t>
+          <t>Summarized description: Let us explore the best spots around the city along with the tips from the locals. During this short trip, we will be able to know about the local insights and will enjoy the city like a local.</t>
         </is>
       </c>
       <c r="B1255" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Barcelona Highlights : Nightlife Private Tour (Pickup &amp; Drop off) </t>
+          <t>Title: Barcelona's Must-Do Family Day Tour - A City Highlight Private Tour</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr"/>
@@ -19357,7 +19357,7 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr"/>
@@ -19372,7 +19372,7 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 207305P217</t>
+          <t>PRODUCTCODE: 66178P11</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr"/>
@@ -19387,7 +19387,7 @@
     <row r="1260">
       <c r="A1260" t="inlineStr">
         <is>
-          <t>Summarized description: Barcelona is home to a bounty of local, must-eat foods. One of the great joys of a holiday abroad is sampling the local cuisine. The food in Barcelona is amongst the best in Europe.</t>
+          <t>Summarized description: You can change the itinerary and tailor-made the tour, with the interests you have. Your guide will change your itinerary for you if its necessary.</t>
         </is>
       </c>
       <c r="B1260" t="inlineStr"/>
@@ -19402,7 +19402,7 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>Title: Private Tour in Barcelona of the local food culture with a local</t>
+          <t>Title: Private Tapas Tour with a local Guide- Discover the local "bodegas"</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr"/>
@@ -19432,7 +19432,7 @@
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr"/>
@@ -19447,7 +19447,7 @@
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 144457P23</t>
+          <t>PRODUCTCODE: 239937P74</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr"/>
@@ -19462,7 +19462,7 @@
     <row r="1265">
       <c r="A1265" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy an exclusive experience and offer you the luxury to be guided by a private guide across Barcelona. Our team will take care of all the organisation and will make you pass the best visit you've ever done.</t>
+          <t>Summarized description: Private tour only you and your guide. You can get a full personalized experience, just say it, and we will make it up to you. Discover Barcelona's old history and the history of the El Raval district.</t>
         </is>
       </c>
       <c r="B1265" t="inlineStr"/>
@@ -19477,7 +19477,7 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>Title: Tapas Tours Barcelona | Private tour (2h) | Private guide</t>
+          <t>Title: Explore " Me Gusta " Barcelona - an Urban Kickstart Private Tour</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr"/>
@@ -19507,7 +19507,7 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr"/>
@@ -19522,7 +19522,7 @@
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 332541P578</t>
+          <t>PRODUCTCODE: 144457P31</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr"/>
@@ -19537,7 +19537,7 @@
     <row r="1270">
       <c r="A1270" t="inlineStr">
         <is>
-          <t>Summarized description: Taste 4-5 original Catalan and Spanish wines with an Expert Guide. Enjoy tapas and other appetizers with your wine and see the Old Town of Barcelona.</t>
+          <t>Summarized description: Learn the history of the city and its museums or symbolic places in a confidential and personalised way with a private guide that speaks your language. Visit Barcelona with your family, friends or as a couple and come back with great memories.</t>
         </is>
       </c>
       <c r="B1270" t="inlineStr"/>
@@ -19552,7 +19552,7 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>Title: Barcelona Wine Tasting Private Tour with Wine Expert</t>
+          <t>Title: Barcelona Gaudi Quarter | Private tour (2H) | Private guide</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr"/>
@@ -19582,7 +19582,7 @@
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr"/>
@@ -19597,7 +19597,7 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 26613P2</t>
+          <t>PRODUCTCODE: 102055P6</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr"/>
@@ -19612,7 +19612,7 @@
     <row r="1275">
       <c r="A1275" t="inlineStr">
         <is>
-          <t>Summarized description: Explore popular neighborhoods such as El Born and the Barceloneta area with a knowledgable local guide. Stop at 4 outstanding local tapas bars and learn the etiquette and art of ordering tapas.</t>
+          <t>Summarized description: Discover the origins of Barcelona on this guided walking tour. Your official guide will tell you anecdotes, legends and stories. Visit such emblematic places as Las Ramblas or the Plaza de Sant Jaume.</t>
         </is>
       </c>
       <c r="B1275" t="inlineStr"/>
@@ -19627,7 +19627,7 @@
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>Title: Private Barcelona Neighborhoods and Tapas Walking Tour</t>
+          <t>Title: Barcelona Gothic Quarter: private walking tour</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr"/>
@@ -19672,7 +19672,7 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248235P5</t>
+          <t>PRODUCTCODE: 428421P5</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr"/>
@@ -19687,7 +19687,7 @@
     <row r="1280">
       <c r="A1280" t="inlineStr">
         <is>
-          <t>Summarized description: These are private walking tours which are customized to your preferences and last between 2 and 6 hours at your request. Children below 3 years old are free of charge. Children from 3 to 15 get 60% off the regular tour price.</t>
+          <t>Summarized description: Discover Barcelona your way with our 100% personalized city tour. Tailor your itinerary to your preferences, from iconic landmarks to hidden gems. Meet at the Wax Museum for an exclusive experience.</t>
         </is>
       </c>
       <c r="B1280" t="inlineStr"/>
@@ -19702,7 +19702,7 @@
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>Title: Discover Barcelona with a Private Walking Tour by a Local</t>
+          <t>Title: Wonder Barcelona City Highlight Tour With Local Private Guide</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr"/>
@@ -19732,7 +19732,7 @@
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>Category: ['']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr"/>
@@ -19747,7 +19747,7 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 11498P126</t>
+          <t>PRODUCTCODE: 239937P75</t>
         </is>
       </c>
       <c r="B1284" t="inlineStr"/>
@@ -19762,7 +19762,7 @@
     <row r="1285">
       <c r="A1285" t="inlineStr">
         <is>
-          <t>Summarized description: Walk the streets of one of the world’s best cities for strolling and discovering its astonishing art (from outside) Enjoy the best street-level exploration of Barcelona on this private 3-hours walking journey.</t>
+          <t>Summarized description: Privately guided by a local expert. Roam around each corner of the city with your guide. Enrich your knowledge and idea of Barcelona with a local.</t>
         </is>
       </c>
       <c r="B1285" t="inlineStr"/>
@@ -19777,7 +19777,7 @@
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t>Title: The City of Gaudi - Private Barcelona Walking Tour with Local Expert Guide</t>
+          <t>Title: Barcelona - Lets Explore the Hidden Gems with a Local (Private Tour)</t>
         </is>
       </c>
       <c r="B1286" t="inlineStr"/>
@@ -19807,7 +19807,7 @@
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1288" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 11498P136</t>
+          <t>PRODUCTCODE: 21175P29</t>
         </is>
       </c>
       <c r="B1289" t="inlineStr"/>
@@ -19837,7 +19837,7 @@
     <row r="1290">
       <c r="A1290" t="inlineStr">
         <is>
-          <t>Summarized description: This is the most popular tour in Barcelona. Your private guide will show you the famous stadium, but you will explore it from inside as well. Walk through the interactive museum and learn all about the team thanks to touch screens.</t>
+          <t>Summarized description: Travel to the Catalan capital’s top landmarks accompanied by an expert guide and a private driver with luxury vehicle. Immerse yourself in the world of Gaudi and his masterpieces La Sagrada Familia, Palau Guell, Pablo Picasso Museum and Casa Batlò.</t>
         </is>
       </c>
       <c r="B1290" t="inlineStr"/>
@@ -19852,7 +19852,7 @@
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>Title: Private Football Club Barcelona Tour with Friendly Local Guide</t>
+          <t>Title: Barcelona in a Day Private Guided Tour</t>
         </is>
       </c>
       <c r="B1291" t="inlineStr"/>
@@ -19882,7 +19882,7 @@
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Museums']</t>
+          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1293" t="inlineStr"/>
@@ -19897,7 +19897,7 @@
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8647P8</t>
+          <t>PRODUCTCODE: 239937P83</t>
         </is>
       </c>
       <c r="B1294" t="inlineStr"/>
@@ -19912,7 +19912,7 @@
     <row r="1295">
       <c r="A1295" t="inlineStr">
         <is>
-          <t>Summarized description: 8-hour walking tour with private guide. Transportation is not included, so it would be on your own cost. Get tips from your local guide to see what other areas and places you can visit.</t>
+          <t>Summarized description: Discover the hidden gems of Barcelona where the locals can go only. See the Casa de La Ciutat, and Palau de la Generalitat. Roam around the Placa Reial. Discover the Palau Guell.</t>
         </is>
       </c>
       <c r="B1295" t="inlineStr"/>
@@ -19927,7 +19927,7 @@
     <row r="1296">
       <c r="A1296" t="inlineStr">
         <is>
-          <t>Title: Private Full Day Walking City Tour in Barcelona</t>
+          <t>Title: Barcelona Private Tour - Lets Discover all the Hidden Gems with a Local</t>
         </is>
       </c>
       <c r="B1296" t="inlineStr"/>
@@ -19957,7 +19957,7 @@
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1298" t="inlineStr"/>
@@ -19972,7 +19972,7 @@
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8647P84</t>
+          <t>PRODUCTCODE: 207305P217</t>
         </is>
       </c>
       <c r="B1299" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
     <row r="1300">
       <c r="A1300" t="inlineStr">
         <is>
-          <t>Summarized description: Your driver will pick you up from your hotel or place of choice and you will enjoy a 4 hour private tour of Barcelona. You will have your private luxury vehicle and your driver which will also be your guide.</t>
+          <t>Summarized description: Barcelona is home to a bounty of local, must-eat foods. One of the great joys of a holiday abroad is sampling the local cuisine. The food in Barcelona is amongst the best in Europe.</t>
         </is>
       </c>
       <c r="B1300" t="inlineStr"/>
@@ -20002,7 +20002,7 @@
     <row r="1301">
       <c r="A1301" t="inlineStr">
         <is>
-          <t>Title: Private Tour of Barcelona with Driver Guide</t>
+          <t>Title: Private Tour in Barcelona of the local food culture with a local</t>
         </is>
       </c>
       <c r="B1301" t="inlineStr"/>
@@ -20032,7 +20032,7 @@
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1303" t="inlineStr"/>
@@ -20047,7 +20047,7 @@
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 207305P225</t>
+          <t>PRODUCTCODE: 144457P23</t>
         </is>
       </c>
       <c r="B1304" t="inlineStr"/>
@@ -20062,7 +20062,7 @@
     <row r="1305">
       <c r="A1305" t="inlineStr">
         <is>
-          <t>Summarized description: Make the most of your time in Barcelona and experience the best of everything in Barcelona on this layover special private tour with a local. Use public transport throughout this tour to enhance your local experience even more.</t>
+          <t>Summarized description: Enjoy an exclusive experience and offer you the luxury to be guided by a private guide across Barcelona. Our team will take care of all the organisation and will make you pass the best visit you've ever done.</t>
         </is>
       </c>
       <c r="B1305" t="inlineStr"/>
@@ -20077,7 +20077,7 @@
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>Title: Layover in Barcelona a Private Tour with a local: Best Highlights of Barcelona</t>
+          <t>Title: Tapas Tours Barcelona | Private tour (2h) | Private guide</t>
         </is>
       </c>
       <c r="B1306" t="inlineStr"/>
@@ -20107,7 +20107,7 @@
     <row r="1308">
       <c r="A1308" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['Cultural Tours']</t>
         </is>
       </c>
       <c r="B1308" t="inlineStr"/>
@@ -20122,7 +20122,7 @@
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 207305P228</t>
+          <t>PRODUCTCODE: 428421P2</t>
         </is>
       </c>
       <c r="B1309" t="inlineStr"/>
@@ -20137,7 +20137,7 @@
     <row r="1310">
       <c r="A1310" t="inlineStr">
         <is>
-          <t>Summarized description: Spain is one of the best experiences to immerse yourself into the rich Spanish culture. Our fun and entertaining guide will make this a memorable experience for you.</t>
+          <t>Summarized description: Immerse yourself in the vibrant Catalan flavors as our local hosts guide you through 10 handpicked tastings. Explore city highlights like Hospital de Santa Creu and Comte Borrell St between bites.</t>
         </is>
       </c>
       <c r="B1310" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
     <row r="1311">
       <c r="A1311" t="inlineStr">
         <is>
-          <t>Title: Private tour of Offbeat Barcelona with a local</t>
+          <t>Title: Barcelona 10 Food Tastings Tour with Local Private Guide</t>
         </is>
       </c>
       <c r="B1311" t="inlineStr"/>
@@ -20182,7 +20182,7 @@
     <row r="1313">
       <c r="A1313" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['Culinary Tours']</t>
         </is>
       </c>
       <c r="B1313" t="inlineStr"/>
@@ -20197,7 +20197,7 @@
     <row r="1314">
       <c r="A1314" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>PRODUCTCODE: 196771P79</t>
         </is>
       </c>
       <c r="B1314" t="inlineStr"/>
@@ -20209,6 +20209,981 @@
       <c r="H1314" t="inlineStr"/>
       <c r="I1314" t="inlineStr"/>
     </row>
+    <row r="1315">
+      <c r="A1315" t="inlineStr">
+        <is>
+          <t>Summarized description: Visit the oldest Christmas market in the city, the Fira de Santa Llúcia. See the annual Nativity scene, a well-loved local tradition. Take part in a tour of the city.</t>
+        </is>
+      </c>
+      <c r="B1315" t="inlineStr"/>
+      <c r="C1315" t="inlineStr"/>
+      <c r="D1315" t="inlineStr"/>
+      <c r="E1315" t="inlineStr"/>
+      <c r="F1315" t="inlineStr"/>
+      <c r="G1315" t="inlineStr"/>
+      <c r="H1315" t="inlineStr"/>
+      <c r="I1315" t="inlineStr"/>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Title: Barcelona Christmas Private Tour with a Local </t>
+        </is>
+      </c>
+      <c r="B1316" t="inlineStr"/>
+      <c r="C1316" t="inlineStr"/>
+      <c r="D1316" t="inlineStr"/>
+      <c r="E1316" t="inlineStr"/>
+      <c r="F1316" t="inlineStr"/>
+      <c r="G1316" t="inlineStr"/>
+      <c r="H1316" t="inlineStr"/>
+      <c r="I1316" t="inlineStr"/>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1317" t="inlineStr"/>
+      <c r="C1317" t="inlineStr"/>
+      <c r="D1317" t="inlineStr"/>
+      <c r="E1317" t="inlineStr"/>
+      <c r="F1317" t="inlineStr"/>
+      <c r="G1317" t="inlineStr"/>
+      <c r="H1317" t="inlineStr"/>
+      <c r="I1317" t="inlineStr"/>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Cultural Festivals']</t>
+        </is>
+      </c>
+      <c r="B1318" t="inlineStr"/>
+      <c r="C1318" t="inlineStr"/>
+      <c r="D1318" t="inlineStr"/>
+      <c r="E1318" t="inlineStr"/>
+      <c r="F1318" t="inlineStr"/>
+      <c r="G1318" t="inlineStr"/>
+      <c r="H1318" t="inlineStr"/>
+      <c r="I1318" t="inlineStr"/>
+    </row>
+    <row r="1319">
+      <c r="A1319" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 207305P227</t>
+        </is>
+      </c>
+      <c r="B1319" t="inlineStr"/>
+      <c r="C1319" t="inlineStr"/>
+      <c r="D1319" t="inlineStr"/>
+      <c r="E1319" t="inlineStr"/>
+      <c r="F1319" t="inlineStr"/>
+      <c r="G1319" t="inlineStr"/>
+      <c r="H1319" t="inlineStr"/>
+      <c r="I1319" t="inlineStr"/>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="inlineStr">
+        <is>
+          <t>Summarized description: Barcelona has always been one of the great art cities of Europe. Famous painters, sculptors and architects worked and lived here. Our fun and entertaining guide will make this a memorable experience for you.</t>
+        </is>
+      </c>
+      <c r="B1320" t="inlineStr"/>
+      <c r="C1320" t="inlineStr"/>
+      <c r="D1320" t="inlineStr"/>
+      <c r="E1320" t="inlineStr"/>
+      <c r="F1320" t="inlineStr"/>
+      <c r="G1320" t="inlineStr"/>
+      <c r="H1320" t="inlineStr"/>
+      <c r="I1320" t="inlineStr"/>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="inlineStr">
+        <is>
+          <t>Title: Private tour of Artistic Barcelona with a local</t>
+        </is>
+      </c>
+      <c r="B1321" t="inlineStr"/>
+      <c r="C1321" t="inlineStr"/>
+      <c r="D1321" t="inlineStr"/>
+      <c r="E1321" t="inlineStr"/>
+      <c r="F1321" t="inlineStr"/>
+      <c r="G1321" t="inlineStr"/>
+      <c r="H1321" t="inlineStr"/>
+      <c r="I1321" t="inlineStr"/>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1322" t="inlineStr"/>
+      <c r="C1322" t="inlineStr"/>
+      <c r="D1322" t="inlineStr"/>
+      <c r="E1322" t="inlineStr"/>
+      <c r="F1322" t="inlineStr"/>
+      <c r="G1322" t="inlineStr"/>
+      <c r="H1322" t="inlineStr"/>
+      <c r="I1322" t="inlineStr"/>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Museums', 'Cultural Tours']</t>
+        </is>
+      </c>
+      <c r="B1323" t="inlineStr"/>
+      <c r="C1323" t="inlineStr"/>
+      <c r="D1323" t="inlineStr"/>
+      <c r="E1323" t="inlineStr"/>
+      <c r="F1323" t="inlineStr"/>
+      <c r="G1323" t="inlineStr"/>
+      <c r="H1323" t="inlineStr"/>
+      <c r="I1323" t="inlineStr"/>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 126593P3</t>
+        </is>
+      </c>
+      <c r="B1324" t="inlineStr"/>
+      <c r="C1324" t="inlineStr"/>
+      <c r="D1324" t="inlineStr"/>
+      <c r="E1324" t="inlineStr"/>
+      <c r="F1324" t="inlineStr"/>
+      <c r="G1324" t="inlineStr"/>
+      <c r="H1324" t="inlineStr"/>
+      <c r="I1324" t="inlineStr"/>
+    </row>
+    <row r="1325">
+      <c r="A1325" t="inlineStr">
+        <is>
+          <t>Summarized description: As a taylored tour, we'll design the tour together to include the sites you prefer. Indulge yourself in a private car or using public transport.</t>
+        </is>
+      </c>
+      <c r="B1325" t="inlineStr"/>
+      <c r="C1325" t="inlineStr"/>
+      <c r="D1325" t="inlineStr"/>
+      <c r="E1325" t="inlineStr"/>
+      <c r="F1325" t="inlineStr"/>
+      <c r="G1325" t="inlineStr"/>
+      <c r="H1325" t="inlineStr"/>
+      <c r="I1325" t="inlineStr"/>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="inlineStr">
+        <is>
+          <t>Title: Private bespoken tailored Tour in Barcelona (chauffered or walking)</t>
+        </is>
+      </c>
+      <c r="B1326" t="inlineStr"/>
+      <c r="C1326" t="inlineStr"/>
+      <c r="D1326" t="inlineStr"/>
+      <c r="E1326" t="inlineStr"/>
+      <c r="F1326" t="inlineStr"/>
+      <c r="G1326" t="inlineStr"/>
+      <c r="H1326" t="inlineStr"/>
+      <c r="I1326" t="inlineStr"/>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1327" t="inlineStr"/>
+      <c r="C1327" t="inlineStr"/>
+      <c r="D1327" t="inlineStr"/>
+      <c r="E1327" t="inlineStr"/>
+      <c r="F1327" t="inlineStr"/>
+      <c r="G1327" t="inlineStr"/>
+      <c r="H1327" t="inlineStr"/>
+      <c r="I1327" t="inlineStr"/>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1328" t="inlineStr"/>
+      <c r="C1328" t="inlineStr"/>
+      <c r="D1328" t="inlineStr"/>
+      <c r="E1328" t="inlineStr"/>
+      <c r="F1328" t="inlineStr"/>
+      <c r="G1328" t="inlineStr"/>
+      <c r="H1328" t="inlineStr"/>
+      <c r="I1328" t="inlineStr"/>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 11498P350</t>
+        </is>
+      </c>
+      <c r="B1329" t="inlineStr"/>
+      <c r="C1329" t="inlineStr"/>
+      <c r="D1329" t="inlineStr"/>
+      <c r="E1329" t="inlineStr"/>
+      <c r="F1329" t="inlineStr"/>
+      <c r="G1329" t="inlineStr"/>
+      <c r="H1329" t="inlineStr"/>
+      <c r="I1329" t="inlineStr"/>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="inlineStr">
+        <is>
+          <t>Summarized description: The splendor of Barcelona lies not only in its architectural monuments, narrow streets and old quarters. Enjoy the best of Barcelona by night with an expert local guide. This night tour will immerse you to Barcelona nightlife.</t>
+        </is>
+      </c>
+      <c r="B1330" t="inlineStr"/>
+      <c r="C1330" t="inlineStr"/>
+      <c r="D1330" t="inlineStr"/>
+      <c r="E1330" t="inlineStr"/>
+      <c r="F1330" t="inlineStr"/>
+      <c r="G1330" t="inlineStr"/>
+      <c r="H1330" t="inlineStr"/>
+      <c r="I1330" t="inlineStr"/>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="inlineStr">
+        <is>
+          <t>Title: Barcelona Night Tour Including Drink with Private Local Guide</t>
+        </is>
+      </c>
+      <c r="B1331" t="inlineStr"/>
+      <c r="C1331" t="inlineStr"/>
+      <c r="D1331" t="inlineStr"/>
+      <c r="E1331" t="inlineStr"/>
+      <c r="F1331" t="inlineStr"/>
+      <c r="G1331" t="inlineStr"/>
+      <c r="H1331" t="inlineStr"/>
+      <c r="I1331" t="inlineStr"/>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1332" t="inlineStr"/>
+      <c r="C1332" t="inlineStr"/>
+      <c r="D1332" t="inlineStr"/>
+      <c r="E1332" t="inlineStr"/>
+      <c r="F1332" t="inlineStr"/>
+      <c r="G1332" t="inlineStr"/>
+      <c r="H1332" t="inlineStr"/>
+      <c r="I1332" t="inlineStr"/>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Scenic Tours']</t>
+        </is>
+      </c>
+      <c r="B1333" t="inlineStr"/>
+      <c r="C1333" t="inlineStr"/>
+      <c r="D1333" t="inlineStr"/>
+      <c r="E1333" t="inlineStr"/>
+      <c r="F1333" t="inlineStr"/>
+      <c r="G1333" t="inlineStr"/>
+      <c r="H1333" t="inlineStr"/>
+      <c r="I1333" t="inlineStr"/>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 248235P5</t>
+        </is>
+      </c>
+      <c r="B1334" t="inlineStr"/>
+      <c r="C1334" t="inlineStr"/>
+      <c r="D1334" t="inlineStr"/>
+      <c r="E1334" t="inlineStr"/>
+      <c r="F1334" t="inlineStr"/>
+      <c r="G1334" t="inlineStr"/>
+      <c r="H1334" t="inlineStr"/>
+      <c r="I1334" t="inlineStr"/>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="inlineStr">
+        <is>
+          <t>Summarized description: These are private walking tours which are customized to your preferences and last between 2 and 6 hours at your request. Children below 3 years old are free of charge. Children from 3 to 15 get 60% off the regular tour price.</t>
+        </is>
+      </c>
+      <c r="B1335" t="inlineStr"/>
+      <c r="C1335" t="inlineStr"/>
+      <c r="D1335" t="inlineStr"/>
+      <c r="E1335" t="inlineStr"/>
+      <c r="F1335" t="inlineStr"/>
+      <c r="G1335" t="inlineStr"/>
+      <c r="H1335" t="inlineStr"/>
+      <c r="I1335" t="inlineStr"/>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="inlineStr">
+        <is>
+          <t>Title: Discover Barcelona with a Private Walking Tour by a Local</t>
+        </is>
+      </c>
+      <c r="B1336" t="inlineStr"/>
+      <c r="C1336" t="inlineStr"/>
+      <c r="D1336" t="inlineStr"/>
+      <c r="E1336" t="inlineStr"/>
+      <c r="F1336" t="inlineStr"/>
+      <c r="G1336" t="inlineStr"/>
+      <c r="H1336" t="inlineStr"/>
+      <c r="I1336" t="inlineStr"/>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1337" t="inlineStr"/>
+      <c r="C1337" t="inlineStr"/>
+      <c r="D1337" t="inlineStr"/>
+      <c r="E1337" t="inlineStr"/>
+      <c r="F1337" t="inlineStr"/>
+      <c r="G1337" t="inlineStr"/>
+      <c r="H1337" t="inlineStr"/>
+      <c r="I1337" t="inlineStr"/>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="inlineStr">
+        <is>
+          <t>Category: ['']</t>
+        </is>
+      </c>
+      <c r="B1338" t="inlineStr"/>
+      <c r="C1338" t="inlineStr"/>
+      <c r="D1338" t="inlineStr"/>
+      <c r="E1338" t="inlineStr"/>
+      <c r="F1338" t="inlineStr"/>
+      <c r="G1338" t="inlineStr"/>
+      <c r="H1338" t="inlineStr"/>
+      <c r="I1338" t="inlineStr"/>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 11498P139</t>
+        </is>
+      </c>
+      <c r="B1339" t="inlineStr"/>
+      <c r="C1339" t="inlineStr"/>
+      <c r="D1339" t="inlineStr"/>
+      <c r="E1339" t="inlineStr"/>
+      <c r="F1339" t="inlineStr"/>
+      <c r="G1339" t="inlineStr"/>
+      <c r="H1339" t="inlineStr"/>
+      <c r="I1339" t="inlineStr"/>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="inlineStr">
+        <is>
+          <t>Summarized description: Get a safety and riding instructions before heading out for a ride along the coastline. Start your tour from the ancient Roman Wall and go to Port Vell. Explore both ancient and modern Barcelona.</t>
+        </is>
+      </c>
+      <c r="B1340" t="inlineStr"/>
+      <c r="C1340" t="inlineStr"/>
+      <c r="D1340" t="inlineStr"/>
+      <c r="E1340" t="inlineStr"/>
+      <c r="F1340" t="inlineStr"/>
+      <c r="G1340" t="inlineStr"/>
+      <c r="H1340" t="inlineStr"/>
+      <c r="I1340" t="inlineStr"/>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="inlineStr">
+        <is>
+          <t>Title: Segway Private Tour in Barcelona with Friendly Local Guide</t>
+        </is>
+      </c>
+      <c r="B1341" t="inlineStr"/>
+      <c r="C1341" t="inlineStr"/>
+      <c r="D1341" t="inlineStr"/>
+      <c r="E1341" t="inlineStr"/>
+      <c r="F1341" t="inlineStr"/>
+      <c r="G1341" t="inlineStr"/>
+      <c r="H1341" t="inlineStr"/>
+      <c r="I1341" t="inlineStr"/>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1342" t="inlineStr"/>
+      <c r="C1342" t="inlineStr"/>
+      <c r="D1342" t="inlineStr"/>
+      <c r="E1342" t="inlineStr"/>
+      <c r="F1342" t="inlineStr"/>
+      <c r="G1342" t="inlineStr"/>
+      <c r="H1342" t="inlineStr"/>
+      <c r="I1342" t="inlineStr"/>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Historical Tours', 'Scenic Tours']</t>
+        </is>
+      </c>
+      <c r="B1343" t="inlineStr"/>
+      <c r="C1343" t="inlineStr"/>
+      <c r="D1343" t="inlineStr"/>
+      <c r="E1343" t="inlineStr"/>
+      <c r="F1343" t="inlineStr"/>
+      <c r="G1343" t="inlineStr"/>
+      <c r="H1343" t="inlineStr"/>
+      <c r="I1343" t="inlineStr"/>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 11498P126</t>
+        </is>
+      </c>
+      <c r="B1344" t="inlineStr"/>
+      <c r="C1344" t="inlineStr"/>
+      <c r="D1344" t="inlineStr"/>
+      <c r="E1344" t="inlineStr"/>
+      <c r="F1344" t="inlineStr"/>
+      <c r="G1344" t="inlineStr"/>
+      <c r="H1344" t="inlineStr"/>
+      <c r="I1344" t="inlineStr"/>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="inlineStr">
+        <is>
+          <t>Summarized description: Walk the streets of one of the world’s best cities for strolling and discovering its astonishing art (from outside) Enjoy the best street-level exploration of Barcelona on this private 3-hours walking journey.</t>
+        </is>
+      </c>
+      <c r="B1345" t="inlineStr"/>
+      <c r="C1345" t="inlineStr"/>
+      <c r="D1345" t="inlineStr"/>
+      <c r="E1345" t="inlineStr"/>
+      <c r="F1345" t="inlineStr"/>
+      <c r="G1345" t="inlineStr"/>
+      <c r="H1345" t="inlineStr"/>
+      <c r="I1345" t="inlineStr"/>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="inlineStr">
+        <is>
+          <t>Title: The City of Gaudi - Private Barcelona Walking Tour with Local Expert Guide</t>
+        </is>
+      </c>
+      <c r="B1346" t="inlineStr"/>
+      <c r="C1346" t="inlineStr"/>
+      <c r="D1346" t="inlineStr"/>
+      <c r="E1346" t="inlineStr"/>
+      <c r="F1346" t="inlineStr"/>
+      <c r="G1346" t="inlineStr"/>
+      <c r="H1346" t="inlineStr"/>
+      <c r="I1346" t="inlineStr"/>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1347" t="inlineStr"/>
+      <c r="C1347" t="inlineStr"/>
+      <c r="D1347" t="inlineStr"/>
+      <c r="E1347" t="inlineStr"/>
+      <c r="F1347" t="inlineStr"/>
+      <c r="G1347" t="inlineStr"/>
+      <c r="H1347" t="inlineStr"/>
+      <c r="I1347" t="inlineStr"/>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
+        </is>
+      </c>
+      <c r="B1348" t="inlineStr"/>
+      <c r="C1348" t="inlineStr"/>
+      <c r="D1348" t="inlineStr"/>
+      <c r="E1348" t="inlineStr"/>
+      <c r="F1348" t="inlineStr"/>
+      <c r="G1348" t="inlineStr"/>
+      <c r="H1348" t="inlineStr"/>
+      <c r="I1348" t="inlineStr"/>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 8647P8</t>
+        </is>
+      </c>
+      <c r="B1349" t="inlineStr"/>
+      <c r="C1349" t="inlineStr"/>
+      <c r="D1349" t="inlineStr"/>
+      <c r="E1349" t="inlineStr"/>
+      <c r="F1349" t="inlineStr"/>
+      <c r="G1349" t="inlineStr"/>
+      <c r="H1349" t="inlineStr"/>
+      <c r="I1349" t="inlineStr"/>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="inlineStr">
+        <is>
+          <t>Summarized description: 8-hour walking tour with private guide. Transportation is not included, so it would be on your own cost. Get tips from your local guide to see what other areas and places you can visit.</t>
+        </is>
+      </c>
+      <c r="B1350" t="inlineStr"/>
+      <c r="C1350" t="inlineStr"/>
+      <c r="D1350" t="inlineStr"/>
+      <c r="E1350" t="inlineStr"/>
+      <c r="F1350" t="inlineStr"/>
+      <c r="G1350" t="inlineStr"/>
+      <c r="H1350" t="inlineStr"/>
+      <c r="I1350" t="inlineStr"/>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="inlineStr">
+        <is>
+          <t>Title: Private Full Day Walking City Tour in Barcelona</t>
+        </is>
+      </c>
+      <c r="B1351" t="inlineStr"/>
+      <c r="C1351" t="inlineStr"/>
+      <c r="D1351" t="inlineStr"/>
+      <c r="E1351" t="inlineStr"/>
+      <c r="F1351" t="inlineStr"/>
+      <c r="G1351" t="inlineStr"/>
+      <c r="H1351" t="inlineStr"/>
+      <c r="I1351" t="inlineStr"/>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1352" t="inlineStr"/>
+      <c r="C1352" t="inlineStr"/>
+      <c r="D1352" t="inlineStr"/>
+      <c r="E1352" t="inlineStr"/>
+      <c r="F1352" t="inlineStr"/>
+      <c r="G1352" t="inlineStr"/>
+      <c r="H1352" t="inlineStr"/>
+      <c r="I1352" t="inlineStr"/>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours']</t>
+        </is>
+      </c>
+      <c r="B1353" t="inlineStr"/>
+      <c r="C1353" t="inlineStr"/>
+      <c r="D1353" t="inlineStr"/>
+      <c r="E1353" t="inlineStr"/>
+      <c r="F1353" t="inlineStr"/>
+      <c r="G1353" t="inlineStr"/>
+      <c r="H1353" t="inlineStr"/>
+      <c r="I1353" t="inlineStr"/>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 8647P84</t>
+        </is>
+      </c>
+      <c r="B1354" t="inlineStr"/>
+      <c r="C1354" t="inlineStr"/>
+      <c r="D1354" t="inlineStr"/>
+      <c r="E1354" t="inlineStr"/>
+      <c r="F1354" t="inlineStr"/>
+      <c r="G1354" t="inlineStr"/>
+      <c r="H1354" t="inlineStr"/>
+      <c r="I1354" t="inlineStr"/>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="inlineStr">
+        <is>
+          <t>Summarized description: Your driver will pick you up from your hotel or place of choice and you will enjoy a 4 hour private tour of Barcelona. You will have your private luxury vehicle and your driver which will also be your guide.</t>
+        </is>
+      </c>
+      <c r="B1355" t="inlineStr"/>
+      <c r="C1355" t="inlineStr"/>
+      <c r="D1355" t="inlineStr"/>
+      <c r="E1355" t="inlineStr"/>
+      <c r="F1355" t="inlineStr"/>
+      <c r="G1355" t="inlineStr"/>
+      <c r="H1355" t="inlineStr"/>
+      <c r="I1355" t="inlineStr"/>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="inlineStr">
+        <is>
+          <t>Title: Private Tour of Barcelona with Driver Guide</t>
+        </is>
+      </c>
+      <c r="B1356" t="inlineStr"/>
+      <c r="C1356" t="inlineStr"/>
+      <c r="D1356" t="inlineStr"/>
+      <c r="E1356" t="inlineStr"/>
+      <c r="F1356" t="inlineStr"/>
+      <c r="G1356" t="inlineStr"/>
+      <c r="H1356" t="inlineStr"/>
+      <c r="I1356" t="inlineStr"/>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1357" t="inlineStr"/>
+      <c r="C1357" t="inlineStr"/>
+      <c r="D1357" t="inlineStr"/>
+      <c r="E1357" t="inlineStr"/>
+      <c r="F1357" t="inlineStr"/>
+      <c r="G1357" t="inlineStr"/>
+      <c r="H1357" t="inlineStr"/>
+      <c r="I1357" t="inlineStr"/>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1358" t="inlineStr"/>
+      <c r="C1358" t="inlineStr"/>
+      <c r="D1358" t="inlineStr"/>
+      <c r="E1358" t="inlineStr"/>
+      <c r="F1358" t="inlineStr"/>
+      <c r="G1358" t="inlineStr"/>
+      <c r="H1358" t="inlineStr"/>
+      <c r="I1358" t="inlineStr"/>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 239937P89</t>
+        </is>
+      </c>
+      <c r="B1359" t="inlineStr"/>
+      <c r="C1359" t="inlineStr"/>
+      <c r="D1359" t="inlineStr"/>
+      <c r="E1359" t="inlineStr"/>
+      <c r="F1359" t="inlineStr"/>
+      <c r="G1359" t="inlineStr"/>
+      <c r="H1359" t="inlineStr"/>
+      <c r="I1359" t="inlineStr"/>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="inlineStr">
+        <is>
+          <t>Summarized description: Barcelona kickstart tour with the locals is an amazing way to know about the hidden things &amp; places of Barcelona. Avoid the tourist crowds and discover the architectural beauty of this "Full of Life " city.</t>
+        </is>
+      </c>
+      <c r="B1360" t="inlineStr"/>
+      <c r="C1360" t="inlineStr"/>
+      <c r="D1360" t="inlineStr"/>
+      <c r="E1360" t="inlineStr"/>
+      <c r="F1360" t="inlineStr"/>
+      <c r="G1360" t="inlineStr"/>
+      <c r="H1360" t="inlineStr"/>
+      <c r="I1360" t="inlineStr"/>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="inlineStr">
+        <is>
+          <t>Title: Barcelona Kickstart Tour (City Highlight Private Tour)</t>
+        </is>
+      </c>
+      <c r="B1361" t="inlineStr"/>
+      <c r="C1361" t="inlineStr"/>
+      <c r="D1361" t="inlineStr"/>
+      <c r="E1361" t="inlineStr"/>
+      <c r="F1361" t="inlineStr"/>
+      <c r="G1361" t="inlineStr"/>
+      <c r="H1361" t="inlineStr"/>
+      <c r="I1361" t="inlineStr"/>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1362" t="inlineStr"/>
+      <c r="C1362" t="inlineStr"/>
+      <c r="D1362" t="inlineStr"/>
+      <c r="E1362" t="inlineStr"/>
+      <c r="F1362" t="inlineStr"/>
+      <c r="G1362" t="inlineStr"/>
+      <c r="H1362" t="inlineStr"/>
+      <c r="I1362" t="inlineStr"/>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1363" t="inlineStr"/>
+      <c r="C1363" t="inlineStr"/>
+      <c r="D1363" t="inlineStr"/>
+      <c r="E1363" t="inlineStr"/>
+      <c r="F1363" t="inlineStr"/>
+      <c r="G1363" t="inlineStr"/>
+      <c r="H1363" t="inlineStr"/>
+      <c r="I1363" t="inlineStr"/>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 207305P225</t>
+        </is>
+      </c>
+      <c r="B1364" t="inlineStr"/>
+      <c r="C1364" t="inlineStr"/>
+      <c r="D1364" t="inlineStr"/>
+      <c r="E1364" t="inlineStr"/>
+      <c r="F1364" t="inlineStr"/>
+      <c r="G1364" t="inlineStr"/>
+      <c r="H1364" t="inlineStr"/>
+      <c r="I1364" t="inlineStr"/>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="inlineStr">
+        <is>
+          <t>Summarized description: Make the most of your time in Barcelona and experience the best of everything in Barcelona on this layover special private tour with a local. Use public transport throughout this tour to enhance your local experience even more.</t>
+        </is>
+      </c>
+      <c r="B1365" t="inlineStr"/>
+      <c r="C1365" t="inlineStr"/>
+      <c r="D1365" t="inlineStr"/>
+      <c r="E1365" t="inlineStr"/>
+      <c r="F1365" t="inlineStr"/>
+      <c r="G1365" t="inlineStr"/>
+      <c r="H1365" t="inlineStr"/>
+      <c r="I1365" t="inlineStr"/>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="inlineStr">
+        <is>
+          <t>Title: Layover in Barcelona a Private Tour with a local: Best Highlights of Barcelona</t>
+        </is>
+      </c>
+      <c r="B1366" t="inlineStr"/>
+      <c r="C1366" t="inlineStr"/>
+      <c r="D1366" t="inlineStr"/>
+      <c r="E1366" t="inlineStr"/>
+      <c r="F1366" t="inlineStr"/>
+      <c r="G1366" t="inlineStr"/>
+      <c r="H1366" t="inlineStr"/>
+      <c r="I1366" t="inlineStr"/>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1367" t="inlineStr"/>
+      <c r="C1367" t="inlineStr"/>
+      <c r="D1367" t="inlineStr"/>
+      <c r="E1367" t="inlineStr"/>
+      <c r="F1367" t="inlineStr"/>
+      <c r="G1367" t="inlineStr"/>
+      <c r="H1367" t="inlineStr"/>
+      <c r="I1367" t="inlineStr"/>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
+        </is>
+      </c>
+      <c r="B1368" t="inlineStr"/>
+      <c r="C1368" t="inlineStr"/>
+      <c r="D1368" t="inlineStr"/>
+      <c r="E1368" t="inlineStr"/>
+      <c r="F1368" t="inlineStr"/>
+      <c r="G1368" t="inlineStr"/>
+      <c r="H1368" t="inlineStr"/>
+      <c r="I1368" t="inlineStr"/>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 3394P25</t>
+        </is>
+      </c>
+      <c r="B1369" t="inlineStr"/>
+      <c r="C1369" t="inlineStr"/>
+      <c r="D1369" t="inlineStr"/>
+      <c r="E1369" t="inlineStr"/>
+      <c r="F1369" t="inlineStr"/>
+      <c r="G1369" t="inlineStr"/>
+      <c r="H1369" t="inlineStr"/>
+      <c r="I1369" t="inlineStr"/>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="inlineStr">
+        <is>
+          <t>Summarized description: Walk through Barcelona's Raval neighborhood. Enjoy urban art, graffiti, history, vintage shops, the best local Spanish restaurants. Craft Beer tasting in a local bar in the Eixample District.</t>
+        </is>
+      </c>
+      <c r="B1370" t="inlineStr"/>
+      <c r="C1370" t="inlineStr"/>
+      <c r="D1370" t="inlineStr"/>
+      <c r="E1370" t="inlineStr"/>
+      <c r="F1370" t="inlineStr"/>
+      <c r="G1370" t="inlineStr"/>
+      <c r="H1370" t="inlineStr"/>
+      <c r="I1370" t="inlineStr"/>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="inlineStr">
+        <is>
+          <t>Title: Private Craft Beer Tour in Barcelona</t>
+        </is>
+      </c>
+      <c r="B1371" t="inlineStr"/>
+      <c r="C1371" t="inlineStr"/>
+      <c r="D1371" t="inlineStr"/>
+      <c r="E1371" t="inlineStr"/>
+      <c r="F1371" t="inlineStr"/>
+      <c r="G1371" t="inlineStr"/>
+      <c r="H1371" t="inlineStr"/>
+      <c r="I1371" t="inlineStr"/>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1372" t="inlineStr"/>
+      <c r="C1372" t="inlineStr"/>
+      <c r="D1372" t="inlineStr"/>
+      <c r="E1372" t="inlineStr"/>
+      <c r="F1372" t="inlineStr"/>
+      <c r="G1372" t="inlineStr"/>
+      <c r="H1372" t="inlineStr"/>
+      <c r="I1372" t="inlineStr"/>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
+        </is>
+      </c>
+      <c r="B1373" t="inlineStr"/>
+      <c r="C1373" t="inlineStr"/>
+      <c r="D1373" t="inlineStr"/>
+      <c r="E1373" t="inlineStr"/>
+      <c r="F1373" t="inlineStr"/>
+      <c r="G1373" t="inlineStr"/>
+      <c r="H1373" t="inlineStr"/>
+      <c r="I1373" t="inlineStr"/>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 207305P228</t>
+        </is>
+      </c>
+      <c r="B1374" t="inlineStr"/>
+      <c r="C1374" t="inlineStr"/>
+      <c r="D1374" t="inlineStr"/>
+      <c r="E1374" t="inlineStr"/>
+      <c r="F1374" t="inlineStr"/>
+      <c r="G1374" t="inlineStr"/>
+      <c r="H1374" t="inlineStr"/>
+      <c r="I1374" t="inlineStr"/>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="inlineStr">
+        <is>
+          <t>Summarized description: Spain is one of the best experiences to immerse yourself into the rich Spanish culture. Our fun and entertaining guide will make this a memorable experience for you.</t>
+        </is>
+      </c>
+      <c r="B1375" t="inlineStr"/>
+      <c r="C1375" t="inlineStr"/>
+      <c r="D1375" t="inlineStr"/>
+      <c r="E1375" t="inlineStr"/>
+      <c r="F1375" t="inlineStr"/>
+      <c r="G1375" t="inlineStr"/>
+      <c r="H1375" t="inlineStr"/>
+      <c r="I1375" t="inlineStr"/>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="inlineStr">
+        <is>
+          <t>Title: Private tour of Offbeat Barcelona with a local</t>
+        </is>
+      </c>
+      <c r="B1376" t="inlineStr"/>
+      <c r="C1376" t="inlineStr"/>
+      <c r="D1376" t="inlineStr"/>
+      <c r="E1376" t="inlineStr"/>
+      <c r="F1376" t="inlineStr"/>
+      <c r="G1376" t="inlineStr"/>
+      <c r="H1376" t="inlineStr"/>
+      <c r="I1376" t="inlineStr"/>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1377" t="inlineStr"/>
+      <c r="C1377" t="inlineStr"/>
+      <c r="D1377" t="inlineStr"/>
+      <c r="E1377" t="inlineStr"/>
+      <c r="F1377" t="inlineStr"/>
+      <c r="G1377" t="inlineStr"/>
+      <c r="H1377" t="inlineStr"/>
+      <c r="I1377" t="inlineStr"/>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="inlineStr">
+        <is>
+          <t>Category: ['Cultural Tours']</t>
+        </is>
+      </c>
+      <c r="B1378" t="inlineStr"/>
+      <c r="C1378" t="inlineStr"/>
+      <c r="D1378" t="inlineStr"/>
+      <c r="E1378" t="inlineStr"/>
+      <c r="F1378" t="inlineStr"/>
+      <c r="G1378" t="inlineStr"/>
+      <c r="H1378" t="inlineStr"/>
+      <c r="I1378" t="inlineStr"/>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+      <c r="B1379" t="inlineStr"/>
+      <c r="C1379" t="inlineStr"/>
+      <c r="D1379" t="inlineStr"/>
+      <c r="E1379" t="inlineStr"/>
+      <c r="F1379" t="inlineStr"/>
+      <c r="G1379" t="inlineStr"/>
+      <c r="H1379" t="inlineStr"/>
+      <c r="I1379" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
